--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18450"/>
+    <workbookView windowWidth="25095" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="地理相关" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>等级下限</t>
   </si>
@@ -71,20 +71,65 @@
   <si>
     <t>主线任务</t>
   </si>
+  <si>
+    <t>移动速度min秒</t>
+  </si>
+  <si>
+    <t>移动速度max秒</t>
+  </si>
+  <si>
+    <t>每天游戏时间h</t>
+  </si>
+  <si>
+    <t>可以走通</t>
+  </si>
+  <si>
+    <t>最远距离米</t>
+  </si>
+  <si>
+    <t>城间距（分钟）</t>
+  </si>
+  <si>
+    <t>城间距（米）</t>
+  </si>
+  <si>
+    <t>城镇数量</t>
+  </si>
+  <si>
+    <t>城镇占比</t>
+  </si>
+  <si>
+    <t>城堡占比</t>
+  </si>
+  <si>
+    <t>村镇占比</t>
+  </si>
+  <si>
+    <t>假设种族数</t>
+  </si>
+  <si>
+    <t>每族城镇</t>
+  </si>
+  <si>
+    <t>每族城堡</t>
+  </si>
+  <si>
+    <t>每族村镇</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,9 +160,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +199,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,57 +228,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,9 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,22 +299,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,19 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +373,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +451,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,66 +497,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -469,13 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +567,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,153 +586,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,7 +853,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1096,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3333,14 +3371,151 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <f>C5*3600*C4/2</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <f>C4*C7/2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f>C6/C8</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D12" si="0">$C$9*C10</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C16" si="1">D10/$C$13</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F10E66-A61E-4A8B-B50A-A0106FAB93FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600" activeTab="1"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
     <sheet name="地理相关" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>等级下限</t>
   </si>
@@ -69,9 +83,6 @@
     <t>基础经验效率</t>
   </si>
   <si>
-    <t>主线任务</t>
-  </si>
-  <si>
     <t>移动速度min秒</t>
   </si>
   <si>
@@ -115,21 +126,29 @@
   </si>
   <si>
     <t>每族村镇</t>
+  </si>
+  <si>
+    <t>击杀怪物耗时s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物经验值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,54 +179,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,290 +198,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -506,255 +219,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,67 +250,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -853,7 +352,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1126,24 +625,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:K70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="3:11">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1187,18 +687,21 @@
       </c>
       <c r="I2" s="4">
         <f>IF(C2=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2)-I1)</f>
-        <v>1.13125</v>
+        <v>1.1312500000000001</v>
       </c>
       <c r="J2" s="3">
         <f>10/I2</f>
-        <v>8.83977900552486</v>
+        <v>8.8397790055248606</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C2)</f>
         <v>965</v>
       </c>
-    </row>
-    <row r="3" spans="3:11">
+      <c r="M2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>2</v>
       </c>
@@ -1220,18 +723,21 @@
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I7" si="0">IF(C3=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3)-I2)</f>
-        <v>1.83444444444444</v>
+        <v>1.8344444444444443</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J8" si="1">10/I3</f>
-        <v>5.45124167171411</v>
+        <f t="shared" ref="J3:J7" si="1">10/I3</f>
+        <v>5.4512416717141132</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="2">_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C3)</f>
         <v>1694</v>
       </c>
-    </row>
-    <row r="4" spans="3:11">
+      <c r="M3" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>3</v>
       </c>
@@ -1253,18 +759,21 @@
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>4.22555555555556</v>
+        <v>4.2255555555555553</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>2.36655272153563</v>
+        <v>2.3665527215356299</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-    </row>
-    <row r="5" spans="3:11">
+      <c r="M4" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C5">
         <v>4</v>
       </c>
@@ -1286,18 +795,21 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>8.16152777777778</v>
+        <v>8.1615277777777777</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>1.22526079335636</v>
+        <v>1.2252607933563637</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
         <v>7023</v>
       </c>
-    </row>
-    <row r="6" spans="3:11">
+      <c r="M5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6">
         <v>5</v>
       </c>
@@ -1319,18 +831,18 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>16.7852777777778</v>
+        <v>16.785277777777779</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>0.595760173432406</v>
+        <v>0.59576017343240606</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>6</v>
       </c>
@@ -1352,38 +864,38 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>27.7941666666667</v>
+        <v>27.794166666666669</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>0.359787725242107</v>
+        <v>0.35978772524210711</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I2:I7)</f>
-        <v>59.9322222222222</v>
+        <v>59.932222222222222</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="9:9">
-      <c r="I10" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27" spans="2:10">
+    <row r="11" spans="2:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,14 +917,14 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -1426,7 +938,7 @@
       </c>
       <c r="E12" s="3">
         <f>D12/(3600)/$E$9</f>
-        <v>0.117361111111111</v>
+        <v>0.11736111111111111</v>
       </c>
       <c r="F12">
         <f>IF(C12=1,D12,F11+D12)</f>
@@ -1434,17 +946,21 @@
       </c>
       <c r="G12" s="3">
         <f>F12/(3600)/$E$9</f>
-        <v>0.117361111111111</v>
+        <v>0.11736111111111111</v>
       </c>
       <c r="H12" s="4">
         <f>F12/60</f>
-        <v>14.0833333333333</v>
+        <v>14.083333333333334</v>
       </c>
       <c r="I12">
+        <f>F12/$M$3</f>
+        <v>42.25</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13">
         <f t="shared" ref="B13:B70" si="4">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
@@ -1458,7 +974,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13:E70" si="6">D13/(3600)/$E$9</f>
-        <v>0.119444444444444</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F70" si="7">IF(C13=1,D13,F12+D13)</f>
@@ -1466,18 +982,22 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ref="G13:G70" si="8">F13/(3600)/$E$9</f>
-        <v>0.236805555555556</v>
+        <v>0.23680555555555555</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" ref="H13:H44" si="9">F13/60</f>
-        <v>28.4166666666667</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" ref="I13:I70" si="10">I12+0.1</f>
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>28.416666666666668</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I70" si="10">F13/$M$3</f>
+        <v>85.25</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13:J70" si="11">J12+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1491,7 +1011,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="6"/>
-        <v>0.121527777777778</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="F14">
         <f t="shared" si="7"/>
@@ -1499,18 +1019,22 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="8"/>
-        <v>0.358333333333333</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="I14">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="11"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1524,7 +1048,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="6"/>
-        <v>0.123611111111111</v>
+        <v>0.12361111111111112</v>
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
@@ -1532,18 +1056,22 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="8"/>
-        <v>0.481944444444444</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="9"/>
-        <v>57.8333333333333</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="10"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>57.833333333333336</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>173.5</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="11"/>
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1557,7 +1085,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="6"/>
-        <v>0.125694444444444</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
@@ -1565,18 +1093,22 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="8"/>
-        <v>0.607638888888889</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="9"/>
-        <v>72.9166666666667</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="10"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>72.916666666666671</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>218.75</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1590,7 +1122,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="6"/>
-        <v>0.127777777777778</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
@@ -1598,18 +1130,22 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="8"/>
-        <v>0.735416666666667</v>
+        <v>0.73541666666666672</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="9"/>
         <v>88.25</v>
       </c>
-      <c r="I17" s="7">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>264.75</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1623,7 +1159,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="6"/>
-        <v>0.129861111111111</v>
+        <v>0.12986111111111112</v>
       </c>
       <c r="F18">
         <f t="shared" si="7"/>
@@ -1631,18 +1167,22 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="8"/>
-        <v>0.865277777777778</v>
+        <v>0.86527777777777781</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="9"/>
-        <v>103.833333333333</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="10"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>103.83333333333333</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>311.5</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1656,7 +1196,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="6"/>
-        <v>0.131944444444444</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="F19">
         <f t="shared" si="7"/>
@@ -1664,18 +1204,22 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="8"/>
-        <v>0.997222222222222</v>
+        <v>0.99722222222222223</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="9"/>
-        <v>119.666666666667</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="10"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>119.66666666666667</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>359</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7000000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1689,7 +1233,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="6"/>
-        <v>0.134027777777778</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
@@ -1697,18 +1241,22 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="8"/>
-        <v>1.13125</v>
+        <v>1.1312500000000001</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="9"/>
         <v>135.75</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>407.25</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1722,7 +1270,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="6"/>
-        <v>0.141805555555556</v>
+        <v>0.14180555555555555</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
@@ -1730,18 +1278,22 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="8"/>
-        <v>1.27305555555556</v>
+        <v>1.2730555555555556</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="9"/>
-        <v>152.766666666667</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="10"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>152.76666666666668</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>458.3</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9000000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1755,7 +1307,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="6"/>
-        <v>0.148333333333333</v>
+        <v>0.14833333333333334</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
@@ -1763,18 +1315,22 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="8"/>
-        <v>1.42138888888889</v>
+        <v>1.4213888888888888</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="9"/>
-        <v>170.566666666667</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>170.56666666666666</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>511.7</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1796,18 +1352,22 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="8"/>
-        <v>1.57763888888889</v>
+        <v>1.5776388888888888</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="9"/>
-        <v>189.316666666667</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="10"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>189.31666666666666</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>567.95000000000005</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="11"/>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1821,7 +1381,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="6"/>
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="7"/>
@@ -1829,18 +1389,22 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="8"/>
-        <v>1.74263888888889</v>
+        <v>1.7426388888888888</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="9"/>
-        <v>209.116666666667</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="10"/>
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>209.11666666666667</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>627.35</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1854,7 +1418,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>0.174722222222222</v>
+        <v>0.17472222222222222</v>
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
@@ -1862,18 +1426,22 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="8"/>
-        <v>1.91736111111111</v>
+        <v>1.9173611111111111</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="9"/>
-        <v>230.083333333333</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="10"/>
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>230.08333333333334</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>690.25</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1887,7 +1455,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>0.185416666666667</v>
+        <v>0.18541666666666667</v>
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
@@ -1895,18 +1463,22 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="8"/>
-        <v>2.10277777777778</v>
+        <v>2.1027777777777779</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="9"/>
-        <v>252.333333333333</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <v>252.33333333333334</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>757</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="11"/>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1920,7 +1492,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="6"/>
-        <v>0.196805555555556</v>
+        <v>0.19680555555555557</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
@@ -1928,18 +1500,22 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="8"/>
-        <v>2.29958333333333</v>
+        <v>2.2995833333333335</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="9"/>
         <v>275.95</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="10"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>827.85</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1953,7 +1529,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="6"/>
-        <v>0.209027777777778</v>
+        <v>0.20902777777777778</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
@@ -1961,18 +1537,22 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="8"/>
-        <v>2.50861111111111</v>
+        <v>2.5086111111111111</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="9"/>
-        <v>301.033333333333</v>
-      </c>
-      <c r="I28" s="7">
-        <f t="shared" si="10"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>301.03333333333336</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>903.1</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1986,7 +1566,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="6"/>
-        <v>0.221805555555556</v>
+        <v>0.22180555555555556</v>
       </c>
       <c r="F29">
         <f t="shared" si="7"/>
@@ -1994,18 +1574,22 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="8"/>
-        <v>2.73041666666667</v>
+        <v>2.7304166666666667</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="9"/>
-        <v>327.65</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="10"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>327.64999999999998</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>982.95</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2019,7 +1603,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="6"/>
-        <v>0.235277777777778</v>
+        <v>0.23527777777777778</v>
       </c>
       <c r="F30">
         <f t="shared" si="7"/>
@@ -2027,18 +1611,22 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="8"/>
-        <v>2.96569444444444</v>
+        <v>2.9656944444444444</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="9"/>
-        <v>355.883333333333</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="10"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <v>355.88333333333333</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>1067.6500000000001</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="11"/>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2052,7 +1640,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="6"/>
-        <v>0.246944444444444</v>
+        <v>0.24694444444444444</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
@@ -2060,18 +1648,22 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="8"/>
-        <v>3.21263888888889</v>
+        <v>3.2126388888888888</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="9"/>
-        <v>385.516666666667</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="10"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>385.51666666666665</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>1156.55</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2085,7 +1677,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="6"/>
-        <v>0.256805555555556</v>
+        <v>0.25680555555555556</v>
       </c>
       <c r="F32">
         <f t="shared" si="7"/>
@@ -2093,18 +1685,22 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="8"/>
-        <v>3.46944444444444</v>
+        <v>3.4694444444444446</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="9"/>
-        <v>416.333333333333</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>416.33333333333331</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>1249</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2118,7 +1714,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="6"/>
-        <v>0.268611111111111</v>
+        <v>0.26861111111111113</v>
       </c>
       <c r="F33">
         <f t="shared" si="7"/>
@@ -2126,18 +1722,22 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="8"/>
-        <v>3.73805555555556</v>
+        <v>3.7380555555555555</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="9"/>
-        <v>448.566666666667</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="10"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>448.56666666666666</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>1345.7</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="11"/>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2151,7 +1751,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="6"/>
-        <v>0.281805555555556</v>
+        <v>0.28180555555555553</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
@@ -2159,18 +1759,22 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" si="8"/>
-        <v>4.01986111111111</v>
+        <v>4.0198611111111111</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="9"/>
-        <v>482.383333333333</v>
-      </c>
-      <c r="I34" s="7">
-        <f t="shared" si="10"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>482.38333333333333</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>1447.15</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="11"/>
+        <v>3.200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2184,7 +1788,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="6"/>
-        <v>0.296388888888889</v>
+        <v>0.29638888888888887</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
@@ -2192,18 +1796,22 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" si="8"/>
-        <v>4.31625</v>
+        <v>4.3162500000000001</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="9"/>
-        <v>517.95</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="10"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>517.95000000000005</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>1553.85</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="11"/>
+        <v>3.300000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2217,7 +1825,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="6"/>
-        <v>0.312361111111111</v>
+        <v>0.31236111111111109</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
@@ -2225,18 +1833,22 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" si="8"/>
-        <v>4.62861111111111</v>
+        <v>4.6286111111111108</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="9"/>
-        <v>555.433333333333</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="10"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>555.43333333333328</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>1666.3</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000021</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2250,7 +1862,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="6"/>
-        <v>0.329444444444444</v>
+        <v>0.32944444444444443</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
@@ -2258,18 +1870,22 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" si="8"/>
-        <v>4.95805555555556</v>
+        <v>4.9580555555555552</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="9"/>
-        <v>594.966666666667</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>594.9666666666667</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>1784.9</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="11"/>
+        <v>3.5000000000000022</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2283,7 +1899,7 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="6"/>
-        <v>0.347777777777778</v>
+        <v>0.3477777777777778</v>
       </c>
       <c r="F38">
         <f t="shared" si="7"/>
@@ -2291,18 +1907,22 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" si="8"/>
-        <v>5.30583333333333</v>
+        <v>5.3058333333333332</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="9"/>
-        <v>636.7</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="10"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>1910.1</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="11"/>
+        <v>3.6000000000000023</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2316,7 +1936,7 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" si="6"/>
-        <v>0.366944444444444</v>
+        <v>0.36694444444444446</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
@@ -2324,18 +1944,22 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" si="8"/>
-        <v>5.67277777777778</v>
+        <v>5.6727777777777781</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="9"/>
-        <v>680.733333333333</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="10"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>680.73333333333335</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>2042.2</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="11"/>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2349,7 +1973,7 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" si="6"/>
-        <v>0.387222222222222</v>
+        <v>0.38722222222222225</v>
       </c>
       <c r="F40">
         <f t="shared" si="7"/>
@@ -2363,12 +1987,16 @@
         <f t="shared" si="9"/>
         <v>727.2</v>
       </c>
-      <c r="I40" s="7">
-        <f t="shared" si="10"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>2181.6</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8000000000000025</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2382,7 +2010,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="6"/>
-        <v>0.406666666666667</v>
+        <v>0.40666666666666668</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
@@ -2390,18 +2018,22 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="8"/>
-        <v>6.46666666666667</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="9"/>
         <v>776</v>
       </c>
-      <c r="I41" s="7">
-        <f t="shared" si="10"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>2328</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="11"/>
+        <v>3.9000000000000026</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2415,7 +2047,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="6"/>
-        <v>0.430972222222222</v>
+        <v>0.4309722222222222</v>
       </c>
       <c r="F42">
         <f t="shared" si="7"/>
@@ -2423,18 +2055,22 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="8"/>
-        <v>6.89763888888889</v>
+        <v>6.8976388888888893</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="9"/>
-        <v>827.716666666667</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>827.7166666666667</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>2483.15</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000027</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2448,7 +2084,7 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="6"/>
-        <v>0.465</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F43">
         <f t="shared" si="7"/>
@@ -2456,18 +2092,22 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="8"/>
-        <v>7.36263888888889</v>
+        <v>7.3626388888888892</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="9"/>
-        <v>883.516666666667</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="10"/>
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>883.51666666666665</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>2650.55</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="11"/>
+        <v>4.1000000000000023</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2481,7 +2121,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="6"/>
-        <v>0.50875</v>
+        <v>0.50875000000000004</v>
       </c>
       <c r="F44">
         <f t="shared" si="7"/>
@@ -2489,18 +2129,22 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="8"/>
-        <v>7.87138888888889</v>
+        <v>7.8713888888888892</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="9"/>
-        <v>944.566666666667</v>
-      </c>
-      <c r="I44" s="7">
-        <f t="shared" si="10"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>944.56666666666672</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>2833.7</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="11"/>
+        <v>4.200000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2514,7 +2158,7 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="6"/>
-        <v>0.562222222222222</v>
+        <v>0.56222222222222218</v>
       </c>
       <c r="F45">
         <f t="shared" si="7"/>
@@ -2522,18 +2166,22 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="8"/>
-        <v>8.43361111111111</v>
+        <v>8.4336111111111105</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H70" si="11">F45/60</f>
-        <v>1012.03333333333</v>
-      </c>
-      <c r="I45" s="7">
-        <f t="shared" si="10"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <f t="shared" ref="H45:H70" si="12">F45/60</f>
+        <v>1012.0333333333333</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>3036.1</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="11"/>
+        <v>4.3000000000000016</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2547,7 +2195,7 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="6"/>
-        <v>0.625416666666667</v>
+        <v>0.62541666666666662</v>
       </c>
       <c r="F46">
         <f t="shared" si="7"/>
@@ -2555,18 +2203,22 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="8"/>
-        <v>9.05902777777778</v>
+        <v>9.0590277777777786</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="11"/>
-        <v>1087.08333333333</v>
-      </c>
-      <c r="I46" s="7">
-        <f t="shared" si="10"/>
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1087.0833333333333</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>3261.25</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4000000000000012</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2580,7 +2232,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="6"/>
-        <v>0.698333333333333</v>
+        <v>0.69833333333333336</v>
       </c>
       <c r="F47">
         <f t="shared" si="7"/>
@@ -2588,18 +2240,22 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="8"/>
-        <v>9.75736111111111</v>
+        <v>9.7573611111111109</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="11"/>
-        <v>1170.88333333333</v>
-      </c>
-      <c r="I47" s="7">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1170.8833333333334</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>3512.65</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5000000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2613,7 +2269,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" si="6"/>
-        <v>0.780972222222222</v>
+        <v>0.78097222222222218</v>
       </c>
       <c r="F48">
         <f t="shared" si="7"/>
@@ -2621,18 +2277,22 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="8"/>
-        <v>10.5383333333333</v>
+        <v>10.538333333333334</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="11"/>
-        <v>1264.6</v>
-      </c>
-      <c r="I48" s="7">
-        <f t="shared" si="10"/>
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1264.5999999999999</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>3793.8</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="11"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2646,7 +2306,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="6"/>
-        <v>0.873333333333333</v>
+        <v>0.87333333333333329</v>
       </c>
       <c r="F49">
         <f t="shared" si="7"/>
@@ -2654,18 +2314,22 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="8"/>
-        <v>11.4116666666667</v>
+        <v>11.411666666666667</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1369.4</v>
       </c>
-      <c r="I49" s="7">
-        <f t="shared" si="10"/>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>4108.2</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="11"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2679,7 +2343,7 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" si="6"/>
-        <v>0.975416666666667</v>
+        <v>0.97541666666666671</v>
       </c>
       <c r="F50">
         <f t="shared" si="7"/>
@@ -2687,18 +2351,22 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="8"/>
-        <v>12.3870833333333</v>
+        <v>12.387083333333333</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1486.45</v>
       </c>
-      <c r="I50" s="7">
-        <f t="shared" si="10"/>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>4459.3500000000004</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="11"/>
         <v>4.8</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2712,7 +2380,7 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" si="6"/>
-        <v>0.997638888888889</v>
+        <v>0.99763888888888885</v>
       </c>
       <c r="F51">
         <f t="shared" si="7"/>
@@ -2720,18 +2388,22 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="8"/>
-        <v>13.3847222222222</v>
+        <v>13.384722222222223</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="11"/>
-        <v>1606.16666666667</v>
-      </c>
-      <c r="I51" s="7">
-        <f t="shared" si="10"/>
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1606.1666666666667</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>4818.5</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="11"/>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2745,7 +2417,7 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" si="6"/>
-        <v>1.02541666666667</v>
+        <v>1.0254166666666666</v>
       </c>
       <c r="F52">
         <f t="shared" si="7"/>
@@ -2753,18 +2425,22 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="8"/>
-        <v>14.4101388888889</v>
+        <v>14.410138888888889</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="11"/>
-        <v>1729.21666666667</v>
-      </c>
-      <c r="I52" s="7">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1729.2166666666667</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>5187.6499999999996</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="11"/>
+        <v>4.9999999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2778,7 +2454,7 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" si="6"/>
-        <v>1.06430555555556</v>
+        <v>1.0643055555555556</v>
       </c>
       <c r="F53">
         <f t="shared" si="7"/>
@@ -2786,18 +2462,22 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="8"/>
-        <v>15.4744444444444</v>
+        <v>15.474444444444444</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="11"/>
-        <v>1856.93333333333</v>
-      </c>
-      <c r="I53" s="7">
-        <f t="shared" si="10"/>
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>1856.9333333333334</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>5570.8</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="11"/>
+        <v>5.0999999999999988</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2811,7 +2491,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="6"/>
-        <v>1.11430555555556</v>
+        <v>1.1143055555555557</v>
       </c>
       <c r="F54">
         <f t="shared" si="7"/>
@@ -2819,18 +2499,22 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="8"/>
-        <v>16.58875</v>
+        <v>16.588750000000001</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1990.65</v>
       </c>
-      <c r="I54" s="7">
-        <f t="shared" si="10"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>5971.95</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="11"/>
+        <v>5.1999999999999984</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2844,7 +2528,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="6"/>
-        <v>1.17541666666667</v>
+        <v>1.1754166666666668</v>
       </c>
       <c r="F55">
         <f t="shared" si="7"/>
@@ -2852,18 +2536,22 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="8"/>
-        <v>17.7641666666667</v>
+        <v>17.764166666666668</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="11"/>
-        <v>2131.7</v>
-      </c>
-      <c r="I55" s="7">
-        <f t="shared" si="10"/>
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>2131.6999999999998</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>6395.1</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="11"/>
+        <v>5.299999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2877,7 +2565,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" si="6"/>
-        <v>1.24763888888889</v>
+        <v>1.247638888888889</v>
       </c>
       <c r="F56">
         <f t="shared" si="7"/>
@@ -2885,18 +2573,22 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="8"/>
-        <v>19.0118055555556</v>
+        <v>19.011805555555554</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="11"/>
-        <v>2281.41666666667</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" si="10"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>2281.4166666666665</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>6844.25</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="11"/>
+        <v>5.3999999999999977</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2910,7 +2602,7 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" si="6"/>
-        <v>1.33097222222222</v>
+        <v>1.3309722222222222</v>
       </c>
       <c r="F57">
         <f t="shared" si="7"/>
@@ -2918,18 +2610,22 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="8"/>
-        <v>20.3427777777778</v>
+        <v>20.342777777777776</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="11"/>
-        <v>2441.13333333333</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="10"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>2441.1333333333332</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="10"/>
+        <v>7323.4</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="11"/>
+        <v>5.4999999999999973</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2943,7 +2639,7 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" si="6"/>
-        <v>1.42541666666667</v>
+        <v>1.4254166666666668</v>
       </c>
       <c r="F58">
         <f t="shared" si="7"/>
@@ -2951,18 +2647,22 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" si="8"/>
-        <v>21.7681944444444</v>
+        <v>21.768194444444443</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="11"/>
-        <v>2612.18333333333</v>
-      </c>
-      <c r="I58" s="7">
-        <f t="shared" si="10"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>2612.1833333333334</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>7836.55</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="11"/>
+        <v>5.599999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2976,7 +2676,7 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" si="6"/>
-        <v>1.53097222222222</v>
+        <v>1.5309722222222222</v>
       </c>
       <c r="F59">
         <f t="shared" si="7"/>
@@ -2984,18 +2684,22 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" si="8"/>
-        <v>23.2991666666667</v>
+        <v>23.299166666666668</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2795.9</v>
       </c>
-      <c r="I59" s="7">
-        <f t="shared" si="10"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>8387.7000000000007</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="11"/>
+        <v>5.6999999999999966</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3009,7 +2713,7 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" si="6"/>
-        <v>1.64763888888889</v>
+        <v>1.6476388888888889</v>
       </c>
       <c r="F60">
         <f t="shared" si="7"/>
@@ -3017,18 +2721,22 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" si="8"/>
-        <v>24.9468055555556</v>
+        <v>24.946805555555557</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="11"/>
-        <v>2993.61666666667</v>
-      </c>
-      <c r="I60" s="7">
-        <f t="shared" si="10"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>2993.6166666666668</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>8980.85</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="11"/>
+        <v>5.7999999999999963</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3042,7 +2750,7 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" si="6"/>
-        <v>1.67263888888889</v>
+        <v>1.6726388888888888</v>
       </c>
       <c r="F61">
         <f t="shared" si="7"/>
@@ -3050,18 +2758,22 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="8"/>
-        <v>26.6194444444444</v>
+        <v>26.619444444444444</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="11"/>
-        <v>3194.33333333333</v>
-      </c>
-      <c r="I61" s="7">
-        <f t="shared" si="10"/>
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>3194.3333333333335</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="10"/>
+        <v>9583</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="11"/>
+        <v>5.8999999999999959</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3075,7 +2787,7 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" si="6"/>
-        <v>1.70388888888889</v>
+        <v>1.7038888888888888</v>
       </c>
       <c r="F62">
         <f t="shared" si="7"/>
@@ -3083,18 +2795,22 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" si="8"/>
-        <v>28.3233333333333</v>
+        <v>28.323333333333334</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3398.8</v>
       </c>
-      <c r="I62" s="7">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+      <c r="I62">
+        <f t="shared" si="10"/>
+        <v>10196.4</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="11"/>
+        <v>5.9999999999999956</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3108,7 +2824,7 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" si="6"/>
-        <v>1.74763888888889</v>
+        <v>1.747638888888889</v>
       </c>
       <c r="F63">
         <f t="shared" si="7"/>
@@ -3116,18 +2832,22 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" si="8"/>
-        <v>30.0709722222222</v>
+        <v>30.070972222222224</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="11"/>
-        <v>3608.51666666667</v>
-      </c>
-      <c r="I63" s="7">
-        <f t="shared" si="10"/>
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>3608.5166666666669</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
+        <v>10825.55</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="11"/>
+        <v>6.0999999999999952</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3141,7 +2861,7 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" si="6"/>
-        <v>1.80388888888889</v>
+        <v>1.8038888888888889</v>
       </c>
       <c r="F64">
         <f t="shared" si="7"/>
@@ -3149,18 +2869,22 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" si="8"/>
-        <v>31.8748611111111</v>
+        <v>31.874861111111112</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="11"/>
-        <v>3824.98333333333</v>
-      </c>
-      <c r="I64" s="7">
-        <f t="shared" si="10"/>
-        <v>6.19999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>3824.9833333333331</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
+        <v>11474.95</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="11"/>
+        <v>6.1999999999999948</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3174,7 +2898,7 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" si="6"/>
-        <v>1.87263888888889</v>
+        <v>1.872638888888889</v>
       </c>
       <c r="F65">
         <f t="shared" si="7"/>
@@ -3182,18 +2906,22 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" si="8"/>
-        <v>33.7475</v>
+        <v>33.747500000000002</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4049.7</v>
       </c>
-      <c r="I65" s="7">
-        <f t="shared" si="10"/>
-        <v>6.29999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+      <c r="I65">
+        <f t="shared" si="10"/>
+        <v>12149.1</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="11"/>
+        <v>6.2999999999999945</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3207,7 +2935,7 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="6"/>
-        <v>1.95388888888889</v>
+        <v>1.9538888888888888</v>
       </c>
       <c r="F66">
         <f t="shared" si="7"/>
@@ -3215,18 +2943,22 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" si="8"/>
-        <v>35.7013888888889</v>
+        <v>35.701388888888886</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="11"/>
-        <v>4284.16666666667</v>
-      </c>
-      <c r="I66" s="7">
-        <f t="shared" si="10"/>
-        <v>6.39999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>4284.166666666667</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="10"/>
+        <v>12852.5</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="11"/>
+        <v>6.3999999999999941</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3240,7 +2972,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="6"/>
-        <v>2.04763888888889</v>
+        <v>2.0476388888888888</v>
       </c>
       <c r="F67">
         <f t="shared" si="7"/>
@@ -3248,18 +2980,22 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" si="8"/>
-        <v>37.7490277777778</v>
+        <v>37.749027777777776</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="11"/>
-        <v>4529.88333333333</v>
-      </c>
-      <c r="I67" s="7">
-        <f t="shared" si="10"/>
-        <v>6.49999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>4529.8833333333332</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="10"/>
+        <v>13589.65</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="11"/>
+        <v>6.4999999999999938</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3273,7 +3009,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" si="6"/>
-        <v>2.15388888888889</v>
+        <v>2.153888888888889</v>
       </c>
       <c r="F68">
         <f t="shared" si="7"/>
@@ -3281,18 +3017,22 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" si="8"/>
-        <v>39.9029166666667</v>
+        <v>39.90291666666667</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="11"/>
-        <v>4788.35</v>
-      </c>
-      <c r="I68" s="7">
-        <f t="shared" si="10"/>
-        <v>6.59999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>4788.3500000000004</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>14365.05</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="11"/>
+        <v>6.5999999999999934</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3306,7 +3046,7 @@
       </c>
       <c r="E69" s="3">
         <f t="shared" si="6"/>
-        <v>2.27263888888889</v>
+        <v>2.2726388888888889</v>
       </c>
       <c r="F69">
         <f t="shared" si="7"/>
@@ -3314,18 +3054,22 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" si="8"/>
-        <v>42.1755555555556</v>
+        <v>42.175555555555555</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="11"/>
-        <v>5061.06666666667</v>
-      </c>
-      <c r="I69" s="7">
-        <f t="shared" si="10"/>
-        <v>6.69999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <f t="shared" si="12"/>
+        <v>5061.0666666666666</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>15183.2</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="11"/>
+        <v>6.6999999999999931</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3339,7 +3083,7 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" si="6"/>
-        <v>2.40388888888889</v>
+        <v>2.403888888888889</v>
       </c>
       <c r="F70">
         <f t="shared" si="7"/>
@@ -3347,21 +3091,25 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" si="8"/>
-        <v>44.5794444444444</v>
+        <v>44.579444444444448</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="11"/>
-        <v>5349.53333333333</v>
-      </c>
-      <c r="I70" s="7">
-        <f t="shared" si="10"/>
-        <v>6.79999999999999</v>
+        <f t="shared" si="12"/>
+        <v>5349.5333333333338</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>16048.6</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="11"/>
+        <v>6.7999999999999927</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F12:F70" formula="1"/>
   </ignoredErrors>
@@ -3369,84 +3117,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6">
         <f>C5*3600*C4/2</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <f>C4*C7/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <f>C6/C8</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -3456,9 +3203,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -3468,9 +3215,9 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -3480,35 +3227,35 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C16" si="1">D10/$C$13</f>
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -3516,25 +3263,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F10E66-A61E-4A8B-B50A-A0106FAB93FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF8406-A9D7-46E1-9E21-A317084B4544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>等级下限</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>击杀怪物经验值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需经验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -263,72 +267,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -352,7 +290,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -631,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M70"/>
+  <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +581,7 @@
     <col min="8" max="8" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>1</v>
       </c>
@@ -701,7 +639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>2</v>
       </c>
@@ -737,7 +675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>3</v>
       </c>
@@ -773,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C5">
         <v>4</v>
       </c>
@@ -806,10 +744,10 @@
         <v>7023</v>
       </c>
       <c r="M5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C6">
         <v>5</v>
       </c>
@@ -842,7 +780,7 @@
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>6</v>
       </c>
@@ -875,7 +813,7 @@
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>7</v>
       </c>
@@ -885,17 +823,17 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="J10" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -920,11 +858,17 @@
       <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -957,10 +901,17 @@
         <v>42.25</v>
       </c>
       <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f>FLOOR(I12*J12,5)</f>
+        <v>420</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13">
         <f t="shared" ref="B13:B70" si="4">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
@@ -992,12 +943,20 @@
         <f t="shared" ref="I13:I70" si="10">F13/$M$3</f>
         <v>85.25</v>
       </c>
-      <c r="J13" s="7">
-        <f t="shared" ref="J13:J70" si="11">J12+0.1</f>
+      <c r="J13">
+        <f>J12*1.1</f>
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K70" si="11">FLOOR(I13*J13,5)</f>
+        <v>935</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" ref="N13:N70" si="12">N12+0.1</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1029,12 +988,20 @@
         <f t="shared" si="10"/>
         <v>129</v>
       </c>
-      <c r="J14" s="7">
-        <f t="shared" si="11"/>
+      <c r="J14">
+        <f t="shared" ref="J14:J70" si="13">J13*1.1</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="11"/>
+        <v>1560</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="12"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1066,12 +1033,20 @@
         <f t="shared" si="10"/>
         <v>173.5</v>
       </c>
-      <c r="J15" s="7">
-        <f t="shared" si="11"/>
+      <c r="J15">
+        <f t="shared" si="13"/>
+        <v>13.310000000000002</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="11"/>
+        <v>2305</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="12"/>
         <v>1.3000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1103,12 +1078,20 @@
         <f t="shared" si="10"/>
         <v>218.75</v>
       </c>
-      <c r="J16" s="7">
-        <f t="shared" si="11"/>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>14.641000000000004</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="11"/>
+        <v>3200</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="12"/>
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1140,12 +1123,20 @@
         <f t="shared" si="10"/>
         <v>264.75</v>
       </c>
-      <c r="J17" s="7">
-        <f t="shared" si="11"/>
+      <c r="J17">
+        <f t="shared" si="13"/>
+        <v>16.105100000000004</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="11"/>
+        <v>4260</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="12"/>
         <v>1.5000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1177,12 +1168,20 @@
         <f t="shared" si="10"/>
         <v>311.5</v>
       </c>
-      <c r="J18" s="7">
-        <f t="shared" si="11"/>
+      <c r="J18">
+        <f t="shared" si="13"/>
+        <v>17.715610000000005</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="11"/>
+        <v>5515</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="12"/>
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1214,12 +1213,20 @@
         <f t="shared" si="10"/>
         <v>359</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="11"/>
+      <c r="J19">
+        <f t="shared" si="13"/>
+        <v>19.487171000000007</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="11"/>
+        <v>6995</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="12"/>
         <v>1.7000000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1251,12 +1258,20 @@
         <f t="shared" si="10"/>
         <v>407.25</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="11"/>
+      <c r="J20">
+        <f t="shared" si="13"/>
+        <v>21.43588810000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="11"/>
+        <v>8725</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="12"/>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1288,12 +1303,20 @@
         <f t="shared" si="10"/>
         <v>458.3</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" si="11"/>
+      <c r="J21">
+        <f t="shared" si="13"/>
+        <v>23.579476910000015</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="11"/>
+        <v>10805</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="12"/>
         <v>1.9000000000000008</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1325,12 +1348,20 @@
         <f t="shared" si="10"/>
         <v>511.7</v>
       </c>
-      <c r="J22" s="7">
-        <f t="shared" si="11"/>
+      <c r="J22">
+        <f t="shared" si="13"/>
+        <v>25.937424601000018</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="11"/>
+        <v>13270</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="12"/>
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1362,12 +1393,20 @@
         <f t="shared" si="10"/>
         <v>567.95000000000005</v>
       </c>
-      <c r="J23" s="7">
-        <f t="shared" si="11"/>
+      <c r="J23">
+        <f t="shared" si="13"/>
+        <v>28.531167061100021</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>16200</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="12"/>
         <v>2.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1399,12 +1438,20 @@
         <f t="shared" si="10"/>
         <v>627.35</v>
       </c>
-      <c r="J24" s="7">
-        <f t="shared" si="11"/>
+      <c r="J24">
+        <f t="shared" si="13"/>
+        <v>31.384283767210025</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="11"/>
+        <v>19685</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="12"/>
         <v>2.2000000000000011</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1436,12 +1483,20 @@
         <f t="shared" si="10"/>
         <v>690.25</v>
       </c>
-      <c r="J25" s="7">
-        <f t="shared" si="11"/>
+      <c r="J25">
+        <f t="shared" si="13"/>
+        <v>34.522712143931031</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="11"/>
+        <v>23825</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="12"/>
         <v>2.3000000000000012</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1473,12 +1528,20 @@
         <f t="shared" si="10"/>
         <v>757</v>
       </c>
-      <c r="J26" s="7">
-        <f t="shared" si="11"/>
+      <c r="J26">
+        <f t="shared" si="13"/>
+        <v>37.974983358324138</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="11"/>
+        <v>28745</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="12"/>
         <v>2.4000000000000012</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1510,12 +1573,20 @@
         <f t="shared" si="10"/>
         <v>827.85</v>
       </c>
-      <c r="J27" s="7">
-        <f t="shared" si="11"/>
+      <c r="J27">
+        <f t="shared" si="13"/>
+        <v>41.772481694156554</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="11"/>
+        <v>34580</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="12"/>
         <v>2.5000000000000013</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1547,12 +1618,20 @@
         <f t="shared" si="10"/>
         <v>903.1</v>
       </c>
-      <c r="J28" s="7">
-        <f t="shared" si="11"/>
+      <c r="J28">
+        <f t="shared" si="13"/>
+        <v>45.949729863572216</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="11"/>
+        <v>41495</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="12"/>
         <v>2.6000000000000014</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1584,12 +1663,20 @@
         <f t="shared" si="10"/>
         <v>982.95</v>
       </c>
-      <c r="J29" s="7">
-        <f t="shared" si="11"/>
+      <c r="J29">
+        <f t="shared" si="13"/>
+        <v>50.544702849929443</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="11"/>
+        <v>49680</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="12"/>
         <v>2.7000000000000015</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1621,12 +1708,20 @@
         <f t="shared" si="10"/>
         <v>1067.6500000000001</v>
       </c>
-      <c r="J30" s="7">
-        <f t="shared" si="11"/>
+      <c r="J30">
+        <f t="shared" si="13"/>
+        <v>55.599173134922395</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="11"/>
+        <v>59360</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="12"/>
         <v>2.8000000000000016</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1658,12 +1753,20 @@
         <f t="shared" si="10"/>
         <v>1156.55</v>
       </c>
-      <c r="J31" s="7">
-        <f t="shared" si="11"/>
+      <c r="J31">
+        <f t="shared" si="13"/>
+        <v>61.159090448414638</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="11"/>
+        <v>70730</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="12"/>
         <v>2.9000000000000017</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1695,12 +1798,20 @@
         <f t="shared" si="10"/>
         <v>1249</v>
       </c>
-      <c r="J32" s="7">
-        <f t="shared" si="11"/>
+      <c r="J32">
+        <f t="shared" si="13"/>
+        <v>67.274999493256104</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>84025</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="12"/>
         <v>3.0000000000000018</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1732,12 +1843,20 @@
         <f t="shared" si="10"/>
         <v>1345.7</v>
       </c>
-      <c r="J33" s="7">
-        <f t="shared" si="11"/>
+      <c r="J33">
+        <f t="shared" si="13"/>
+        <v>74.002499442581723</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>99585</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="12"/>
         <v>3.1000000000000019</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1769,12 +1888,20 @@
         <f t="shared" si="10"/>
         <v>1447.15</v>
       </c>
-      <c r="J34" s="7">
-        <f t="shared" si="11"/>
+      <c r="J34">
+        <f t="shared" si="13"/>
+        <v>81.402749386839901</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>117800</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="12"/>
         <v>3.200000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1806,12 +1933,20 @@
         <f t="shared" si="10"/>
         <v>1553.85</v>
       </c>
-      <c r="J35" s="7">
-        <f t="shared" si="11"/>
+      <c r="J35">
+        <f t="shared" si="13"/>
+        <v>89.543024325523902</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>139135</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" si="12"/>
         <v>3.300000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1843,12 +1978,20 @@
         <f t="shared" si="10"/>
         <v>1666.3</v>
       </c>
-      <c r="J36" s="7">
-        <f t="shared" si="11"/>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>98.497326758076298</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="11"/>
+        <v>164125</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" si="12"/>
         <v>3.4000000000000021</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1880,12 +2023,20 @@
         <f t="shared" si="10"/>
         <v>1784.9</v>
       </c>
-      <c r="J37" s="7">
-        <f t="shared" si="11"/>
+      <c r="J37">
+        <f t="shared" si="13"/>
+        <v>108.34705943388394</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>193385</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="12"/>
         <v>3.5000000000000022</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1917,12 +2068,20 @@
         <f t="shared" si="10"/>
         <v>1910.1</v>
       </c>
-      <c r="J38" s="7">
-        <f t="shared" si="11"/>
+      <c r="J38">
+        <f t="shared" si="13"/>
+        <v>119.18176537727234</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="11"/>
+        <v>227645</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="12"/>
         <v>3.6000000000000023</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1954,12 +2113,20 @@
         <f t="shared" si="10"/>
         <v>2042.2</v>
       </c>
-      <c r="J39" s="7">
-        <f t="shared" si="11"/>
+      <c r="J39">
+        <f t="shared" si="13"/>
+        <v>131.09994191499959</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>267730</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="12"/>
         <v>3.7000000000000024</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1991,12 +2158,20 @@
         <f t="shared" si="10"/>
         <v>2181.6</v>
       </c>
-      <c r="J40" s="7">
-        <f t="shared" si="11"/>
+      <c r="J40">
+        <f t="shared" si="13"/>
+        <v>144.20993610649955</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="11"/>
+        <v>314605</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="12"/>
         <v>3.8000000000000025</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2028,12 +2203,20 @@
         <f t="shared" si="10"/>
         <v>2328</v>
       </c>
-      <c r="J41" s="7">
-        <f t="shared" si="11"/>
+      <c r="J41">
+        <f t="shared" si="13"/>
+        <v>158.63092971714951</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="11"/>
+        <v>369290</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="12"/>
         <v>3.9000000000000026</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2065,12 +2248,20 @@
         <f t="shared" si="10"/>
         <v>2483.15</v>
       </c>
-      <c r="J42" s="7">
-        <f t="shared" si="11"/>
+      <c r="J42">
+        <f t="shared" si="13"/>
+        <v>174.49402268886448</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="11"/>
+        <v>433290</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="12"/>
         <v>4.0000000000000027</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2102,12 +2293,20 @@
         <f t="shared" si="10"/>
         <v>2650.55</v>
       </c>
-      <c r="J43" s="7">
-        <f t="shared" si="11"/>
+      <c r="J43">
+        <f t="shared" si="13"/>
+        <v>191.94342495775095</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="11"/>
+        <v>508755</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="12"/>
         <v>4.1000000000000023</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2139,12 +2338,20 @@
         <f t="shared" si="10"/>
         <v>2833.7</v>
       </c>
-      <c r="J44" s="7">
-        <f t="shared" si="11"/>
+      <c r="J44">
+        <f t="shared" si="13"/>
+        <v>211.13776745352607</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="11"/>
+        <v>598300</v>
+      </c>
+      <c r="N44" s="7">
+        <f t="shared" si="12"/>
         <v>4.200000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2169,19 +2376,27 @@
         <v>8.4336111111111105</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H70" si="12">F45/60</f>
+        <f t="shared" ref="H45:H70" si="14">F45/60</f>
         <v>1012.0333333333333</v>
       </c>
       <c r="I45">
         <f t="shared" si="10"/>
         <v>3036.1</v>
       </c>
-      <c r="J45" s="7">
-        <f t="shared" si="11"/>
+      <c r="J45">
+        <f t="shared" si="13"/>
+        <v>232.25154419887869</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="11"/>
+        <v>705135</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="12"/>
         <v>4.3000000000000016</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2206,19 +2421,27 @@
         <v>9.0590277777777786</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1087.0833333333333</v>
       </c>
       <c r="I46">
         <f t="shared" si="10"/>
         <v>3261.25</v>
       </c>
-      <c r="J46" s="7">
-        <f t="shared" si="11"/>
+      <c r="J46">
+        <f t="shared" si="13"/>
+        <v>255.47669861876659</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="11"/>
+        <v>833170</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" si="12"/>
         <v>4.4000000000000012</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2243,19 +2466,27 @@
         <v>9.7573611111111109</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1170.8833333333334</v>
       </c>
       <c r="I47">
         <f t="shared" si="10"/>
         <v>3512.65</v>
       </c>
-      <c r="J47" s="7">
-        <f t="shared" si="11"/>
+      <c r="J47">
+        <f t="shared" si="13"/>
+        <v>281.02436848064326</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="11"/>
+        <v>987140</v>
+      </c>
+      <c r="N47" s="7">
+        <f t="shared" si="12"/>
         <v>4.5000000000000009</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2280,19 +2511,27 @@
         <v>10.538333333333334</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1264.5999999999999</v>
       </c>
       <c r="I48">
         <f t="shared" si="10"/>
         <v>3793.8</v>
       </c>
-      <c r="J48" s="7">
-        <f t="shared" si="11"/>
+      <c r="J48">
+        <f t="shared" si="13"/>
+        <v>309.12680532870763</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="11"/>
+        <v>1172765</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="12"/>
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2317,19 +2556,27 @@
         <v>11.411666666666667</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1369.4</v>
       </c>
       <c r="I49">
         <f t="shared" si="10"/>
         <v>4108.2</v>
       </c>
-      <c r="J49" s="7">
-        <f t="shared" si="11"/>
+      <c r="J49">
+        <f t="shared" si="13"/>
+        <v>340.03948586157844</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="11"/>
+        <v>1396950</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="12"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2354,19 +2601,27 @@
         <v>12.387083333333333</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1486.45</v>
       </c>
       <c r="I50">
         <f t="shared" si="10"/>
         <v>4459.3500000000004</v>
       </c>
-      <c r="J50" s="7">
-        <f t="shared" si="11"/>
+      <c r="J50">
+        <f t="shared" si="13"/>
+        <v>374.04343444773633</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="11"/>
+        <v>1667990</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="12"/>
         <v>4.8</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2391,19 +2646,27 @@
         <v>13.384722222222223</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1606.1666666666667</v>
       </c>
       <c r="I51">
         <f t="shared" si="10"/>
         <v>4818.5</v>
       </c>
-      <c r="J51" s="7">
-        <f t="shared" si="11"/>
+      <c r="J51">
+        <f t="shared" si="13"/>
+        <v>411.44777789250998</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="11"/>
+        <v>1982560</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="12"/>
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2428,19 +2691,27 @@
         <v>14.410138888888889</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1729.2166666666667</v>
       </c>
       <c r="I52">
         <f t="shared" si="10"/>
         <v>5187.6499999999996</v>
       </c>
-      <c r="J52" s="7">
-        <f t="shared" si="11"/>
+      <c r="J52">
+        <f t="shared" si="13"/>
+        <v>452.59255568176098</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="11"/>
+        <v>2347890</v>
+      </c>
+      <c r="N52" s="7">
+        <f t="shared" si="12"/>
         <v>4.9999999999999991</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2465,19 +2736,27 @@
         <v>15.474444444444444</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1856.9333333333334</v>
       </c>
       <c r="I53">
         <f t="shared" si="10"/>
         <v>5570.8</v>
       </c>
-      <c r="J53" s="7">
-        <f t="shared" si="11"/>
+      <c r="J53">
+        <f t="shared" si="13"/>
+        <v>497.8518112499371</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="11"/>
+        <v>2773430</v>
+      </c>
+      <c r="N53" s="7">
+        <f t="shared" si="12"/>
         <v>5.0999999999999988</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2502,19 +2781,27 @@
         <v>16.588750000000001</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1990.65</v>
       </c>
       <c r="I54">
         <f t="shared" si="10"/>
         <v>5971.95</v>
       </c>
-      <c r="J54" s="7">
-        <f t="shared" si="11"/>
+      <c r="J54">
+        <f t="shared" si="13"/>
+        <v>547.63699237493086</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="11"/>
+        <v>3270460</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="12"/>
         <v>5.1999999999999984</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2539,19 +2826,27 @@
         <v>17.764166666666668</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2131.6999999999998</v>
       </c>
       <c r="I55">
         <f t="shared" si="10"/>
         <v>6395.1</v>
       </c>
-      <c r="J55" s="7">
-        <f t="shared" si="11"/>
+      <c r="J55">
+        <f t="shared" si="13"/>
+        <v>602.400691612424</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="11"/>
+        <v>3852410</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="12"/>
         <v>5.299999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2576,19 +2871,27 @@
         <v>19.011805555555554</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2281.4166666666665</v>
       </c>
       <c r="I56">
         <f t="shared" si="10"/>
         <v>6844.25</v>
       </c>
-      <c r="J56" s="7">
-        <f t="shared" si="11"/>
+      <c r="J56">
+        <f t="shared" si="13"/>
+        <v>662.64076077366644</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="11"/>
+        <v>4535275</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="12"/>
         <v>5.3999999999999977</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2613,19 +2916,27 @@
         <v>20.342777777777776</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2441.1333333333332</v>
       </c>
       <c r="I57">
         <f t="shared" si="10"/>
         <v>7323.4</v>
       </c>
-      <c r="J57" s="7">
-        <f t="shared" si="11"/>
+      <c r="J57">
+        <f t="shared" si="13"/>
+        <v>728.90483685103311</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="11"/>
+        <v>5338060</v>
+      </c>
+      <c r="N57" s="7">
+        <f t="shared" si="12"/>
         <v>5.4999999999999973</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2650,19 +2961,27 @@
         <v>21.768194444444443</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2612.1833333333334</v>
       </c>
       <c r="I58">
         <f t="shared" si="10"/>
         <v>7836.55</v>
       </c>
-      <c r="J58" s="7">
-        <f t="shared" si="11"/>
+      <c r="J58">
+        <f t="shared" si="13"/>
+        <v>801.7953205361365</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="11"/>
+        <v>6283305</v>
+      </c>
+      <c r="N58" s="7">
+        <f t="shared" si="12"/>
         <v>5.599999999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2687,19 +3006,27 @@
         <v>23.299166666666668</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2795.9</v>
       </c>
       <c r="I59">
         <f t="shared" si="10"/>
         <v>8387.7000000000007</v>
       </c>
-      <c r="J59" s="7">
-        <f t="shared" si="11"/>
+      <c r="J59">
+        <f t="shared" si="13"/>
+        <v>881.97485258975018</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="11"/>
+        <v>7397740</v>
+      </c>
+      <c r="N59" s="7">
+        <f t="shared" si="12"/>
         <v>5.6999999999999966</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2724,19 +3051,27 @@
         <v>24.946805555555557</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2993.6166666666668</v>
       </c>
       <c r="I60">
         <f t="shared" si="10"/>
         <v>8980.85</v>
       </c>
-      <c r="J60" s="7">
-        <f t="shared" si="11"/>
+      <c r="J60">
+        <f t="shared" si="13"/>
+        <v>970.17233784872531</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="11"/>
+        <v>8712970</v>
+      </c>
+      <c r="N60" s="7">
+        <f t="shared" si="12"/>
         <v>5.7999999999999963</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2761,19 +3096,27 @@
         <v>26.619444444444444</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3194.3333333333335</v>
       </c>
       <c r="I61">
         <f t="shared" si="10"/>
         <v>9583</v>
       </c>
-      <c r="J61" s="7">
-        <f t="shared" si="11"/>
+      <c r="J61">
+        <f t="shared" si="13"/>
+        <v>1067.189571633598</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="11"/>
+        <v>10226875</v>
+      </c>
+      <c r="N61" s="7">
+        <f t="shared" si="12"/>
         <v>5.8999999999999959</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2798,19 +3141,27 @@
         <v>28.323333333333334</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3398.8</v>
       </c>
       <c r="I62">
         <f t="shared" si="10"/>
         <v>10196.4</v>
       </c>
-      <c r="J62" s="7">
-        <f t="shared" si="11"/>
+      <c r="J62">
+        <f t="shared" si="13"/>
+        <v>1173.9085287969579</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="11"/>
+        <v>11969640</v>
+      </c>
+      <c r="N62" s="7">
+        <f t="shared" si="12"/>
         <v>5.9999999999999956</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2835,19 +3186,27 @@
         <v>30.070972222222224</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3608.5166666666669</v>
       </c>
       <c r="I63">
         <f t="shared" si="10"/>
         <v>10825.55</v>
       </c>
-      <c r="J63" s="7">
-        <f t="shared" si="11"/>
+      <c r="J63">
+        <f t="shared" si="13"/>
+        <v>1291.2993816766536</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="11"/>
+        <v>13979025</v>
+      </c>
+      <c r="N63" s="7">
+        <f t="shared" si="12"/>
         <v>6.0999999999999952</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2872,19 +3231,27 @@
         <v>31.874861111111112</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3824.9833333333331</v>
       </c>
       <c r="I64">
         <f t="shared" si="10"/>
         <v>11474.95</v>
       </c>
-      <c r="J64" s="7">
-        <f t="shared" si="11"/>
+      <c r="J64">
+        <f t="shared" si="13"/>
+        <v>1420.429319844319</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>16299355</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" si="12"/>
         <v>6.1999999999999948</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2909,19 +3276,27 @@
         <v>33.747500000000002</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4049.7</v>
       </c>
       <c r="I65">
         <f t="shared" si="10"/>
         <v>12149.1</v>
       </c>
-      <c r="J65" s="7">
-        <f t="shared" si="11"/>
+      <c r="J65">
+        <f t="shared" si="13"/>
+        <v>1562.472251828751</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>18982630</v>
+      </c>
+      <c r="N65" s="7">
+        <f t="shared" si="12"/>
         <v>6.2999999999999945</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2946,19 +3321,27 @@
         <v>35.701388888888886</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4284.166666666667</v>
       </c>
       <c r="I66">
         <f t="shared" si="10"/>
         <v>12852.5</v>
       </c>
-      <c r="J66" s="7">
-        <f t="shared" si="11"/>
+      <c r="J66">
+        <f t="shared" si="13"/>
+        <v>1718.7194770116264</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>22089840</v>
+      </c>
+      <c r="N66" s="7">
+        <f t="shared" si="12"/>
         <v>6.3999999999999941</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2983,19 +3366,27 @@
         <v>37.749027777777776</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4529.8833333333332</v>
       </c>
       <c r="I67">
         <f t="shared" si="10"/>
         <v>13589.65</v>
       </c>
-      <c r="J67" s="7">
-        <f t="shared" si="11"/>
+      <c r="J67">
+        <f t="shared" si="13"/>
+        <v>1890.5914247127891</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="11"/>
+        <v>25692475</v>
+      </c>
+      <c r="N67" s="7">
+        <f t="shared" si="12"/>
         <v>6.4999999999999938</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3020,19 +3411,27 @@
         <v>39.90291666666667</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4788.3500000000004</v>
       </c>
       <c r="I68">
         <f t="shared" si="10"/>
         <v>14365.05</v>
       </c>
-      <c r="J68" s="7">
-        <f t="shared" si="11"/>
+      <c r="J68">
+        <f t="shared" si="13"/>
+        <v>2079.6505671840682</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="11"/>
+        <v>29874280</v>
+      </c>
+      <c r="N68" s="7">
+        <f t="shared" si="12"/>
         <v>6.5999999999999934</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3057,19 +3456,27 @@
         <v>42.175555555555555</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5061.0666666666666</v>
       </c>
       <c r="I69">
         <f t="shared" si="10"/>
         <v>15183.2</v>
       </c>
-      <c r="J69" s="7">
-        <f t="shared" si="11"/>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>2287.6156239024754</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="11"/>
+        <v>34733325</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="12"/>
         <v>6.6999999999999931</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3094,22 +3501,30 @@
         <v>44.579444444444448</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5349.5333333333338</v>
       </c>
       <c r="I70">
         <f t="shared" si="10"/>
         <v>16048.6</v>
       </c>
-      <c r="J70" s="7">
-        <f t="shared" si="11"/>
+      <c r="J70">
+        <f t="shared" si="13"/>
+        <v>2516.3771862927233</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="11"/>
+        <v>40384330</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="12"/>
         <v>6.7999999999999927</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F12:F70" formula="1"/>
   </ignoredErrors>

--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF8406-A9D7-46E1-9E21-A317084B4544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821D4F3-CB14-4AF3-9604-241D7AECF6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="地理相关" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>等级下限</t>
   </si>
@@ -143,6 +146,38 @@
     <t>所需经验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>对话&amp;送货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀怪（或收集道具）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀BOSS怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本杀怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本杀BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际经验值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务时间占比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +187,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +241,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -229,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +310,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -267,6 +324,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -282,6 +405,1265 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="任务类型"/>
+      <sheetName val="任务内容"/>
+      <sheetName val="任务时间分布"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>对话&amp;送货</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>杀怪（或收集道具）</v>
+          </cell>
+          <cell r="C3">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>杀BOSS怪</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>副本杀怪</v>
+          </cell>
+          <cell r="C5">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>副本杀BOSS</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>360</v>
+          </cell>
+          <cell r="D3">
+            <v>485</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>2</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>235</v>
+          </cell>
+          <cell r="E4">
+            <v>200</v>
+          </cell>
+          <cell r="F4">
+            <v>425</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>275</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>4</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>360</v>
+          </cell>
+          <cell r="G6">
+            <v>530</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>6</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>7</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>8</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>9</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>10</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>11</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>12</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>13</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>14</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>15</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>16</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>17</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>18</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>19</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>20</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>21</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>22</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>23</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>24</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>25</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>26</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>27</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>28</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>29</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>30</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>31</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>32</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>33</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>34</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+          <cell r="G36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>35</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>36</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>37</v>
+          </cell>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>38</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>39</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>40</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>41</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>42</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>43</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>44</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>45</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>46</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>47</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>48</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>49</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>50</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>51</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>52</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>53</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>54</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>55</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>56</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>57</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+          <cell r="G59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>58</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+          <cell r="G60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>59</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+          <cell r="D61">
+            <v>0</v>
+          </cell>
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+          <cell r="G61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>60</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+          <cell r="D62">
+            <v>0</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -290,7 +1672,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -569,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N70"/>
+  <dimension ref="B1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,7 +1963,7 @@
     <col min="8" max="8" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>1</v>
       </c>
@@ -639,7 +2021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>2</v>
       </c>
@@ -675,7 +2057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>3</v>
       </c>
@@ -711,7 +2093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C5">
         <v>4</v>
       </c>
@@ -747,7 +2129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C6">
         <v>5</v>
       </c>
@@ -780,7 +2162,7 @@
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>6</v>
       </c>
@@ -813,7 +2195,7 @@
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>7</v>
       </c>
@@ -823,17 +2205,37 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="N10" t="s">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="N10">
+        <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(N11,[1]任务类型!$B$2:$B$6,))</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(O11,[1]任务类型!$B$2:$B$6,))</f>
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(P11,[1]任务类型!$B$2:$B$6,))</f>
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(Q11,[1]任务类型!$B$2:$B$6,))</f>
+        <v>2.5</v>
+      </c>
+      <c r="R10">
+        <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(R11,[1]任务类型!$B$2:$B$6,))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,11 +2266,50 @@
       <c r="K11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -907,11 +2348,62 @@
         <f>FLOOR(I12*J12,5)</f>
         <v>420</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C12,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>360</v>
+      </c>
+      <c r="O12">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C12,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>485</v>
+      </c>
+      <c r="P12">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C12,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C12,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C12,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>D12-SUM(N12:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>$L12*N12*N$10</f>
+        <v>360</v>
+      </c>
+      <c r="U12">
+        <f>$L12*O12*O$10</f>
+        <v>727.5</v>
+      </c>
+      <c r="V12">
+        <f>$L12*P12*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>$L12*Q12*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>$L12*R12*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>SUM(T12:X12)</f>
+        <v>1087.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B13">
         <f t="shared" ref="B13:B70" si="4">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
@@ -951,12 +2443,63 @@
         <f t="shared" ref="K13:K70" si="11">FLOOR(I13*J13,5)</f>
         <v>935</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" ref="N13:N70" si="12">N12+0.1</f>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:L70" si="12">L12+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C13,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C13,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>235</v>
+      </c>
+      <c r="P13">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C13,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>200</v>
+      </c>
+      <c r="Q13">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C13,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>425</v>
+      </c>
+      <c r="R13">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C13,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>D13-SUM(N13:R13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>$L13*N13*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>$L13*O13*O$10</f>
+        <v>387.75</v>
+      </c>
+      <c r="V13">
+        <f>$L13*P13*P$10</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="W13">
+        <f>$L13*Q13*Q$10</f>
+        <v>1168.7500000000002</v>
+      </c>
+      <c r="X13">
+        <f>$L13*R13*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13:Y70" si="13">SUM(T13:X13)</f>
+        <v>1996.5000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B14">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -989,19 +2532,70 @@
         <v>129</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J70" si="13">J13*1.1</f>
+        <f t="shared" ref="J14:J70" si="14">J13*1.1</f>
         <v>12.100000000000001</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
         <v>1560</v>
       </c>
-      <c r="N14" s="7">
+      <c r="L14" s="7">
         <f t="shared" si="12"/>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C14,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C14,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C14,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>275</v>
+      </c>
+      <c r="Q14">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C14,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C14,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>600</v>
+      </c>
+      <c r="S14">
+        <f>D14-SUM(N14:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>$L14*N14*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>$L14*O14*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>$L14*P14*P$10</f>
+        <v>660.00000000000011</v>
+      </c>
+      <c r="W14">
+        <f>$L14*Q14*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>$L14*R14*R$10</f>
+        <v>2160.0000000000005</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="13"/>
+        <v>2820.0000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B15">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1034,19 +2628,70 @@
         <v>173.5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.310000000000002</v>
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
         <v>2305</v>
       </c>
-      <c r="N15" s="7">
+      <c r="L15" s="7">
         <f t="shared" si="12"/>
         <v>1.3000000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C15,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C15,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C15,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C15,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>360</v>
+      </c>
+      <c r="R15">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C15,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>530</v>
+      </c>
+      <c r="S15">
+        <f>D15-SUM(N15:R15)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>$L15*N15*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>$L15*O15*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>$L15*P15*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>$L15*Q15*Q$10</f>
+        <v>1170.0000000000002</v>
+      </c>
+      <c r="X15">
+        <f>$L15*R15*R$10</f>
+        <v>2067.0000000000005</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="13"/>
+        <v>3237.0000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1079,19 +2724,70 @@
         <v>218.75</v>
       </c>
       <c r="J16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.641000000000004</v>
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
         <v>3200</v>
       </c>
-      <c r="N16" s="7">
+      <c r="L16" s="7">
         <f t="shared" si="12"/>
         <v>1.4000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C16,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C16,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C16,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C16,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C16,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>D16-SUM(N16:R16)</f>
+        <v>905</v>
+      </c>
+      <c r="T16">
+        <f>$L16*N16*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>$L16*O16*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>$L16*P16*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>$L16*Q16*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>$L16*R16*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1124,19 +2820,70 @@
         <v>264.75</v>
       </c>
       <c r="J17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.105100000000004</v>
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
         <v>4260</v>
       </c>
-      <c r="N17" s="7">
+      <c r="L17" s="7">
         <f t="shared" si="12"/>
         <v>1.5000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C17,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C17,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C17,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C17,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C17,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>D17-SUM(N17:R17)</f>
+        <v>920</v>
+      </c>
+      <c r="T17">
+        <f>$L17*N17*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>$L17*O17*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>$L17*P17*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>$L17*Q17*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>$L17*R17*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1169,19 +2916,70 @@
         <v>311.5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.715610000000005</v>
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
         <v>5515</v>
       </c>
-      <c r="N18" s="7">
+      <c r="L18" s="7">
         <f t="shared" si="12"/>
         <v>1.6000000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C18,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C18,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C18,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C18,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C18,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>D18-SUM(N18:R18)</f>
+        <v>935</v>
+      </c>
+      <c r="T18">
+        <f>$L18*N18*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>$L18*O18*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>$L18*P18*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>$L18*Q18*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>$L18*R18*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1214,19 +3012,70 @@
         <v>359</v>
       </c>
       <c r="J19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19.487171000000007</v>
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
         <v>6995</v>
       </c>
-      <c r="N19" s="7">
+      <c r="L19" s="7">
         <f t="shared" si="12"/>
         <v>1.7000000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C19,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C19,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C19,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C19,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C19,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>D19-SUM(N19:R19)</f>
+        <v>950</v>
+      </c>
+      <c r="T19">
+        <f>$L19*N19*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>$L19*O19*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>$L19*P19*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>$L19*Q19*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>$L19*R19*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1259,19 +3108,70 @@
         <v>407.25</v>
       </c>
       <c r="J20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.43588810000001</v>
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
         <v>8725</v>
       </c>
-      <c r="N20" s="7">
+      <c r="L20" s="7">
         <f t="shared" si="12"/>
         <v>1.8000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C20,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C20,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C20,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C20,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C20,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>D20-SUM(N20:R20)</f>
+        <v>965</v>
+      </c>
+      <c r="T20">
+        <f>$L20*N20*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>$L20*O20*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>$L20*P20*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>$L20*Q20*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>$L20*R20*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1304,19 +3204,70 @@
         <v>458.3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.579476910000015</v>
       </c>
       <c r="K21">
         <f t="shared" si="11"/>
         <v>10805</v>
       </c>
-      <c r="N21" s="7">
+      <c r="L21" s="7">
         <f t="shared" si="12"/>
         <v>1.9000000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C21,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C21,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C21,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C21,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C21,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>D21-SUM(N21:R21)</f>
+        <v>1021</v>
+      </c>
+      <c r="T21">
+        <f>$L21*N21*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>$L21*O21*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>$L21*P21*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>$L21*Q21*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>$L21*R21*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1349,19 +3300,70 @@
         <v>511.7</v>
       </c>
       <c r="J22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.937424601000018</v>
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
         <v>13270</v>
       </c>
-      <c r="N22" s="7">
+      <c r="L22" s="7">
         <f t="shared" si="12"/>
         <v>2.0000000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C22,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C22,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C22,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C22,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C22,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>D22-SUM(N22:R22)</f>
+        <v>1068</v>
+      </c>
+      <c r="T22">
+        <f>$L22*N22*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>$L22*O22*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>$L22*P22*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f>$L22*Q22*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f>$L22*R22*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1394,19 +3396,70 @@
         <v>567.95000000000005</v>
       </c>
       <c r="J23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.531167061100021</v>
       </c>
       <c r="K23">
         <f t="shared" si="11"/>
         <v>16200</v>
       </c>
-      <c r="N23" s="7">
+      <c r="L23" s="7">
         <f t="shared" si="12"/>
         <v>2.100000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C23,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C23,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C23,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C23,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C23,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>D23-SUM(N23:R23)</f>
+        <v>1125</v>
+      </c>
+      <c r="T23">
+        <f>$L23*N23*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>$L23*O23*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>$L23*P23*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>$L23*Q23*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>$L23*R23*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1439,19 +3492,70 @@
         <v>627.35</v>
       </c>
       <c r="J24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.384283767210025</v>
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
         <v>19685</v>
       </c>
-      <c r="N24" s="7">
+      <c r="L24" s="7">
         <f t="shared" si="12"/>
         <v>2.2000000000000011</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M24" s="12">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C24,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C24,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C24,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C24,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C24,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>D24-SUM(N24:R24)</f>
+        <v>1188</v>
+      </c>
+      <c r="T24">
+        <f>$L24*N24*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>$L24*O24*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>$L24*P24*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f>$L24*Q24*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>$L24*R24*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1484,19 +3588,70 @@
         <v>690.25</v>
       </c>
       <c r="J25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34.522712143931031</v>
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
         <v>23825</v>
       </c>
-      <c r="N25" s="7">
+      <c r="L25" s="7">
         <f t="shared" si="12"/>
         <v>2.3000000000000012</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C25,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C25,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C25,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C25,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C25,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>D25-SUM(N25:R25)</f>
+        <v>1258</v>
+      </c>
+      <c r="T25">
+        <f>$L25*N25*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>$L25*O25*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>$L25*P25*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>$L25*Q25*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>$L25*R25*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B26">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1529,19 +3684,70 @@
         <v>757</v>
       </c>
       <c r="J26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37.974983358324138</v>
       </c>
       <c r="K26">
         <f t="shared" si="11"/>
         <v>28745</v>
       </c>
-      <c r="N26" s="7">
+      <c r="L26" s="7">
         <f t="shared" si="12"/>
         <v>2.4000000000000012</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M26" s="12">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C26,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C26,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C26,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C26,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C26,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>D26-SUM(N26:R26)</f>
+        <v>1335</v>
+      </c>
+      <c r="T26">
+        <f>$L26*N26*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>$L26*O26*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f>$L26*P26*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f>$L26*Q26*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f>$L26*R26*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1574,19 +3780,70 @@
         <v>827.85</v>
       </c>
       <c r="J27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>41.772481694156554</v>
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
         <v>34580</v>
       </c>
-      <c r="N27" s="7">
+      <c r="L27" s="7">
         <f t="shared" si="12"/>
         <v>2.5000000000000013</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M27" s="12">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C27,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C27,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C27,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C27,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C27,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>D27-SUM(N27:R27)</f>
+        <v>1417</v>
+      </c>
+      <c r="T27">
+        <f>$L27*N27*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>$L27*O27*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f>$L27*P27*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>$L27*Q27*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f>$L27*R27*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1619,19 +3876,70 @@
         <v>903.1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.949729863572216</v>
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
         <v>41495</v>
       </c>
-      <c r="N28" s="7">
+      <c r="L28" s="7">
         <f t="shared" si="12"/>
         <v>2.6000000000000014</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M28" s="12">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C28,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C28,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C28,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C28,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C28,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>D28-SUM(N28:R28)</f>
+        <v>1505</v>
+      </c>
+      <c r="T28">
+        <f>$L28*N28*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>$L28*O28*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>$L28*P28*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f>$L28*Q28*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f>$L28*R28*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B29">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1664,19 +3972,70 @@
         <v>982.95</v>
       </c>
       <c r="J29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.544702849929443</v>
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
         <v>49680</v>
       </c>
-      <c r="N29" s="7">
+      <c r="L29" s="7">
         <f t="shared" si="12"/>
         <v>2.7000000000000015</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M29" s="12">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C29,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C29,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C29,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C29,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C29,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>D29-SUM(N29:R29)</f>
+        <v>1597</v>
+      </c>
+      <c r="T29">
+        <f>$L29*N29*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>$L29*O29*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>$L29*P29*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>$L29*Q29*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f>$L29*R29*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B30">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1709,19 +4068,70 @@
         <v>1067.6500000000001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.599173134922395</v>
       </c>
       <c r="K30">
         <f t="shared" si="11"/>
         <v>59360</v>
       </c>
-      <c r="N30" s="7">
+      <c r="L30" s="7">
         <f t="shared" si="12"/>
         <v>2.8000000000000016</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M30" s="12">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C30,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C30,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C30,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C30,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C30,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>D30-SUM(N30:R30)</f>
+        <v>1694</v>
+      </c>
+      <c r="T30">
+        <f>$L30*N30*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>$L30*O30*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f>$L30*P30*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f>$L30*Q30*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>$L30*R30*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B31">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1754,19 +4164,70 @@
         <v>1156.55</v>
       </c>
       <c r="J31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>61.159090448414638</v>
       </c>
       <c r="K31">
         <f t="shared" si="11"/>
         <v>70730</v>
       </c>
-      <c r="N31" s="7">
+      <c r="L31" s="7">
         <f t="shared" si="12"/>
         <v>2.9000000000000017</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M31" s="12">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C31,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C31,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C31,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C31,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C31,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>D31-SUM(N31:R31)</f>
+        <v>1778</v>
+      </c>
+      <c r="T31">
+        <f>$L31*N31*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>$L31*O31*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>$L31*P31*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>$L31*Q31*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>$L31*R31*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1799,19 +4260,70 @@
         <v>1249</v>
       </c>
       <c r="J32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67.274999493256104</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
         <v>84025</v>
       </c>
-      <c r="N32" s="7">
+      <c r="L32" s="7">
         <f t="shared" si="12"/>
         <v>3.0000000000000018</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M32" s="12">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C32,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C32,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C32,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C32,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C32,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>D32-SUM(N32:R32)</f>
+        <v>1849</v>
+      </c>
+      <c r="T32">
+        <f>$L32*N32*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>$L32*O32*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f>$L32*P32*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f>$L32*Q32*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>$L32*R32*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1844,19 +4356,70 @@
         <v>1345.7</v>
       </c>
       <c r="J33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>74.002499442581723</v>
       </c>
       <c r="K33">
         <f t="shared" si="11"/>
         <v>99585</v>
       </c>
-      <c r="N33" s="7">
+      <c r="L33" s="7">
         <f t="shared" si="12"/>
         <v>3.1000000000000019</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M33" s="12">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C33,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C33,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C33,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C33,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C33,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>D33-SUM(N33:R33)</f>
+        <v>1934</v>
+      </c>
+      <c r="T33">
+        <f>$L33*N33*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>$L33*O33*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>$L33*P33*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>$L33*Q33*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f>$L33*R33*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B34">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1889,19 +4452,70 @@
         <v>1447.15</v>
       </c>
       <c r="J34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>81.402749386839901</v>
       </c>
       <c r="K34">
         <f t="shared" si="11"/>
         <v>117800</v>
       </c>
-      <c r="N34" s="7">
+      <c r="L34" s="7">
         <f t="shared" si="12"/>
         <v>3.200000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C34,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C34,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C34,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C34,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C34,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>D34-SUM(N34:R34)</f>
+        <v>2029</v>
+      </c>
+      <c r="T34">
+        <f>$L34*N34*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>$L34*O34*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>$L34*P34*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f>$L34*Q34*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f>$L34*R34*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1934,19 +4548,70 @@
         <v>1553.85</v>
       </c>
       <c r="J35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>89.543024325523902</v>
       </c>
       <c r="K35">
         <f t="shared" si="11"/>
         <v>139135</v>
       </c>
-      <c r="N35" s="7">
+      <c r="L35" s="7">
         <f t="shared" si="12"/>
         <v>3.300000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M35" s="12">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C35,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C35,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C35,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C35,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C35,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>D35-SUM(N35:R35)</f>
+        <v>2134</v>
+      </c>
+      <c r="T35">
+        <f>$L35*N35*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>$L35*O35*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>$L35*P35*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f>$L35*Q35*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f>$L35*R35*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B36">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1979,19 +4644,70 @@
         <v>1666.3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98.497326758076298</v>
       </c>
       <c r="K36">
         <f t="shared" si="11"/>
         <v>164125</v>
       </c>
-      <c r="N36" s="7">
+      <c r="L36" s="7">
         <f t="shared" si="12"/>
         <v>3.4000000000000021</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M36" s="12">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C36,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C36,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C36,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C36,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C36,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>D36-SUM(N36:R36)</f>
+        <v>2249</v>
+      </c>
+      <c r="T36">
+        <f>$L36*N36*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>$L36*O36*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>$L36*P36*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f>$L36*Q36*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f>$L36*R36*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2024,19 +4740,70 @@
         <v>1784.9</v>
       </c>
       <c r="J37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108.34705943388394</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
         <v>193385</v>
       </c>
-      <c r="N37" s="7">
+      <c r="L37" s="7">
         <f t="shared" si="12"/>
         <v>3.5000000000000022</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M37" s="12">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C37,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C37,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C37,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C37,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C37,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>D37-SUM(N37:R37)</f>
+        <v>2372</v>
+      </c>
+      <c r="T37">
+        <f>$L37*N37*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>$L37*O37*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>$L37*P37*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f>$L37*Q37*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f>$L37*R37*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B38">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2069,19 +4836,70 @@
         <v>1910.1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>119.18176537727234</v>
       </c>
       <c r="K38">
         <f t="shared" si="11"/>
         <v>227645</v>
       </c>
-      <c r="N38" s="7">
+      <c r="L38" s="7">
         <f t="shared" si="12"/>
         <v>3.6000000000000023</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C38,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C38,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C38,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C38,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C38,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f>D38-SUM(N38:R38)</f>
+        <v>2504</v>
+      </c>
+      <c r="T38">
+        <f>$L38*N38*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>$L38*O38*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>$L38*P38*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f>$L38*Q38*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f>$L38*R38*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B39">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2114,19 +4932,70 @@
         <v>2042.2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>131.09994191499959</v>
       </c>
       <c r="K39">
         <f t="shared" si="11"/>
         <v>267730</v>
       </c>
-      <c r="N39" s="7">
+      <c r="L39" s="7">
         <f t="shared" si="12"/>
         <v>3.7000000000000024</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M39" s="12">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C39,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C39,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C39,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C39,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C39,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>D39-SUM(N39:R39)</f>
+        <v>2642</v>
+      </c>
+      <c r="T39">
+        <f>$L39*N39*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>$L39*O39*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>$L39*P39*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f>$L39*Q39*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f>$L39*R39*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B40">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2159,19 +5028,70 @@
         <v>2181.6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>144.20993610649955</v>
       </c>
       <c r="K40">
         <f t="shared" si="11"/>
         <v>314605</v>
       </c>
-      <c r="N40" s="7">
+      <c r="L40" s="7">
         <f t="shared" si="12"/>
         <v>3.8000000000000025</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M40" s="12">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C40,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C40,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C40,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C40,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C40,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>D40-SUM(N40:R40)</f>
+        <v>2788</v>
+      </c>
+      <c r="T40">
+        <f>$L40*N40*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>$L40*O40*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>$L40*P40*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f>$L40*Q40*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f>$L40*R40*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B41">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2204,19 +5124,70 @@
         <v>2328</v>
       </c>
       <c r="J41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>158.63092971714951</v>
       </c>
       <c r="K41">
         <f t="shared" si="11"/>
         <v>369290</v>
       </c>
-      <c r="N41" s="7">
+      <c r="L41" s="7">
         <f t="shared" si="12"/>
         <v>3.9000000000000026</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C41,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C41,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C41,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C41,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C41,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>D41-SUM(N41:R41)</f>
+        <v>2928</v>
+      </c>
+      <c r="T41">
+        <f>$L41*N41*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>$L41*O41*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f>$L41*P41*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>$L41*Q41*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f>$L41*R41*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2249,19 +5220,70 @@
         <v>2483.15</v>
       </c>
       <c r="J42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>174.49402268886448</v>
       </c>
       <c r="K42">
         <f t="shared" si="11"/>
         <v>433290</v>
       </c>
-      <c r="N42" s="7">
+      <c r="L42" s="7">
         <f t="shared" si="12"/>
         <v>4.0000000000000027</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M42" s="12">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C42,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C42,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C42,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C42,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C42,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>D42-SUM(N42:R42)</f>
+        <v>3103</v>
+      </c>
+      <c r="T42">
+        <f>$L42*N42*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f>$L42*O42*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f>$L42*P42*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f>$L42*Q42*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f>$L42*R42*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2294,19 +5316,70 @@
         <v>2650.55</v>
       </c>
       <c r="J43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>191.94342495775095</v>
       </c>
       <c r="K43">
         <f t="shared" si="11"/>
         <v>508755</v>
       </c>
-      <c r="N43" s="7">
+      <c r="L43" s="7">
         <f t="shared" si="12"/>
         <v>4.1000000000000023</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M43" s="12">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C43,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C43,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C43,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C43,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C43,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f>D43-SUM(N43:R43)</f>
+        <v>3348</v>
+      </c>
+      <c r="T43">
+        <f>$L43*N43*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>$L43*O43*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f>$L43*P43*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>$L43*Q43*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f>$L43*R43*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B44">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2339,19 +5412,70 @@
         <v>2833.7</v>
       </c>
       <c r="J44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>211.13776745352607</v>
       </c>
       <c r="K44">
         <f t="shared" si="11"/>
         <v>598300</v>
       </c>
-      <c r="N44" s="7">
+      <c r="L44" s="7">
         <f t="shared" si="12"/>
         <v>4.200000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M44" s="12">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C44,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C44,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C44,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C44,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C44,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f>D44-SUM(N44:R44)</f>
+        <v>3663</v>
+      </c>
+      <c r="T44">
+        <f>$L44*N44*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f>$L44*O44*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f>$L44*P44*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f>$L44*Q44*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f>$L44*R44*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B45">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2376,7 +5500,7 @@
         <v>8.4336111111111105</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H70" si="14">F45/60</f>
+        <f t="shared" ref="H45:H70" si="15">F45/60</f>
         <v>1012.0333333333333</v>
       </c>
       <c r="I45">
@@ -2384,19 +5508,70 @@
         <v>3036.1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>232.25154419887869</v>
       </c>
       <c r="K45">
         <f t="shared" si="11"/>
         <v>705135</v>
       </c>
-      <c r="N45" s="7">
+      <c r="L45" s="7">
         <f t="shared" si="12"/>
         <v>4.3000000000000016</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M45" s="12">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C45,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C45,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C45,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C45,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C45,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f>D45-SUM(N45:R45)</f>
+        <v>4048</v>
+      </c>
+      <c r="T45">
+        <f>$L45*N45*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>$L45*O45*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f>$L45*P45*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f>$L45*Q45*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f>$L45*R45*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B46">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2421,7 +5596,7 @@
         <v>9.0590277777777786</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1087.0833333333333</v>
       </c>
       <c r="I46">
@@ -2429,19 +5604,70 @@
         <v>3261.25</v>
       </c>
       <c r="J46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>255.47669861876659</v>
       </c>
       <c r="K46">
         <f t="shared" si="11"/>
         <v>833170</v>
       </c>
-      <c r="N46" s="7">
+      <c r="L46" s="7">
         <f t="shared" si="12"/>
         <v>4.4000000000000012</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M46" s="12">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C46,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C46,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C46,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C46,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C46,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f>D46-SUM(N46:R46)</f>
+        <v>4503</v>
+      </c>
+      <c r="T46">
+        <f>$L46*N46*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>$L46*O46*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f>$L46*P46*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>$L46*Q46*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f>$L46*R46*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B47">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2466,7 +5692,7 @@
         <v>9.7573611111111109</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1170.8833333333334</v>
       </c>
       <c r="I47">
@@ -2474,19 +5700,70 @@
         <v>3512.65</v>
       </c>
       <c r="J47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>281.02436848064326</v>
       </c>
       <c r="K47">
         <f t="shared" si="11"/>
         <v>987140</v>
       </c>
-      <c r="N47" s="7">
+      <c r="L47" s="7">
         <f t="shared" si="12"/>
         <v>4.5000000000000009</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M47" s="12">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C47,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C47,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C47,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C47,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C47,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f>D47-SUM(N47:R47)</f>
+        <v>5028</v>
+      </c>
+      <c r="T47">
+        <f>$L47*N47*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>$L47*O47*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f>$L47*P47*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f>$L47*Q47*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f>$L47*R47*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B48">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2511,7 +5788,7 @@
         <v>10.538333333333334</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1264.5999999999999</v>
       </c>
       <c r="I48">
@@ -2519,19 +5796,70 @@
         <v>3793.8</v>
       </c>
       <c r="J48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>309.12680532870763</v>
       </c>
       <c r="K48">
         <f t="shared" si="11"/>
         <v>1172765</v>
       </c>
-      <c r="N48" s="7">
+      <c r="L48" s="7">
         <f t="shared" si="12"/>
         <v>4.6000000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M48" s="12">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C48,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C48,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C48,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C48,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C48,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f>D48-SUM(N48:R48)</f>
+        <v>5623</v>
+      </c>
+      <c r="T48">
+        <f>$L48*N48*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>$L48*O48*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f>$L48*P48*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f>$L48*Q48*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f>$L48*R48*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B49">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2556,7 +5884,7 @@
         <v>11.411666666666667</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1369.4</v>
       </c>
       <c r="I49">
@@ -2564,19 +5892,70 @@
         <v>4108.2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>340.03948586157844</v>
       </c>
       <c r="K49">
         <f t="shared" si="11"/>
         <v>1396950</v>
       </c>
-      <c r="N49" s="7">
+      <c r="L49" s="7">
         <f t="shared" si="12"/>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M49" s="12">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C49,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C49,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C49,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C49,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C49,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f>D49-SUM(N49:R49)</f>
+        <v>6288</v>
+      </c>
+      <c r="T49">
+        <f>$L49*N49*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>$L49*O49*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f>$L49*P49*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f>$L49*Q49*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>$L49*R49*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B50">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2601,7 +5980,7 @@
         <v>12.387083333333333</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1486.45</v>
       </c>
       <c r="I50">
@@ -2609,19 +5988,70 @@
         <v>4459.3500000000004</v>
       </c>
       <c r="J50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>374.04343444773633</v>
       </c>
       <c r="K50">
         <f t="shared" si="11"/>
         <v>1667990</v>
       </c>
-      <c r="N50" s="7">
+      <c r="L50" s="7">
         <f t="shared" si="12"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M50" s="12">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C50,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C50,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C50,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C50,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C50,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>D50-SUM(N50:R50)</f>
+        <v>7023</v>
+      </c>
+      <c r="T50">
+        <f>$L50*N50*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>$L50*O50*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f>$L50*P50*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f>$L50*Q50*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f>$L50*R50*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B51">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2646,7 +6076,7 @@
         <v>13.384722222222223</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1606.1666666666667</v>
       </c>
       <c r="I51">
@@ -2654,19 +6084,70 @@
         <v>4818.5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>411.44777789250998</v>
       </c>
       <c r="K51">
         <f t="shared" si="11"/>
         <v>1982560</v>
       </c>
-      <c r="N51" s="7">
+      <c r="L51" s="7">
         <f t="shared" si="12"/>
         <v>4.8999999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M51" s="12">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C51,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C51,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C51,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C51,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C51,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>D51-SUM(N51:R51)</f>
+        <v>7183</v>
+      </c>
+      <c r="T51">
+        <f>$L51*N51*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>$L51*O51*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f>$L51*P51*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>$L51*Q51*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f>$L51*R51*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B52">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2691,7 +6172,7 @@
         <v>14.410138888888889</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1729.2166666666667</v>
       </c>
       <c r="I52">
@@ -2699,19 +6180,70 @@
         <v>5187.6499999999996</v>
       </c>
       <c r="J52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>452.59255568176098</v>
       </c>
       <c r="K52">
         <f t="shared" si="11"/>
         <v>2347890</v>
       </c>
-      <c r="N52" s="7">
+      <c r="L52" s="7">
         <f t="shared" si="12"/>
         <v>4.9999999999999991</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C52,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C52,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C52,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C52,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C52,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>D52-SUM(N52:R52)</f>
+        <v>7383</v>
+      </c>
+      <c r="T52">
+        <f>$L52*N52*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>$L52*O52*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f>$L52*P52*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>$L52*Q52*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f>$L52*R52*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B53">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2736,7 +6268,7 @@
         <v>15.474444444444444</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1856.9333333333334</v>
       </c>
       <c r="I53">
@@ -2744,19 +6276,70 @@
         <v>5570.8</v>
       </c>
       <c r="J53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>497.8518112499371</v>
       </c>
       <c r="K53">
         <f t="shared" si="11"/>
         <v>2773430</v>
       </c>
-      <c r="N53" s="7">
+      <c r="L53" s="7">
         <f t="shared" si="12"/>
         <v>5.0999999999999988</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M53" s="12">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C53,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C53,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C53,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C53,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C53,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>D53-SUM(N53:R53)</f>
+        <v>7663</v>
+      </c>
+      <c r="T53">
+        <f>$L53*N53*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>$L53*O53*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f>$L53*P53*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f>$L53*Q53*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f>$L53*R53*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B54">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2781,7 +6364,7 @@
         <v>16.588750000000001</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1990.65</v>
       </c>
       <c r="I54">
@@ -2789,19 +6372,70 @@
         <v>5971.95</v>
       </c>
       <c r="J54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>547.63699237493086</v>
       </c>
       <c r="K54">
         <f t="shared" si="11"/>
         <v>3270460</v>
       </c>
-      <c r="N54" s="7">
+      <c r="L54" s="7">
         <f t="shared" si="12"/>
         <v>5.1999999999999984</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M54" s="12">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C54,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C54,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C54,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C54,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C54,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f>D54-SUM(N54:R54)</f>
+        <v>8023</v>
+      </c>
+      <c r="T54">
+        <f>$L54*N54*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>$L54*O54*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f>$L54*P54*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f>$L54*Q54*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f>$L54*R54*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B55">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2826,7 +6460,7 @@
         <v>17.764166666666668</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2131.6999999999998</v>
       </c>
       <c r="I55">
@@ -2834,19 +6468,70 @@
         <v>6395.1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>602.400691612424</v>
       </c>
       <c r="K55">
         <f t="shared" si="11"/>
         <v>3852410</v>
       </c>
-      <c r="N55" s="7">
+      <c r="L55" s="7">
         <f t="shared" si="12"/>
         <v>5.299999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M55" s="12">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C55,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C55,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C55,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C55,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C55,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f>D55-SUM(N55:R55)</f>
+        <v>8463</v>
+      </c>
+      <c r="T55">
+        <f>$L55*N55*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>$L55*O55*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f>$L55*P55*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f>$L55*Q55*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f>$L55*R55*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B56">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2871,7 +6556,7 @@
         <v>19.011805555555554</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2281.4166666666665</v>
       </c>
       <c r="I56">
@@ -2879,19 +6564,70 @@
         <v>6844.25</v>
       </c>
       <c r="J56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>662.64076077366644</v>
       </c>
       <c r="K56">
         <f t="shared" si="11"/>
         <v>4535275</v>
       </c>
-      <c r="N56" s="7">
+      <c r="L56" s="7">
         <f t="shared" si="12"/>
         <v>5.3999999999999977</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M56" s="12">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C56,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C56,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C56,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C56,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C56,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f>D56-SUM(N56:R56)</f>
+        <v>8983</v>
+      </c>
+      <c r="T56">
+        <f>$L56*N56*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>$L56*O56*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f>$L56*P56*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>$L56*Q56*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>$L56*R56*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B57">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2916,7 +6652,7 @@
         <v>20.342777777777776</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2441.1333333333332</v>
       </c>
       <c r="I57">
@@ -2924,19 +6660,70 @@
         <v>7323.4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>728.90483685103311</v>
       </c>
       <c r="K57">
         <f t="shared" si="11"/>
         <v>5338060</v>
       </c>
-      <c r="N57" s="7">
+      <c r="L57" s="7">
         <f t="shared" si="12"/>
         <v>5.4999999999999973</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M57" s="12">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C57,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C57,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C57,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C57,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C57,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f>D57-SUM(N57:R57)</f>
+        <v>9583</v>
+      </c>
+      <c r="T57">
+        <f>$L57*N57*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>$L57*O57*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f>$L57*P57*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f>$L57*Q57*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f>$L57*R57*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B58">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2961,7 +6748,7 @@
         <v>21.768194444444443</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2612.1833333333334</v>
       </c>
       <c r="I58">
@@ -2969,19 +6756,70 @@
         <v>7836.55</v>
       </c>
       <c r="J58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>801.7953205361365</v>
       </c>
       <c r="K58">
         <f t="shared" si="11"/>
         <v>6283305</v>
       </c>
-      <c r="N58" s="7">
+      <c r="L58" s="7">
         <f t="shared" si="12"/>
         <v>5.599999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M58" s="12">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C58,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C58,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C58,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C58,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C58,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f>D58-SUM(N58:R58)</f>
+        <v>10263</v>
+      </c>
+      <c r="T58">
+        <f>$L58*N58*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>$L58*O58*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f>$L58*P58*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f>$L58*Q58*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f>$L58*R58*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B59">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3006,7 +6844,7 @@
         <v>23.299166666666668</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2795.9</v>
       </c>
       <c r="I59">
@@ -3014,19 +6852,70 @@
         <v>8387.7000000000007</v>
       </c>
       <c r="J59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>881.97485258975018</v>
       </c>
       <c r="K59">
         <f t="shared" si="11"/>
         <v>7397740</v>
       </c>
-      <c r="N59" s="7">
+      <c r="L59" s="7">
         <f t="shared" si="12"/>
         <v>5.6999999999999966</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M59" s="12">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C59,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C59,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C59,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C59,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C59,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f>D59-SUM(N59:R59)</f>
+        <v>11023</v>
+      </c>
+      <c r="T59">
+        <f>$L59*N59*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>$L59*O59*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f>$L59*P59*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f>$L59*Q59*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f>$L59*R59*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B60">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3051,7 +6940,7 @@
         <v>24.946805555555557</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2993.6166666666668</v>
       </c>
       <c r="I60">
@@ -3059,19 +6948,70 @@
         <v>8980.85</v>
       </c>
       <c r="J60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>970.17233784872531</v>
       </c>
       <c r="K60">
         <f t="shared" si="11"/>
         <v>8712970</v>
       </c>
-      <c r="N60" s="7">
+      <c r="L60" s="7">
         <f t="shared" si="12"/>
         <v>5.7999999999999963</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M60" s="12">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C60,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C60,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C60,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C60,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C60,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f>D60-SUM(N60:R60)</f>
+        <v>11863</v>
+      </c>
+      <c r="T60">
+        <f>$L60*N60*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>$L60*O60*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f>$L60*P60*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f>$L60*Q60*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f>$L60*R60*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B61">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3096,7 +7036,7 @@
         <v>26.619444444444444</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3194.3333333333335</v>
       </c>
       <c r="I61">
@@ -3104,19 +7044,70 @@
         <v>9583</v>
       </c>
       <c r="J61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1067.189571633598</v>
       </c>
       <c r="K61">
         <f t="shared" si="11"/>
         <v>10226875</v>
       </c>
-      <c r="N61" s="7">
+      <c r="L61" s="7">
         <f t="shared" si="12"/>
         <v>5.8999999999999959</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M61" s="12">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C61,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C61,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C61,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C61,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C61,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f>D61-SUM(N61:R61)</f>
+        <v>12043</v>
+      </c>
+      <c r="T61">
+        <f>$L61*N61*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>$L61*O61*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f>$L61*P61*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f>$L61*Q61*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f>$L61*R61*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B62">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3141,7 +7132,7 @@
         <v>28.323333333333334</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3398.8</v>
       </c>
       <c r="I62">
@@ -3149,19 +7140,70 @@
         <v>10196.4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1173.9085287969579</v>
       </c>
       <c r="K62">
         <f t="shared" si="11"/>
         <v>11969640</v>
       </c>
-      <c r="N62" s="7">
+      <c r="L62" s="7">
         <f t="shared" si="12"/>
         <v>5.9999999999999956</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C62,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C62,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C62,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C62,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C62,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f>D62-SUM(N62:R62)</f>
+        <v>12268</v>
+      </c>
+      <c r="T62">
+        <f>$L62*N62*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f>$L62*O62*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f>$L62*P62*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f>$L62*Q62*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f>$L62*R62*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B63">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3186,7 +7228,7 @@
         <v>30.070972222222224</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3608.5166666666669</v>
       </c>
       <c r="I63">
@@ -3194,19 +7236,70 @@
         <v>10825.55</v>
       </c>
       <c r="J63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1291.2993816766536</v>
       </c>
       <c r="K63">
         <f t="shared" si="11"/>
         <v>13979025</v>
       </c>
-      <c r="N63" s="7">
+      <c r="L63" s="7">
         <f t="shared" si="12"/>
         <v>6.0999999999999952</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M63" s="12">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C63,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C63,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C63,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C63,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C63,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f>D63-SUM(N63:R63)</f>
+        <v>12583</v>
+      </c>
+      <c r="T63">
+        <f>$L63*N63*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f>$L63*O63*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f>$L63*P63*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f>$L63*Q63*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f>$L63*R63*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B64">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3231,7 +7324,7 @@
         <v>31.874861111111112</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3824.9833333333331</v>
       </c>
       <c r="I64">
@@ -3239,19 +7332,70 @@
         <v>11474.95</v>
       </c>
       <c r="J64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1420.429319844319</v>
       </c>
       <c r="K64">
         <f t="shared" si="11"/>
         <v>16299355</v>
       </c>
-      <c r="N64" s="7">
+      <c r="L64" s="7">
         <f t="shared" si="12"/>
         <v>6.1999999999999948</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M64" s="12">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C64,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C64,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C64,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C64,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C64,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f>D64-SUM(N64:R64)</f>
+        <v>12988</v>
+      </c>
+      <c r="T64">
+        <f>$L64*N64*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f>$L64*O64*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <f>$L64*P64*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f>$L64*Q64*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f>$L64*R64*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B65">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3276,7 +7420,7 @@
         <v>33.747500000000002</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4049.7</v>
       </c>
       <c r="I65">
@@ -3284,19 +7428,70 @@
         <v>12149.1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1562.472251828751</v>
       </c>
       <c r="K65">
         <f t="shared" si="11"/>
         <v>18982630</v>
       </c>
-      <c r="N65" s="7">
+      <c r="L65" s="7">
         <f t="shared" si="12"/>
         <v>6.2999999999999945</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M65" s="12">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C65,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C65,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C65,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C65,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C65,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f>D65-SUM(N65:R65)</f>
+        <v>13483</v>
+      </c>
+      <c r="T65">
+        <f>$L65*N65*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f>$L65*O65*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f>$L65*P65*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f>$L65*Q65*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f>$L65*R65*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B66">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3321,7 +7516,7 @@
         <v>35.701388888888886</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4284.166666666667</v>
       </c>
       <c r="I66">
@@ -3329,19 +7524,70 @@
         <v>12852.5</v>
       </c>
       <c r="J66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1718.7194770116264</v>
       </c>
       <c r="K66">
         <f t="shared" si="11"/>
         <v>22089840</v>
       </c>
-      <c r="N66" s="7">
+      <c r="L66" s="7">
         <f t="shared" si="12"/>
         <v>6.3999999999999941</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M66" s="12">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C66,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C66,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C66,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C66,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C66,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f>D66-SUM(N66:R66)</f>
+        <v>14068</v>
+      </c>
+      <c r="T66">
+        <f>$L66*N66*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f>$L66*O66*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f>$L66*P66*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f>$L66*Q66*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f>$L66*R66*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B67">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3366,7 +7612,7 @@
         <v>37.749027777777776</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4529.8833333333332</v>
       </c>
       <c r="I67">
@@ -3374,19 +7620,70 @@
         <v>13589.65</v>
       </c>
       <c r="J67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1890.5914247127891</v>
       </c>
       <c r="K67">
         <f t="shared" si="11"/>
         <v>25692475</v>
       </c>
-      <c r="N67" s="7">
+      <c r="L67" s="7">
         <f t="shared" si="12"/>
         <v>6.4999999999999938</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M67" s="12">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C67,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C67,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C67,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C67,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C67,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f>D67-SUM(N67:R67)</f>
+        <v>14743</v>
+      </c>
+      <c r="T67">
+        <f>$L67*N67*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f>$L67*O67*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f>$L67*P67*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f>$L67*Q67*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f>$L67*R67*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B68">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3411,7 +7708,7 @@
         <v>39.90291666666667</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4788.3500000000004</v>
       </c>
       <c r="I68">
@@ -3419,19 +7716,70 @@
         <v>14365.05</v>
       </c>
       <c r="J68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2079.6505671840682</v>
       </c>
       <c r="K68">
         <f t="shared" si="11"/>
         <v>29874280</v>
       </c>
-      <c r="N68" s="7">
+      <c r="L68" s="7">
         <f t="shared" si="12"/>
         <v>6.5999999999999934</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M68" s="12">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C68,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C68,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C68,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C68,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C68,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f>D68-SUM(N68:R68)</f>
+        <v>15508</v>
+      </c>
+      <c r="T68">
+        <f>$L68*N68*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f>$L68*O68*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f>$L68*P68*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f>$L68*Q68*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f>$L68*R68*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B69">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3456,7 +7804,7 @@
         <v>42.175555555555555</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5061.0666666666666</v>
       </c>
       <c r="I69">
@@ -3464,19 +7812,70 @@
         <v>15183.2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2287.6156239024754</v>
       </c>
       <c r="K69">
         <f t="shared" si="11"/>
         <v>34733325</v>
       </c>
-      <c r="N69" s="7">
+      <c r="L69" s="7">
         <f t="shared" si="12"/>
         <v>6.6999999999999931</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M69" s="12">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C69,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C69,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C69,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C69,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C69,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>D69-SUM(N69:R69)</f>
+        <v>16363</v>
+      </c>
+      <c r="T69">
+        <f>$L69*N69*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f>$L69*O69*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f>$L69*P69*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f>$L69*Q69*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f>$L69*R69*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B70">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3501,7 +7900,7 @@
         <v>44.579444444444448</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5349.5333333333338</v>
       </c>
       <c r="I70">
@@ -3509,16 +7908,67 @@
         <v>16048.6</v>
       </c>
       <c r="J70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2516.3771862927233</v>
       </c>
       <c r="K70">
         <f t="shared" si="11"/>
         <v>40384330</v>
       </c>
-      <c r="N70" s="7">
+      <c r="L70" s="7">
         <f t="shared" si="12"/>
         <v>6.7999999999999927</v>
+      </c>
+      <c r="M70" s="12">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C70,[1]任务时间分布!$B$3:$B$62),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C70,[1]任务时间分布!$B$3:$B$62),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C70,[1]任务时间分布!$B$3:$B$62),3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C70,[1]任务时间分布!$B$3:$B$62),4)</f>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f>INDEX([1]任务时间分布!$C$3:$G$62,MATCH($C70,[1]任务时间分布!$B$3:$B$62),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f>D70-SUM(N70:R70)</f>
+        <v>17308</v>
+      </c>
+      <c r="T70">
+        <f>$L70*N70*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f>$L70*O70*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f>$L70*P70*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f>$L70*Q70*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f>$L70*R70*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +7985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>

--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821D4F3-CB14-4AF3-9604-241D7AECF6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18450"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>等级下限</t>
   </si>
@@ -54,6 +40,12 @@
   </si>
   <si>
     <t>平均每天</t>
+  </si>
+  <si>
+    <t>击杀怪物耗时s</t>
+  </si>
+  <si>
+    <t>击杀怪物经验值</t>
   </si>
   <si>
     <t>合计</t>
@@ -83,7 +75,40 @@
     <t>累积min</t>
   </si>
   <si>
+    <t>击杀怪物数量</t>
+  </si>
+  <si>
+    <t>所需经验</t>
+  </si>
+  <si>
     <t>基础经验效率</t>
+  </si>
+  <si>
+    <t>任务时间占比</t>
+  </si>
+  <si>
+    <t>对话&amp;送货</t>
+  </si>
+  <si>
+    <t>杀怪（或收集道具）</t>
+  </si>
+  <si>
+    <t>杀BOSS怪</t>
+  </si>
+  <si>
+    <t>副本杀怪</t>
+  </si>
+  <si>
+    <t>副本杀BOSS</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>实际经验值</t>
+  </si>
+  <si>
+    <t>实际经验效率</t>
   </si>
   <si>
     <t>移动速度min秒</t>
@@ -130,64 +155,20 @@
   <si>
     <t>每族村镇</t>
   </si>
-  <si>
-    <t>击杀怪物耗时s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀怪物数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀怪物经验值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需经验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话&amp;送货</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀怪（或收集道具）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀BOSS怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本杀怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本杀BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际经验值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务时间占比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,18 +199,139 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,21 +339,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +356,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -273,13 +551,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,115 +818,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="任务类型"/>
@@ -1672,7 +2169,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1945,25 +2442,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12:AE70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="26" max="26" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:10">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:13">
       <c r="C2">
         <v>1</v>
       </c>
@@ -2007,21 +2505,21 @@
       </c>
       <c r="I2" s="4">
         <f>IF(C2=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2)-I1)</f>
-        <v>1.1312500000000001</v>
+        <v>1.13125</v>
       </c>
       <c r="J2" s="3">
         <f>10/I2</f>
-        <v>8.8397790055248606</v>
+        <v>8.83977900552486</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C2)</f>
         <v>965</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>32</v>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:13">
       <c r="C3">
         <v>2</v>
       </c>
@@ -2043,21 +2541,21 @@
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I7" si="0">IF(C3=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3)-I2)</f>
-        <v>1.8344444444444443</v>
+        <v>1.83444444444444</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J7" si="1">10/I3</f>
-        <v>5.4512416717141132</v>
+        <v>5.45124167171411</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="2">_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C3)</f>
         <v>1694</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13">
       <c r="C4">
         <v>3</v>
       </c>
@@ -2079,21 +2577,21 @@
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>4.2255555555555553</v>
+        <v>4.22555555555556</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>2.3665527215356299</v>
+        <v>2.36655272153563</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>34</v>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13">
       <c r="C5">
         <v>4</v>
       </c>
@@ -2115,11 +2613,11 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>8.1615277777777777</v>
+        <v>8.16152777777778</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>1.2252607933563637</v>
+        <v>1.22526079335636</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
@@ -2129,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11">
       <c r="C6">
         <v>5</v>
       </c>
@@ -2151,18 +2649,18 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>16.785277777777779</v>
+        <v>16.7852777777778</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>0.59576017343240606</v>
+        <v>0.595760173432406</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:11">
       <c r="C7">
         <v>6</v>
       </c>
@@ -2184,35 +2682,35 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>27.794166666666669</v>
+        <v>27.7941666666667</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>0.35978772524210711</v>
+        <v>0.359787725242107</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="8:10">
       <c r="H8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I2:I7)</f>
-        <v>59.932222222222222</v>
+        <v>59.9322222222222</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="5:5">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="12:18">
       <c r="L10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(N11,[1]任务类型!$B$2:$B$6,))</f>
@@ -2235,81 +2733,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="2:31">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -2323,7 +2839,7 @@
       </c>
       <c r="E12" s="3">
         <f>D12/(3600)/$E$9</f>
-        <v>0.11736111111111111</v>
+        <v>0.117361111111111</v>
       </c>
       <c r="F12">
         <f>IF(C12=1,D12,F11+D12)</f>
@@ -2331,11 +2847,11 @@
       </c>
       <c r="G12" s="3">
         <f>F12/(3600)/$E$9</f>
-        <v>0.11736111111111111</v>
+        <v>0.117361111111111</v>
       </c>
       <c r="H12" s="4">
         <f>F12/60</f>
-        <v>14.083333333333334</v>
+        <v>14.0833333333333</v>
       </c>
       <c r="I12">
         <f>F12/$M$3</f>
@@ -2351,7 +2867,7 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <v>1</v>
       </c>
       <c r="N12">
@@ -2375,11 +2891,11 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <f>D12-SUM(N12:R12)</f>
+        <f t="shared" ref="S12:S70" si="4">D12-SUM(N12:R12)</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>$L12*N12*N$10</f>
+        <f t="shared" ref="T12:T70" si="5">$L12*N12*N$10</f>
         <v>360</v>
       </c>
       <c r="U12">
@@ -2387,52 +2903,76 @@
         <v>727.5</v>
       </c>
       <c r="V12">
-        <f>$L12*P12*P$10</f>
+        <f t="shared" ref="V12:V70" si="6">$L12*P12*P$10</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>$L12*Q12*Q$10</f>
+        <f t="shared" ref="W12:W70" si="7">$L12*Q12*Q$10</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>$L12*R12*R$10</f>
+        <f t="shared" ref="X12:X70" si="8">$L12*R12*R$10</f>
         <v>0</v>
       </c>
       <c r="Y12">
         <f>SUM(T12:X12)</f>
         <v>1087.5</v>
       </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:Z70" si="9">(N12*N$10+O12*O$10+P12*P$10+Q12*Q$10+R12*R$10+S12*1)/D12*L12</f>
+        <v>1.28698224852071</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AA70" si="10">$L12*N$10</f>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AB70" si="11">$L12*O$10</f>
+        <v>1.5</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12:AC70" si="12">$L12*P$10</f>
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12:AD70" si="13">$L12*Q$10</f>
+        <v>2.5</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AE70" si="14">$L12*R$10</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31">
       <c r="B13">
-        <f t="shared" ref="B13:B70" si="4">ROUNDUP(C13/9.9,)</f>
+        <f t="shared" ref="B13:B70" si="15">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D70" si="5">INT((MOD(C13,10)+2)^INDEX($F$2:$F$7,B13)*INDEX($G$2:$G$7,B13)+INDEX($H$2:$H$7,B13))</f>
+        <f t="shared" ref="D13:D70" si="16">INT((MOD(C13,10)+2)^INDEX($F$2:$F$7,B13)*INDEX($G$2:$G$7,B13)+INDEX($H$2:$H$7,B13))</f>
         <v>860</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E70" si="6">D13/(3600)/$E$9</f>
-        <v>0.11944444444444445</v>
+        <f t="shared" ref="E13:E70" si="17">D13/(3600)/$E$9</f>
+        <v>0.119444444444444</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F70" si="7">IF(C13=1,D13,F12+D13)</f>
+        <f t="shared" ref="F13:F70" si="18">IF(C13=1,D13,F12+D13)</f>
         <v>1705</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G70" si="8">F13/(3600)/$E$9</f>
-        <v>0.23680555555555555</v>
+        <f t="shared" ref="G13:G70" si="19">F13/(3600)/$E$9</f>
+        <v>0.236805555555556</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" ref="H13:H44" si="9">F13/60</f>
-        <v>28.416666666666668</v>
+        <f t="shared" ref="H13:H44" si="20">F13/60</f>
+        <v>28.4166666666667</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I70" si="10">F13/$M$3</f>
+        <f t="shared" ref="I13:I70" si="21">F13/$M$3</f>
         <v>85.25</v>
       </c>
       <c r="J13">
@@ -2440,14 +2980,14 @@
         <v>11</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K70" si="11">FLOOR(I13*J13,5)</f>
+        <f t="shared" ref="K13:K70" si="22">FLOOR(I13*J13,5)</f>
         <v>935</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" ref="L13:L70" si="12">L12+0.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="L13" s="11">
+        <f t="shared" ref="L13:L70" si="23">L12+0.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="M13" s="10">
         <v>1</v>
       </c>
       <c r="N13">
@@ -2471,79 +3011,103 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <f>D13-SUM(N13:R13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>$L13*N13*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>$L13*O13*O$10</f>
+        <f t="shared" ref="U12:U70" si="24">$L13*O13*O$10</f>
         <v>387.75</v>
       </c>
       <c r="V13">
-        <f>$L13*P13*P$10</f>
-        <v>440.00000000000006</v>
+        <f t="shared" si="6"/>
+        <v>440</v>
       </c>
       <c r="W13">
-        <f>$L13*Q13*Q$10</f>
-        <v>1168.7500000000002</v>
+        <f t="shared" si="7"/>
+        <v>1168.75</v>
       </c>
       <c r="X13">
-        <f>$L13*R13*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13:Y70" si="13">SUM(T13:X13)</f>
-        <v>1996.5000000000002</v>
+        <f t="shared" ref="Y13:Y70" si="25">SUM(T13:X13)</f>
+        <v>1996.5</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="9"/>
+        <v>2.32151162790698</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="10"/>
+        <v>1.1</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="11"/>
+        <v>1.65</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="12"/>
+        <v>2.2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="13"/>
+        <v>2.75</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="14"/>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31">
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>875</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12152777777777778</v>
+        <f t="shared" si="17"/>
+        <v>0.121527777777778</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>2580</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.35833333333333334</v>
+        <f t="shared" si="19"/>
+        <v>0.358333333333333</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>129</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J70" si="14">J13*1.1</f>
-        <v>12.100000000000001</v>
+        <f t="shared" ref="J14:J70" si="26">J13*1.1</f>
+        <v>12.1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1560</v>
       </c>
-      <c r="L14" s="7">
-        <f t="shared" si="12"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="L14" s="11">
+        <f t="shared" si="23"/>
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="10">
         <v>1</v>
       </c>
       <c r="N14">
@@ -2567,79 +3131,103 @@
         <v>600</v>
       </c>
       <c r="S14">
-        <f>D14-SUM(N14:R14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>$L14*N14*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>$L14*O14*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>$L14*P14*P$10</f>
-        <v>660.00000000000011</v>
+        <f t="shared" si="6"/>
+        <v>660</v>
       </c>
       <c r="W14">
-        <f>$L14*Q14*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>$L14*R14*R$10</f>
-        <v>2160.0000000000005</v>
+        <f t="shared" si="8"/>
+        <v>2160</v>
       </c>
       <c r="Y14">
+        <f t="shared" si="25"/>
+        <v>2820</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="9"/>
+        <v>3.22285714285714</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="13"/>
-        <v>2820.0000000000005</v>
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="14"/>
+        <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31">
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>890</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12361111111111112</v>
+        <f t="shared" si="17"/>
+        <v>0.123611111111111</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>3470</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="8"/>
-        <v>0.48194444444444445</v>
+        <f t="shared" si="19"/>
+        <v>0.481944444444444</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="9"/>
-        <v>57.833333333333336</v>
+        <f t="shared" si="20"/>
+        <v>57.8333333333333</v>
       </c>
       <c r="I15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>173.5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="14"/>
-        <v>13.310000000000002</v>
+        <f t="shared" si="26"/>
+        <v>13.31</v>
       </c>
       <c r="K15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2305</v>
       </c>
-      <c r="L15" s="7">
-        <f t="shared" si="12"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="L15" s="11">
+        <f t="shared" si="23"/>
+        <v>1.3</v>
+      </c>
+      <c r="M15" s="10">
         <v>1</v>
       </c>
       <c r="N15">
@@ -2663,79 +3251,103 @@
         <v>530</v>
       </c>
       <c r="S15">
-        <f>D15-SUM(N15:R15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>$L15*N15*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>$L15*O15*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>$L15*P15*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>$L15*Q15*Q$10</f>
-        <v>1170.0000000000002</v>
+        <f t="shared" si="7"/>
+        <v>1170</v>
       </c>
       <c r="X15">
-        <f>$L15*R15*R$10</f>
-        <v>2067.0000000000005</v>
+        <f t="shared" si="8"/>
+        <v>2067</v>
       </c>
       <c r="Y15">
+        <f t="shared" si="25"/>
+        <v>3237</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="9"/>
+        <v>3.63707865168539</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="11"/>
+        <v>1.95</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="12"/>
+        <v>2.6</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="13"/>
-        <v>3237.0000000000009</v>
+        <v>3.25</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="14"/>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:31">
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>905</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12569444444444444</v>
+        <f t="shared" si="17"/>
+        <v>0.125694444444444</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>4375</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="8"/>
-        <v>0.60763888888888884</v>
+        <f t="shared" si="19"/>
+        <v>0.607638888888889</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="9"/>
-        <v>72.916666666666671</v>
+        <f t="shared" si="20"/>
+        <v>72.9166666666667</v>
       </c>
       <c r="I16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>218.75</v>
       </c>
       <c r="J16">
-        <f t="shared" si="14"/>
-        <v>14.641000000000004</v>
+        <f t="shared" si="26"/>
+        <v>14.641</v>
       </c>
       <c r="K16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3200</v>
       </c>
-      <c r="L16" s="7">
-        <f t="shared" si="12"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="L16" s="11">
+        <f t="shared" si="23"/>
+        <v>1.4</v>
+      </c>
+      <c r="M16" s="10">
         <v>1</v>
       </c>
       <c r="N16">
@@ -2759,79 +3371,103 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <f>D16-SUM(N16:R16)</f>
+        <f t="shared" si="4"/>
         <v>905</v>
       </c>
       <c r="T16">
-        <f>$L16*N16*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>$L16*O16*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>$L16*P16*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>$L16*Q16*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>$L16*R16*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="11"/>
+        <v>2.1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="12"/>
+        <v>2.8</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="14"/>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:31">
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>920</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12777777777777777</v>
+        <f t="shared" si="17"/>
+        <v>0.127777777777778</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>5295</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="8"/>
-        <v>0.73541666666666672</v>
+        <f t="shared" si="19"/>
+        <v>0.735416666666667</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>88.25</v>
       </c>
       <c r="I17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>264.75</v>
       </c>
       <c r="J17">
-        <f t="shared" si="14"/>
-        <v>16.105100000000004</v>
+        <f t="shared" si="26"/>
+        <v>16.1051</v>
       </c>
       <c r="K17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4260</v>
       </c>
-      <c r="L17" s="7">
-        <f t="shared" si="12"/>
-        <v>1.5000000000000004</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="L17" s="11">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="10">
         <v>1</v>
       </c>
       <c r="N17">
@@ -2855,79 +3491,103 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <f>D17-SUM(N17:R17)</f>
+        <f t="shared" si="4"/>
         <v>920</v>
       </c>
       <c r="T17">
-        <f>$L17*N17*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>$L17*O17*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>$L17*P17*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>$L17*Q17*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>$L17*R17*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="11"/>
+        <v>2.25</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.75</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:31">
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>935</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12986111111111112</v>
+        <f t="shared" si="17"/>
+        <v>0.129861111111111</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>6230</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="8"/>
-        <v>0.86527777777777781</v>
+        <f t="shared" si="19"/>
+        <v>0.865277777777778</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="9"/>
-        <v>103.83333333333333</v>
+        <f t="shared" si="20"/>
+        <v>103.833333333333</v>
       </c>
       <c r="I18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>311.5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="14"/>
-        <v>17.715610000000005</v>
+        <f t="shared" si="26"/>
+        <v>17.71561</v>
       </c>
       <c r="K18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5515</v>
       </c>
-      <c r="L18" s="7">
-        <f t="shared" si="12"/>
-        <v>1.6000000000000005</v>
-      </c>
-      <c r="M18" s="12">
+      <c r="L18" s="11">
+        <f t="shared" si="23"/>
+        <v>1.6</v>
+      </c>
+      <c r="M18" s="10">
         <v>1</v>
       </c>
       <c r="N18">
@@ -2951,79 +3611,103 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <f>D18-SUM(N18:R18)</f>
+        <f t="shared" si="4"/>
         <v>935</v>
       </c>
       <c r="T18">
-        <f>$L18*N18*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>$L18*O18*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>$L18*P18*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>$L18*Q18*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>$L18*R18*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="11"/>
+        <v>2.4</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="12"/>
+        <v>3.2</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:31">
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>950</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="6"/>
-        <v>0.13194444444444445</v>
+        <f t="shared" si="17"/>
+        <v>0.131944444444444</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>7180</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="8"/>
-        <v>0.99722222222222223</v>
+        <f t="shared" si="19"/>
+        <v>0.997222222222222</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="9"/>
-        <v>119.66666666666667</v>
+        <f t="shared" si="20"/>
+        <v>119.666666666667</v>
       </c>
       <c r="I19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>359</v>
       </c>
       <c r="J19">
-        <f t="shared" si="14"/>
-        <v>19.487171000000007</v>
+        <f t="shared" si="26"/>
+        <v>19.487171</v>
       </c>
       <c r="K19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6995</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="12"/>
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="L19" s="11">
+        <f t="shared" si="23"/>
+        <v>1.7</v>
+      </c>
+      <c r="M19" s="10">
         <v>1</v>
       </c>
       <c r="N19">
@@ -3047,79 +3731,103 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <f>D19-SUM(N19:R19)</f>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
       <c r="T19">
-        <f>$L19*N19*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>$L19*O19*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>$L19*P19*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>$L19*Q19*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>$L19*R19*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="11"/>
+        <v>2.55</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="12"/>
+        <v>3.4</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.25</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="14"/>
+        <v>5.1</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:31">
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>965</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
-        <v>0.13402777777777777</v>
+        <f t="shared" si="17"/>
+        <v>0.134027777777778</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>8145</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1312500000000001</v>
+        <f t="shared" si="19"/>
+        <v>1.13125</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>135.75</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>407.25</v>
       </c>
       <c r="J20">
-        <f t="shared" si="14"/>
-        <v>21.43588810000001</v>
+        <f t="shared" si="26"/>
+        <v>21.4358881</v>
       </c>
       <c r="K20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8725</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="12"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="L20" s="11">
+        <f t="shared" si="23"/>
+        <v>1.8</v>
+      </c>
+      <c r="M20" s="10">
         <v>1</v>
       </c>
       <c r="N20">
@@ -3143,79 +3851,103 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <f>D20-SUM(N20:R20)</f>
+        <f t="shared" si="4"/>
         <v>965</v>
       </c>
       <c r="T20">
-        <f>$L20*N20*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>$L20*O20*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>$L20*P20*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>$L20*Q20*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>$L20*R20*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="11"/>
+        <v>2.7</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="12"/>
+        <v>3.6</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="14"/>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:31">
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1021</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14180555555555555</v>
+        <f t="shared" si="17"/>
+        <v>0.141805555555556</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>9166</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2730555555555556</v>
+        <f t="shared" si="19"/>
+        <v>1.27305555555556</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="9"/>
-        <v>152.76666666666668</v>
+        <f t="shared" si="20"/>
+        <v>152.766666666667</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>458.3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="14"/>
-        <v>23.579476910000015</v>
+        <f t="shared" si="26"/>
+        <v>23.57947691</v>
       </c>
       <c r="K21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>10805</v>
       </c>
-      <c r="L21" s="7">
-        <f t="shared" si="12"/>
-        <v>1.9000000000000008</v>
-      </c>
-      <c r="M21" s="12">
+      <c r="L21" s="11">
+        <f t="shared" si="23"/>
+        <v>1.9</v>
+      </c>
+      <c r="M21" s="10">
         <v>1</v>
       </c>
       <c r="N21">
@@ -3239,79 +3971,103 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <f>D21-SUM(N21:R21)</f>
+        <f t="shared" si="4"/>
         <v>1021</v>
       </c>
       <c r="T21">
-        <f>$L21*N21*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21">
-        <f>$L21*O21*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>$L21*P21*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>$L21*Q21*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>$L21*R21*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="10"/>
+        <v>1.9</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="11"/>
+        <v>2.85</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="12"/>
+        <v>3.8</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.75</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="14"/>
+        <v>5.7</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:31">
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1068</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14833333333333334</v>
+        <f t="shared" si="17"/>
+        <v>0.148333333333333</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>10234</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4213888888888888</v>
+        <f t="shared" si="19"/>
+        <v>1.42138888888889</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="9"/>
-        <v>170.56666666666666</v>
+        <f t="shared" si="20"/>
+        <v>170.566666666667</v>
       </c>
       <c r="I22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>511.7</v>
       </c>
       <c r="J22">
-        <f t="shared" si="14"/>
-        <v>25.937424601000018</v>
+        <f t="shared" si="26"/>
+        <v>25.937424601</v>
       </c>
       <c r="K22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>13270</v>
       </c>
-      <c r="L22" s="7">
-        <f t="shared" si="12"/>
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="L22" s="11">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="10">
         <v>1</v>
       </c>
       <c r="N22">
@@ -3335,79 +4091,103 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <f>D22-SUM(N22:R22)</f>
+        <f t="shared" si="4"/>
         <v>1068</v>
       </c>
       <c r="T22">
-        <f>$L22*N22*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>$L22*O22*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>$L22*P22*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>$L22*Q22*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>$L22*R22*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31">
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1125</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.15625</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>11359</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5776388888888888</v>
+        <f t="shared" si="19"/>
+        <v>1.57763888888889</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="9"/>
-        <v>189.31666666666666</v>
+        <f t="shared" si="20"/>
+        <v>189.316666666667</v>
       </c>
       <c r="I23">
-        <f t="shared" si="10"/>
-        <v>567.95000000000005</v>
+        <f t="shared" si="21"/>
+        <v>567.95</v>
       </c>
       <c r="J23">
-        <f t="shared" si="14"/>
-        <v>28.531167061100021</v>
+        <f t="shared" si="26"/>
+        <v>28.5311670611</v>
       </c>
       <c r="K23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>16200</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" si="12"/>
-        <v>2.100000000000001</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="L23" s="11">
+        <f t="shared" si="23"/>
+        <v>2.1</v>
+      </c>
+      <c r="M23" s="10">
         <v>1</v>
       </c>
       <c r="N23">
@@ -3431,79 +4211,103 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <f>D23-SUM(N23:R23)</f>
+        <f t="shared" si="4"/>
         <v>1125</v>
       </c>
       <c r="T23">
-        <f>$L23*N23*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>$L23*O23*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>$L23*P23*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>$L23*Q23*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>$L23*R23*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.25</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="14"/>
+        <v>6.3</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:31">
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1188</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" si="17"/>
+        <v>0.165</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>12547</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7426388888888888</v>
+        <f t="shared" si="19"/>
+        <v>1.74263888888889</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="9"/>
-        <v>209.11666666666667</v>
+        <f t="shared" si="20"/>
+        <v>209.116666666667</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>627.35</v>
       </c>
       <c r="J24">
-        <f t="shared" si="14"/>
-        <v>31.384283767210025</v>
+        <f t="shared" si="26"/>
+        <v>31.38428376721</v>
       </c>
       <c r="K24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>19685</v>
       </c>
-      <c r="L24" s="7">
-        <f t="shared" si="12"/>
-        <v>2.2000000000000011</v>
-      </c>
-      <c r="M24" s="12">
+      <c r="L24" s="11">
+        <f t="shared" si="23"/>
+        <v>2.2</v>
+      </c>
+      <c r="M24" s="10">
         <v>1</v>
       </c>
       <c r="N24">
@@ -3527,79 +4331,103 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f>D24-SUM(N24:R24)</f>
+        <f t="shared" si="4"/>
         <v>1188</v>
       </c>
       <c r="T24">
-        <f>$L24*N24*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U24">
-        <f>$L24*O24*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>$L24*P24*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>$L24*Q24*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X24">
-        <f>$L24*R24*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y24">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="10"/>
+        <v>2.2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="11"/>
+        <v>3.3</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="12"/>
+        <v>4.4</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="14"/>
+        <v>6.6</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:31">
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1258</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.17472222222222222</v>
+        <f t="shared" si="17"/>
+        <v>0.174722222222222</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>13805</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="8"/>
-        <v>1.9173611111111111</v>
+        <f t="shared" si="19"/>
+        <v>1.91736111111111</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="9"/>
-        <v>230.08333333333334</v>
+        <f t="shared" si="20"/>
+        <v>230.083333333333</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>690.25</v>
       </c>
       <c r="J25">
-        <f t="shared" si="14"/>
-        <v>34.522712143931031</v>
+        <f t="shared" si="26"/>
+        <v>34.522712143931</v>
       </c>
       <c r="K25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>23825</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="12"/>
-        <v>2.3000000000000012</v>
-      </c>
-      <c r="M25" s="12">
+      <c r="L25" s="11">
+        <f t="shared" si="23"/>
+        <v>2.3</v>
+      </c>
+      <c r="M25" s="10">
         <v>1</v>
       </c>
       <c r="N25">
@@ -3623,79 +4451,103 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <f>D25-SUM(N25:R25)</f>
+        <f t="shared" si="4"/>
         <v>1258</v>
       </c>
       <c r="T25">
-        <f>$L25*N25*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>$L25*O25*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>$L25*P25*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>$L25*Q25*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>$L25*R25*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="9"/>
+        <v>2.3</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="10"/>
+        <v>2.3</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="11"/>
+        <v>3.45</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="12"/>
+        <v>4.6</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.75</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="14"/>
+        <v>6.9</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:31">
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C26">
         <v>15</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1335</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="6"/>
-        <v>0.18541666666666667</v>
+        <f t="shared" si="17"/>
+        <v>0.185416666666667</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>15140</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="8"/>
-        <v>2.1027777777777779</v>
+        <f t="shared" si="19"/>
+        <v>2.10277777777778</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="9"/>
-        <v>252.33333333333334</v>
+        <f t="shared" si="20"/>
+        <v>252.333333333333</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>757</v>
       </c>
       <c r="J26">
-        <f t="shared" si="14"/>
-        <v>37.974983358324138</v>
+        <f t="shared" si="26"/>
+        <v>37.9749833583241</v>
       </c>
       <c r="K26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>28745</v>
       </c>
-      <c r="L26" s="7">
-        <f t="shared" si="12"/>
-        <v>2.4000000000000012</v>
-      </c>
-      <c r="M26" s="12">
+      <c r="L26" s="11">
+        <f t="shared" si="23"/>
+        <v>2.4</v>
+      </c>
+      <c r="M26" s="10">
         <v>1</v>
       </c>
       <c r="N26">
@@ -3719,79 +4571,103 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <f>D26-SUM(N26:R26)</f>
+        <f t="shared" si="4"/>
         <v>1335</v>
       </c>
       <c r="T26">
-        <f>$L26*N26*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>$L26*O26*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>$L26*P26*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>$L26*Q26*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>$L26*R26*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="12"/>
+        <v>4.8</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="14"/>
+        <v>7.2</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:31">
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1417</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="6"/>
-        <v>0.19680555555555557</v>
+        <f t="shared" si="17"/>
+        <v>0.196805555555556</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>16557</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
-        <v>2.2995833333333335</v>
+        <f t="shared" si="19"/>
+        <v>2.29958333333333</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>275.95</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>827.85</v>
       </c>
       <c r="J27">
-        <f t="shared" si="14"/>
-        <v>41.772481694156554</v>
+        <f t="shared" si="26"/>
+        <v>41.7724816941566</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>34580</v>
       </c>
-      <c r="L27" s="7">
-        <f t="shared" si="12"/>
-        <v>2.5000000000000013</v>
-      </c>
-      <c r="M27" s="12">
+      <c r="L27" s="11">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="M27" s="10">
         <v>1</v>
       </c>
       <c r="N27">
@@ -3815,79 +4691,103 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <f>D27-SUM(N27:R27)</f>
+        <f t="shared" si="4"/>
         <v>1417</v>
       </c>
       <c r="T27">
-        <f>$L27*N27*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>$L27*O27*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>$L27*P27*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>$L27*Q27*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>$L27*R27*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.25</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:31">
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C28">
         <v>17</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1505</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="6"/>
-        <v>0.20902777777777778</v>
+        <f t="shared" si="17"/>
+        <v>0.209027777777778</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>18062</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="8"/>
-        <v>2.5086111111111111</v>
+        <f t="shared" si="19"/>
+        <v>2.50861111111111</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="9"/>
-        <v>301.03333333333336</v>
+        <f t="shared" si="20"/>
+        <v>301.033333333333</v>
       </c>
       <c r="I28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>903.1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="14"/>
-        <v>45.949729863572216</v>
+        <f t="shared" si="26"/>
+        <v>45.9497298635722</v>
       </c>
       <c r="K28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>41495</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" si="12"/>
-        <v>2.6000000000000014</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="L28" s="11">
+        <f t="shared" si="23"/>
+        <v>2.6</v>
+      </c>
+      <c r="M28" s="10">
         <v>1</v>
       </c>
       <c r="N28">
@@ -3911,79 +4811,103 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f>D28-SUM(N28:R28)</f>
+        <f t="shared" si="4"/>
         <v>1505</v>
       </c>
       <c r="T28">
-        <f>$L28*N28*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>$L28*O28*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>$L28*P28*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>$L28*Q28*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>$L28*R28*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="11"/>
+        <v>3.9</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="12"/>
+        <v>5.2</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="14"/>
+        <v>7.8</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:31">
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1597</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="6"/>
-        <v>0.22180555555555556</v>
+        <f t="shared" si="17"/>
+        <v>0.221805555555556</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>19659</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="8"/>
-        <v>2.7304166666666667</v>
+        <f t="shared" si="19"/>
+        <v>2.73041666666667</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="9"/>
-        <v>327.64999999999998</v>
+        <f t="shared" si="20"/>
+        <v>327.65</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>982.95</v>
       </c>
       <c r="J29">
-        <f t="shared" si="14"/>
-        <v>50.544702849929443</v>
+        <f t="shared" si="26"/>
+        <v>50.5447028499294</v>
       </c>
       <c r="K29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>49680</v>
       </c>
-      <c r="L29" s="7">
-        <f t="shared" si="12"/>
-        <v>2.7000000000000015</v>
-      </c>
-      <c r="M29" s="12">
+      <c r="L29" s="11">
+        <f t="shared" si="23"/>
+        <v>2.7</v>
+      </c>
+      <c r="M29" s="10">
         <v>1</v>
       </c>
       <c r="N29">
@@ -4007,79 +4931,103 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f>D29-SUM(N29:R29)</f>
+        <f t="shared" si="4"/>
         <v>1597</v>
       </c>
       <c r="T29">
-        <f>$L29*N29*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>$L29*O29*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>$L29*P29*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>$L29*Q29*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>$L29*R29*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="10"/>
+        <v>2.7</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="11"/>
+        <v>4.05</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="12"/>
+        <v>5.4</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.75</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="14"/>
+        <v>8.1</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:31">
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C30">
         <v>19</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1694</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="6"/>
-        <v>0.23527777777777778</v>
+        <f t="shared" si="17"/>
+        <v>0.235277777777778</v>
       </c>
       <c r="F30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>21353</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="8"/>
-        <v>2.9656944444444444</v>
+        <f t="shared" si="19"/>
+        <v>2.96569444444444</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="9"/>
-        <v>355.88333333333333</v>
+        <f t="shared" si="20"/>
+        <v>355.883333333333</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
-        <v>1067.6500000000001</v>
+        <f t="shared" si="21"/>
+        <v>1067.65</v>
       </c>
       <c r="J30">
-        <f t="shared" si="14"/>
-        <v>55.599173134922395</v>
+        <f t="shared" si="26"/>
+        <v>55.5991731349224</v>
       </c>
       <c r="K30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>59360</v>
       </c>
-      <c r="L30" s="7">
-        <f t="shared" si="12"/>
-        <v>2.8000000000000016</v>
-      </c>
-      <c r="M30" s="12">
+      <c r="L30" s="11">
+        <f t="shared" si="23"/>
+        <v>2.8</v>
+      </c>
+      <c r="M30" s="10">
         <v>1</v>
       </c>
       <c r="N30">
@@ -4103,79 +5051,103 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <f>D30-SUM(N30:R30)</f>
+        <f t="shared" si="4"/>
         <v>1694</v>
       </c>
       <c r="T30">
-        <f>$L30*N30*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>$L30*O30*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>$L30*P30*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f>$L30*Q30*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f>$L30*R30*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="11"/>
+        <v>4.2</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="12"/>
+        <v>5.6</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="14"/>
+        <v>8.4</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:31">
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1778</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="6"/>
-        <v>0.24694444444444444</v>
+        <f t="shared" si="17"/>
+        <v>0.246944444444444</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>23131</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="8"/>
-        <v>3.2126388888888888</v>
+        <f t="shared" si="19"/>
+        <v>3.21263888888889</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="9"/>
-        <v>385.51666666666665</v>
+        <f t="shared" si="20"/>
+        <v>385.516666666667</v>
       </c>
       <c r="I31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1156.55</v>
       </c>
       <c r="J31">
-        <f t="shared" si="14"/>
-        <v>61.159090448414638</v>
+        <f t="shared" si="26"/>
+        <v>61.1590904484146</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>70730</v>
       </c>
-      <c r="L31" s="7">
-        <f t="shared" si="12"/>
-        <v>2.9000000000000017</v>
-      </c>
-      <c r="M31" s="12">
+      <c r="L31" s="11">
+        <f t="shared" si="23"/>
+        <v>2.9</v>
+      </c>
+      <c r="M31" s="10">
         <v>1</v>
       </c>
       <c r="N31">
@@ -4199,79 +5171,103 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <f>D31-SUM(N31:R31)</f>
+        <f t="shared" si="4"/>
         <v>1778</v>
       </c>
       <c r="T31">
-        <f>$L31*N31*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>$L31*O31*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f>$L31*P31*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f>$L31*Q31*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>$L31*R31*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" si="9"/>
+        <v>2.9</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="10"/>
+        <v>2.9</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="11"/>
+        <v>4.35</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="12"/>
+        <v>5.8</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.25</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="14"/>
+        <v>8.7</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:31">
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1849</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="6"/>
-        <v>0.25680555555555556</v>
+        <f t="shared" si="17"/>
+        <v>0.256805555555556</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>24980</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="8"/>
-        <v>3.4694444444444446</v>
+        <f t="shared" si="19"/>
+        <v>3.46944444444444</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="9"/>
-        <v>416.33333333333331</v>
+        <f t="shared" si="20"/>
+        <v>416.333333333333</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1249</v>
       </c>
       <c r="J32">
-        <f t="shared" si="14"/>
-        <v>67.274999493256104</v>
+        <f t="shared" si="26"/>
+        <v>67.2749994932561</v>
       </c>
       <c r="K32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>84025</v>
       </c>
-      <c r="L32" s="7">
-        <f t="shared" si="12"/>
-        <v>3.0000000000000018</v>
-      </c>
-      <c r="M32" s="12">
+      <c r="L32" s="11">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="10">
         <v>1</v>
       </c>
       <c r="N32">
@@ -4295,79 +5291,103 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <f>D32-SUM(N32:R32)</f>
+        <f t="shared" si="4"/>
         <v>1849</v>
       </c>
       <c r="T32">
-        <f>$L32*N32*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U32">
-        <f>$L32*O32*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f>$L32*P32*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W32">
-        <f>$L32*Q32*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f>$L32*R32*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y32">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.5</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:31">
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C33">
         <v>22</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1934</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="6"/>
-        <v>0.26861111111111113</v>
+        <f t="shared" si="17"/>
+        <v>0.268611111111111</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>26914</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="8"/>
-        <v>3.7380555555555555</v>
+        <f t="shared" si="19"/>
+        <v>3.73805555555556</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="9"/>
-        <v>448.56666666666666</v>
+        <f t="shared" si="20"/>
+        <v>448.566666666667</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1345.7</v>
       </c>
       <c r="J33">
-        <f t="shared" si="14"/>
-        <v>74.002499442581723</v>
+        <f t="shared" si="26"/>
+        <v>74.0024994425817</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>99585</v>
       </c>
-      <c r="L33" s="7">
-        <f t="shared" si="12"/>
-        <v>3.1000000000000019</v>
-      </c>
-      <c r="M33" s="12">
+      <c r="L33" s="11">
+        <f t="shared" si="23"/>
+        <v>3.1</v>
+      </c>
+      <c r="M33" s="10">
         <v>1</v>
       </c>
       <c r="N33">
@@ -4391,79 +5411,103 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <f>D33-SUM(N33:R33)</f>
+        <f t="shared" si="4"/>
         <v>1934</v>
       </c>
       <c r="T33">
-        <f>$L33*N33*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f>$L33*O33*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f>$L33*P33*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W33">
-        <f>$L33*Q33*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f>$L33*R33*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="11"/>
+        <v>4.65</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="12"/>
+        <v>6.2</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.75</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="14"/>
+        <v>9.3</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:31">
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C34">
         <v>23</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2029</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="6"/>
-        <v>0.28180555555555553</v>
+        <f t="shared" si="17"/>
+        <v>0.281805555555556</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>28943</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="8"/>
-        <v>4.0198611111111111</v>
+        <f t="shared" si="19"/>
+        <v>4.01986111111111</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="9"/>
-        <v>482.38333333333333</v>
+        <f t="shared" si="20"/>
+        <v>482.383333333333</v>
       </c>
       <c r="I34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1447.15</v>
       </c>
       <c r="J34">
-        <f t="shared" si="14"/>
-        <v>81.402749386839901</v>
+        <f t="shared" si="26"/>
+        <v>81.4027493868399</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>117800</v>
       </c>
-      <c r="L34" s="7">
-        <f t="shared" si="12"/>
-        <v>3.200000000000002</v>
-      </c>
-      <c r="M34" s="12">
+      <c r="L34" s="11">
+        <f t="shared" si="23"/>
+        <v>3.2</v>
+      </c>
+      <c r="M34" s="10">
         <v>1</v>
       </c>
       <c r="N34">
@@ -4487,79 +5531,103 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <f>D34-SUM(N34:R34)</f>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="T34">
-        <f>$L34*N34*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>$L34*O34*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>$L34*P34*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f>$L34*Q34*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f>$L34*R34*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="11"/>
+        <v>4.8</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="12"/>
+        <v>6.4</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="14"/>
+        <v>9.6</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:31">
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2134</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="6"/>
-        <v>0.29638888888888887</v>
+        <f t="shared" si="17"/>
+        <v>0.296388888888889</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>31077</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="8"/>
-        <v>4.3162500000000001</v>
+        <f t="shared" si="19"/>
+        <v>4.31625</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="9"/>
-        <v>517.95000000000005</v>
+        <f t="shared" si="20"/>
+        <v>517.95</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1553.85</v>
       </c>
       <c r="J35">
-        <f t="shared" si="14"/>
-        <v>89.543024325523902</v>
+        <f t="shared" si="26"/>
+        <v>89.5430243255239</v>
       </c>
       <c r="K35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>139135</v>
       </c>
-      <c r="L35" s="7">
-        <f t="shared" si="12"/>
-        <v>3.300000000000002</v>
-      </c>
-      <c r="M35" s="12">
+      <c r="L35" s="11">
+        <f t="shared" si="23"/>
+        <v>3.3</v>
+      </c>
+      <c r="M35" s="10">
         <v>1</v>
       </c>
       <c r="N35">
@@ -4583,79 +5651,103 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <f>D35-SUM(N35:R35)</f>
+        <f t="shared" si="4"/>
         <v>2134</v>
       </c>
       <c r="T35">
-        <f>$L35*N35*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>$L35*O35*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f>$L35*P35*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f>$L35*Q35*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f>$L35*R35*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="10"/>
+        <v>3.3</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="11"/>
+        <v>4.95</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="12"/>
+        <v>6.6</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.25</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="14"/>
+        <v>9.9</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:31">
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C36">
         <v>25</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2249</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="6"/>
-        <v>0.31236111111111109</v>
+        <f t="shared" si="17"/>
+        <v>0.312361111111111</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>33326</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="8"/>
-        <v>4.6286111111111108</v>
+        <f t="shared" si="19"/>
+        <v>4.62861111111111</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="9"/>
-        <v>555.43333333333328</v>
+        <f t="shared" si="20"/>
+        <v>555.433333333333</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1666.3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="14"/>
-        <v>98.497326758076298</v>
+        <f t="shared" si="26"/>
+        <v>98.4973267580763</v>
       </c>
       <c r="K36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>164125</v>
       </c>
-      <c r="L36" s="7">
-        <f t="shared" si="12"/>
-        <v>3.4000000000000021</v>
-      </c>
-      <c r="M36" s="12">
+      <c r="L36" s="11">
+        <f t="shared" si="23"/>
+        <v>3.4</v>
+      </c>
+      <c r="M36" s="10">
         <v>1</v>
       </c>
       <c r="N36">
@@ -4679,79 +5771,103 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <f>D36-SUM(N36:R36)</f>
+        <f t="shared" si="4"/>
         <v>2249</v>
       </c>
       <c r="T36">
-        <f>$L36*N36*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f>$L36*O36*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f>$L36*P36*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W36">
-        <f>$L36*Q36*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f>$L36*R36*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="11"/>
+        <v>5.1</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="12"/>
+        <v>6.8</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.5</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="14"/>
+        <v>10.2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:31">
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C37">
         <v>26</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2372</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="6"/>
-        <v>0.32944444444444443</v>
+        <f t="shared" si="17"/>
+        <v>0.329444444444444</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>35698</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="8"/>
-        <v>4.9580555555555552</v>
+        <f t="shared" si="19"/>
+        <v>4.95805555555556</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="9"/>
-        <v>594.9666666666667</v>
+        <f t="shared" si="20"/>
+        <v>594.966666666667</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1784.9</v>
       </c>
       <c r="J37">
-        <f t="shared" si="14"/>
-        <v>108.34705943388394</v>
+        <f t="shared" si="26"/>
+        <v>108.347059433884</v>
       </c>
       <c r="K37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>193385</v>
       </c>
-      <c r="L37" s="7">
-        <f t="shared" si="12"/>
-        <v>3.5000000000000022</v>
-      </c>
-      <c r="M37" s="12">
+      <c r="L37" s="11">
+        <f t="shared" si="23"/>
+        <v>3.5</v>
+      </c>
+      <c r="M37" s="10">
         <v>1</v>
       </c>
       <c r="N37">
@@ -4775,79 +5891,103 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f>D37-SUM(N37:R37)</f>
+        <f t="shared" si="4"/>
         <v>2372</v>
       </c>
       <c r="T37">
-        <f>$L37*N37*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U37">
-        <f>$L37*O37*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f>$L37*P37*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f>$L37*Q37*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f>$L37*R37*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="11"/>
+        <v>5.25</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.75</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="14"/>
+        <v>10.5</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:31">
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2504</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="6"/>
-        <v>0.3477777777777778</v>
+        <f t="shared" si="17"/>
+        <v>0.347777777777778</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>38202</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3058333333333332</v>
+        <f t="shared" si="19"/>
+        <v>5.30583333333333</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="9"/>
-        <v>636.70000000000005</v>
+        <f t="shared" si="20"/>
+        <v>636.7</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1910.1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="14"/>
-        <v>119.18176537727234</v>
+        <f t="shared" si="26"/>
+        <v>119.181765377272</v>
       </c>
       <c r="K38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>227645</v>
       </c>
-      <c r="L38" s="7">
-        <f t="shared" si="12"/>
-        <v>3.6000000000000023</v>
-      </c>
-      <c r="M38" s="12">
+      <c r="L38" s="11">
+        <f t="shared" si="23"/>
+        <v>3.6</v>
+      </c>
+      <c r="M38" s="10">
         <v>1</v>
       </c>
       <c r="N38">
@@ -4871,79 +6011,103 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <f>D38-SUM(N38:R38)</f>
+        <f t="shared" si="4"/>
         <v>2504</v>
       </c>
       <c r="T38">
-        <f>$L38*N38*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f>$L38*O38*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f>$L38*P38*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>$L38*Q38*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>$L38*R38*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="9"/>
+        <v>3.6</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="10"/>
+        <v>3.6</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="11"/>
+        <v>5.4</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="12"/>
+        <v>7.2</v>
+      </c>
+      <c r="AD38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="14"/>
+        <v>10.8</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:31">
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C39">
         <v>28</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2642</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="6"/>
-        <v>0.36694444444444446</v>
+        <f t="shared" si="17"/>
+        <v>0.366944444444444</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>40844</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="8"/>
-        <v>5.6727777777777781</v>
+        <f t="shared" si="19"/>
+        <v>5.67277777777778</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="9"/>
-        <v>680.73333333333335</v>
+        <f t="shared" si="20"/>
+        <v>680.733333333333</v>
       </c>
       <c r="I39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2042.2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="14"/>
-        <v>131.09994191499959</v>
+        <f t="shared" si="26"/>
+        <v>131.099941915</v>
       </c>
       <c r="K39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>267730</v>
       </c>
-      <c r="L39" s="7">
-        <f t="shared" si="12"/>
-        <v>3.7000000000000024</v>
-      </c>
-      <c r="M39" s="12">
+      <c r="L39" s="11">
+        <f t="shared" si="23"/>
+        <v>3.7</v>
+      </c>
+      <c r="M39" s="10">
         <v>1</v>
       </c>
       <c r="N39">
@@ -4967,79 +6131,103 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <f>D39-SUM(N39:R39)</f>
+        <f t="shared" si="4"/>
         <v>2642</v>
       </c>
       <c r="T39">
-        <f>$L39*N39*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <f>$L39*O39*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f>$L39*P39*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W39">
-        <f>$L39*Q39*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f>$L39*R39*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="10"/>
+        <v>3.7</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="11"/>
+        <v>5.55</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="12"/>
+        <v>7.4</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.25</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="14"/>
+        <v>11.1</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:31">
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C40">
         <v>29</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2788</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="6"/>
-        <v>0.38722222222222225</v>
+        <f t="shared" si="17"/>
+        <v>0.387222222222222</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>43632</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>6.06</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>727.2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2181.6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="14"/>
-        <v>144.20993610649955</v>
+        <f t="shared" si="26"/>
+        <v>144.2099361065</v>
       </c>
       <c r="K40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>314605</v>
       </c>
-      <c r="L40" s="7">
-        <f t="shared" si="12"/>
-        <v>3.8000000000000025</v>
-      </c>
-      <c r="M40" s="12">
+      <c r="L40" s="11">
+        <f t="shared" si="23"/>
+        <v>3.8</v>
+      </c>
+      <c r="M40" s="10">
         <v>1</v>
       </c>
       <c r="N40">
@@ -5063,79 +6251,103 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <f>D40-SUM(N40:R40)</f>
+        <f t="shared" si="4"/>
         <v>2788</v>
       </c>
       <c r="T40">
-        <f>$L40*N40*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <f>$L40*O40*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f>$L40*P40*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f>$L40*Q40*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f>$L40*R40*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="10"/>
+        <v>3.8</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="11"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="12"/>
+        <v>7.6</v>
+      </c>
+      <c r="AD40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:31">
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C41">
         <v>30</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2928</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="6"/>
-        <v>0.40666666666666668</v>
+        <f t="shared" si="17"/>
+        <v>0.406666666666667</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>46560</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="8"/>
-        <v>6.4666666666666668</v>
+        <f t="shared" si="19"/>
+        <v>6.46666666666667</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>776</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2328</v>
       </c>
       <c r="J41">
-        <f t="shared" si="14"/>
-        <v>158.63092971714951</v>
+        <f t="shared" si="26"/>
+        <v>158.63092971715</v>
       </c>
       <c r="K41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>369290</v>
       </c>
-      <c r="L41" s="7">
-        <f t="shared" si="12"/>
-        <v>3.9000000000000026</v>
-      </c>
-      <c r="M41" s="12">
+      <c r="L41" s="11">
+        <f t="shared" si="23"/>
+        <v>3.9</v>
+      </c>
+      <c r="M41" s="10">
         <v>1</v>
       </c>
       <c r="N41">
@@ -5159,79 +6371,103 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <f>D41-SUM(N41:R41)</f>
+        <f t="shared" si="4"/>
         <v>2928</v>
       </c>
       <c r="T41">
-        <f>$L41*N41*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <f>$L41*O41*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f>$L41*P41*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W41">
-        <f>$L41*Q41*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X41">
-        <f>$L41*R41*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y41">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="10"/>
+        <v>3.9</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="11"/>
+        <v>5.85</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="12"/>
+        <v>7.8</v>
+      </c>
+      <c r="AD41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.75</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="14"/>
+        <v>11.7</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:31">
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C42">
         <v>31</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3103</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="6"/>
-        <v>0.4309722222222222</v>
+        <f t="shared" si="17"/>
+        <v>0.430972222222222</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>49663</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8976388888888893</v>
+        <f t="shared" si="19"/>
+        <v>6.89763888888889</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="9"/>
-        <v>827.7166666666667</v>
+        <f t="shared" si="20"/>
+        <v>827.716666666667</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2483.15</v>
       </c>
       <c r="J42">
-        <f t="shared" si="14"/>
-        <v>174.49402268886448</v>
+        <f t="shared" si="26"/>
+        <v>174.494022688864</v>
       </c>
       <c r="K42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>433290</v>
       </c>
-      <c r="L42" s="7">
-        <f t="shared" si="12"/>
-        <v>4.0000000000000027</v>
-      </c>
-      <c r="M42" s="12">
+      <c r="L42" s="11">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="M42" s="10">
         <v>1</v>
       </c>
       <c r="N42">
@@ -5255,79 +6491,103 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <f>D42-SUM(N42:R42)</f>
+        <f t="shared" si="4"/>
         <v>3103</v>
       </c>
       <c r="T42">
-        <f>$L42*N42*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U42">
-        <f>$L42*O42*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f>$L42*P42*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W42">
-        <f>$L42*Q42*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f>$L42*R42*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AD42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:31">
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C43">
         <v>32</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3348</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="6"/>
-        <v>0.46500000000000002</v>
+        <f t="shared" si="17"/>
+        <v>0.465</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53011</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="8"/>
-        <v>7.3626388888888892</v>
+        <f t="shared" si="19"/>
+        <v>7.36263888888889</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="9"/>
-        <v>883.51666666666665</v>
+        <f t="shared" si="20"/>
+        <v>883.516666666667</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2650.55</v>
       </c>
       <c r="J43">
-        <f t="shared" si="14"/>
-        <v>191.94342495775095</v>
+        <f t="shared" si="26"/>
+        <v>191.943424957751</v>
       </c>
       <c r="K43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>508755</v>
       </c>
-      <c r="L43" s="7">
-        <f t="shared" si="12"/>
-        <v>4.1000000000000023</v>
-      </c>
-      <c r="M43" s="12">
+      <c r="L43" s="11">
+        <f t="shared" si="23"/>
+        <v>4.1</v>
+      </c>
+      <c r="M43" s="10">
         <v>1</v>
       </c>
       <c r="N43">
@@ -5351,79 +6611,103 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <f>D43-SUM(N43:R43)</f>
+        <f t="shared" si="4"/>
         <v>3348</v>
       </c>
       <c r="T43">
-        <f>$L43*N43*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U43">
-        <f>$L43*O43*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f>$L43*P43*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f>$L43*Q43*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f>$L43*R43*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="9"/>
+        <v>4.1</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="10"/>
+        <v>4.1</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="11"/>
+        <v>6.15</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="12"/>
+        <v>8.2</v>
+      </c>
+      <c r="AD43">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10.25</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="14"/>
+        <v>12.3</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:31">
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C44">
         <v>33</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3663</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="6"/>
-        <v>0.50875000000000004</v>
+        <f t="shared" si="17"/>
+        <v>0.50875</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>56674</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="8"/>
-        <v>7.8713888888888892</v>
+        <f t="shared" si="19"/>
+        <v>7.87138888888889</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="9"/>
-        <v>944.56666666666672</v>
+        <f t="shared" si="20"/>
+        <v>944.566666666667</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2833.7</v>
       </c>
       <c r="J44">
-        <f t="shared" si="14"/>
-        <v>211.13776745352607</v>
+        <f t="shared" si="26"/>
+        <v>211.137767453526</v>
       </c>
       <c r="K44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>598300</v>
       </c>
-      <c r="L44" s="7">
-        <f t="shared" si="12"/>
-        <v>4.200000000000002</v>
-      </c>
-      <c r="M44" s="12">
+      <c r="L44" s="11">
+        <f t="shared" si="23"/>
+        <v>4.2</v>
+      </c>
+      <c r="M44" s="10">
         <v>1</v>
       </c>
       <c r="N44">
@@ -5447,79 +6731,103 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <f>D44-SUM(N44:R44)</f>
+        <f t="shared" si="4"/>
         <v>3663</v>
       </c>
       <c r="T44">
-        <f>$L44*N44*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f>$L44*O44*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f>$L44*P44*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W44">
-        <f>$L44*Q44*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>$L44*R44*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="10"/>
+        <v>4.2</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="11"/>
+        <v>6.3</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="12"/>
+        <v>8.4</v>
+      </c>
+      <c r="AD44">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10.5</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="14"/>
+        <v>12.6</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:31">
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C45">
         <v>34</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4048</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="6"/>
-        <v>0.56222222222222218</v>
+        <f t="shared" si="17"/>
+        <v>0.562222222222222</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>60722</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="8"/>
-        <v>8.4336111111111105</v>
+        <f t="shared" si="19"/>
+        <v>8.43361111111111</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H70" si="15">F45/60</f>
-        <v>1012.0333333333333</v>
+        <f t="shared" ref="H45:H70" si="27">F45/60</f>
+        <v>1012.03333333333</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3036.1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="14"/>
-        <v>232.25154419887869</v>
+        <f t="shared" si="26"/>
+        <v>232.251544198879</v>
       </c>
       <c r="K45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>705135</v>
       </c>
-      <c r="L45" s="7">
-        <f t="shared" si="12"/>
-        <v>4.3000000000000016</v>
-      </c>
-      <c r="M45" s="12">
+      <c r="L45" s="11">
+        <f t="shared" si="23"/>
+        <v>4.3</v>
+      </c>
+      <c r="M45" s="10">
         <v>1</v>
       </c>
       <c r="N45">
@@ -5543,79 +6851,103 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <f>D45-SUM(N45:R45)</f>
+        <f t="shared" si="4"/>
         <v>4048</v>
       </c>
       <c r="T45">
-        <f>$L45*N45*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U45">
-        <f>$L45*O45*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V45">
-        <f>$L45*P45*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W45">
-        <f>$L45*Q45*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f>$L45*R45*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="10"/>
+        <v>4.3</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="11"/>
+        <v>6.45</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="12"/>
+        <v>8.6</v>
+      </c>
+      <c r="AD45">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10.75</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="14"/>
+        <v>12.9</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:31">
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C46">
         <v>35</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4503</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="6"/>
-        <v>0.62541666666666662</v>
+        <f t="shared" si="17"/>
+        <v>0.625416666666667</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>65225</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="8"/>
-        <v>9.0590277777777786</v>
+        <f t="shared" si="19"/>
+        <v>9.05902777777778</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="15"/>
-        <v>1087.0833333333333</v>
+        <f t="shared" si="27"/>
+        <v>1087.08333333333</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3261.25</v>
       </c>
       <c r="J46">
-        <f t="shared" si="14"/>
-        <v>255.47669861876659</v>
+        <f t="shared" si="26"/>
+        <v>255.476698618767</v>
       </c>
       <c r="K46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>833170</v>
       </c>
-      <c r="L46" s="7">
-        <f t="shared" si="12"/>
-        <v>4.4000000000000012</v>
-      </c>
-      <c r="M46" s="12">
+      <c r="L46" s="11">
+        <f t="shared" si="23"/>
+        <v>4.4</v>
+      </c>
+      <c r="M46" s="10">
         <v>1</v>
       </c>
       <c r="N46">
@@ -5639,79 +6971,103 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <f>D46-SUM(N46:R46)</f>
+        <f t="shared" si="4"/>
         <v>4503</v>
       </c>
       <c r="T46">
-        <f>$L46*N46*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U46">
-        <f>$L46*O46*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V46">
-        <f>$L46*P46*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W46">
-        <f>$L46*Q46*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <f>$L46*R46*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="10"/>
+        <v>4.4</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="11"/>
+        <v>6.6</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="12"/>
+        <v>8.8</v>
+      </c>
+      <c r="AD46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="14"/>
+        <v>13.2</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:31">
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C47">
         <v>36</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>5028</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="6"/>
-        <v>0.69833333333333336</v>
+        <f t="shared" si="17"/>
+        <v>0.698333333333333</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>70253</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="8"/>
-        <v>9.7573611111111109</v>
+        <f t="shared" si="19"/>
+        <v>9.75736111111111</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="15"/>
-        <v>1170.8833333333334</v>
+        <f t="shared" si="27"/>
+        <v>1170.88333333333</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3512.65</v>
       </c>
       <c r="J47">
-        <f t="shared" si="14"/>
-        <v>281.02436848064326</v>
+        <f t="shared" si="26"/>
+        <v>281.024368480643</v>
       </c>
       <c r="K47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>987140</v>
       </c>
-      <c r="L47" s="7">
-        <f t="shared" si="12"/>
-        <v>4.5000000000000009</v>
-      </c>
-      <c r="M47" s="12">
+      <c r="L47" s="11">
+        <f t="shared" si="23"/>
+        <v>4.5</v>
+      </c>
+      <c r="M47" s="10">
         <v>1</v>
       </c>
       <c r="N47">
@@ -5735,79 +7091,103 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <f>D47-SUM(N47:R47)</f>
+        <f t="shared" si="4"/>
         <v>5028</v>
       </c>
       <c r="T47">
-        <f>$L47*N47*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U47">
-        <f>$L47*O47*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V47">
-        <f>$L47*P47*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W47">
-        <f>$L47*Q47*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X47">
-        <f>$L47*R47*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y47">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="11"/>
+        <v>6.75</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AD47">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11.25</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="14"/>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:31">
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C48">
         <v>37</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>5623</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="6"/>
-        <v>0.78097222222222218</v>
+        <f t="shared" si="17"/>
+        <v>0.780972222222222</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>75876</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="8"/>
-        <v>10.538333333333334</v>
+        <f t="shared" si="19"/>
+        <v>10.5383333333333</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="15"/>
-        <v>1264.5999999999999</v>
+        <f t="shared" si="27"/>
+        <v>1264.6</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3793.8</v>
       </c>
       <c r="J48">
-        <f t="shared" si="14"/>
-        <v>309.12680532870763</v>
+        <f t="shared" si="26"/>
+        <v>309.126805328708</v>
       </c>
       <c r="K48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1172765</v>
       </c>
-      <c r="L48" s="7">
-        <f t="shared" si="12"/>
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="M48" s="12">
+      <c r="L48" s="11">
+        <f t="shared" si="23"/>
+        <v>4.6</v>
+      </c>
+      <c r="M48" s="10">
         <v>1</v>
       </c>
       <c r="N48">
@@ -5831,79 +7211,103 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <f>D48-SUM(N48:R48)</f>
+        <f t="shared" si="4"/>
         <v>5623</v>
       </c>
       <c r="T48">
-        <f>$L48*N48*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U48">
-        <f>$L48*O48*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V48">
-        <f>$L48*P48*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W48">
-        <f>$L48*Q48*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X48">
-        <f>$L48*R48*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <f t="shared" si="9"/>
+        <v>4.6</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="10"/>
+        <v>4.6</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="11"/>
+        <v>6.9</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="12"/>
+        <v>9.2</v>
+      </c>
+      <c r="AD48">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11.5</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="14"/>
+        <v>13.8</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:31">
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C49">
         <v>38</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>6288</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="6"/>
-        <v>0.87333333333333329</v>
+        <f t="shared" si="17"/>
+        <v>0.873333333333333</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>82164</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="8"/>
-        <v>11.411666666666667</v>
+        <f t="shared" si="19"/>
+        <v>11.4116666666667</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1369.4</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4108.2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="14"/>
-        <v>340.03948586157844</v>
+        <f t="shared" si="26"/>
+        <v>340.039485861578</v>
       </c>
       <c r="K49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1396950</v>
       </c>
-      <c r="L49" s="7">
-        <f t="shared" si="12"/>
+      <c r="L49" s="11">
+        <f t="shared" si="23"/>
         <v>4.7</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="10">
         <v>1</v>
       </c>
       <c r="N49">
@@ -5927,79 +7331,103 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <f>D49-SUM(N49:R49)</f>
+        <f t="shared" si="4"/>
         <v>6288</v>
       </c>
       <c r="T49">
-        <f>$L49*N49*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U49">
-        <f>$L49*O49*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V49">
-        <f>$L49*P49*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W49">
-        <f>$L49*Q49*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X49">
-        <f>$L49*R49*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <f t="shared" si="9"/>
+        <v>4.7</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="10"/>
+        <v>4.7</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="11"/>
+        <v>7.05</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="12"/>
+        <v>9.4</v>
+      </c>
+      <c r="AD49">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11.75</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="14"/>
+        <v>14.1</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:31">
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C50">
         <v>39</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7023</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="6"/>
-        <v>0.97541666666666671</v>
+        <f t="shared" si="17"/>
+        <v>0.975416666666667</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>89187</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="8"/>
-        <v>12.387083333333333</v>
+        <f t="shared" si="19"/>
+        <v>12.3870833333333</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1486.45</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
-        <v>4459.3500000000004</v>
+        <f t="shared" si="21"/>
+        <v>4459.35</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
-        <v>374.04343444773633</v>
+        <f t="shared" si="26"/>
+        <v>374.043434447736</v>
       </c>
       <c r="K50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1667990</v>
       </c>
-      <c r="L50" s="7">
-        <f t="shared" si="12"/>
+      <c r="L50" s="11">
+        <f t="shared" si="23"/>
         <v>4.8</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="10">
         <v>1</v>
       </c>
       <c r="N50">
@@ -6023,79 +7451,103 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <f>D50-SUM(N50:R50)</f>
+        <f t="shared" si="4"/>
         <v>7023</v>
       </c>
       <c r="T50">
-        <f>$L50*N50*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U50">
-        <f>$L50*O50*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V50">
-        <f>$L50*P50*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W50">
-        <f>$L50*Q50*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f>$L50*R50*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="10"/>
+        <v>4.8</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="11"/>
+        <v>7.2</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="12"/>
+        <v>9.6</v>
+      </c>
+      <c r="AD50">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="14"/>
+        <v>14.4</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:31">
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C51">
         <v>40</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7183</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99763888888888885</v>
+        <f t="shared" si="17"/>
+        <v>0.997638888888889</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>96370</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="8"/>
-        <v>13.384722222222223</v>
+        <f t="shared" si="19"/>
+        <v>13.3847222222222</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="15"/>
-        <v>1606.1666666666667</v>
+        <f t="shared" si="27"/>
+        <v>1606.16666666667</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4818.5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
-        <v>411.44777789250998</v>
+        <f t="shared" si="26"/>
+        <v>411.44777789251</v>
       </c>
       <c r="K51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1982560</v>
       </c>
-      <c r="L51" s="7">
-        <f t="shared" si="12"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="M51" s="12">
+      <c r="L51" s="11">
+        <f t="shared" si="23"/>
+        <v>4.9</v>
+      </c>
+      <c r="M51" s="10">
         <v>1</v>
       </c>
       <c r="N51">
@@ -6119,79 +7571,103 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <f>D51-SUM(N51:R51)</f>
+        <f t="shared" si="4"/>
         <v>7183</v>
       </c>
       <c r="T51">
-        <f>$L51*N51*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U51">
-        <f>$L51*O51*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f>$L51*P51*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W51">
-        <f>$L51*Q51*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X51">
-        <f>$L51*R51*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y51">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="9"/>
+        <v>4.9</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="10"/>
+        <v>4.9</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="11"/>
+        <v>7.35</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="12"/>
+        <v>9.8</v>
+      </c>
+      <c r="AD51">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12.25</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="14"/>
+        <v>14.7</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:31">
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C52">
         <v>41</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7383</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0254166666666666</v>
+        <f t="shared" si="17"/>
+        <v>1.02541666666667</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>103753</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="8"/>
-        <v>14.410138888888889</v>
+        <f t="shared" si="19"/>
+        <v>14.4101388888889</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="15"/>
-        <v>1729.2166666666667</v>
+        <f t="shared" si="27"/>
+        <v>1729.21666666667</v>
       </c>
       <c r="I52">
-        <f t="shared" si="10"/>
-        <v>5187.6499999999996</v>
+        <f t="shared" si="21"/>
+        <v>5187.65</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
-        <v>452.59255568176098</v>
+        <f t="shared" si="26"/>
+        <v>452.592555681761</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2347890</v>
       </c>
-      <c r="L52" s="7">
-        <f t="shared" si="12"/>
-        <v>4.9999999999999991</v>
-      </c>
-      <c r="M52" s="12">
+      <c r="L52" s="11">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="M52" s="10">
         <v>1</v>
       </c>
       <c r="N52">
@@ -6215,79 +7691,103 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <f>D52-SUM(N52:R52)</f>
+        <f t="shared" si="4"/>
         <v>7383</v>
       </c>
       <c r="T52">
-        <f>$L52*N52*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f>$L52*O52*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f>$L52*P52*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W52">
-        <f>$L52*Q52*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X52">
-        <f>$L52*R52*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y52">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AD52">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:31">
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C53">
         <v>42</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7663</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0643055555555556</v>
+        <f t="shared" si="17"/>
+        <v>1.06430555555556</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>111416</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="8"/>
-        <v>15.474444444444444</v>
+        <f t="shared" si="19"/>
+        <v>15.4744444444444</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="15"/>
-        <v>1856.9333333333334</v>
+        <f t="shared" si="27"/>
+        <v>1856.93333333333</v>
       </c>
       <c r="I53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5570.8</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
-        <v>497.8518112499371</v>
+        <f t="shared" si="26"/>
+        <v>497.851811249937</v>
       </c>
       <c r="K53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2773430</v>
       </c>
-      <c r="L53" s="7">
-        <f t="shared" si="12"/>
-        <v>5.0999999999999988</v>
-      </c>
-      <c r="M53" s="12">
+      <c r="L53" s="11">
+        <f t="shared" si="23"/>
+        <v>5.1</v>
+      </c>
+      <c r="M53" s="10">
         <v>1</v>
       </c>
       <c r="N53">
@@ -6311,79 +7811,103 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <f>D53-SUM(N53:R53)</f>
+        <f t="shared" si="4"/>
         <v>7663</v>
       </c>
       <c r="T53">
-        <f>$L53*N53*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U53">
-        <f>$L53*O53*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f>$L53*P53*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W53">
-        <f>$L53*Q53*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X53">
-        <f>$L53*R53*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" si="9"/>
+        <v>5.1</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="10"/>
+        <v>5.1</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="11"/>
+        <v>7.65</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="12"/>
+        <v>10.2</v>
+      </c>
+      <c r="AD53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12.75</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="14"/>
+        <v>15.3</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:31">
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C54">
         <v>43</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8023</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="6"/>
-        <v>1.1143055555555557</v>
+        <f t="shared" si="17"/>
+        <v>1.11430555555556</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>119439</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="8"/>
-        <v>16.588750000000001</v>
+        <f t="shared" si="19"/>
+        <v>16.58875</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1990.65</v>
       </c>
       <c r="I54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5971.95</v>
       </c>
       <c r="J54">
-        <f t="shared" si="14"/>
-        <v>547.63699237493086</v>
+        <f t="shared" si="26"/>
+        <v>547.636992374931</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3270460</v>
       </c>
-      <c r="L54" s="7">
-        <f t="shared" si="12"/>
-        <v>5.1999999999999984</v>
-      </c>
-      <c r="M54" s="12">
+      <c r="L54" s="11">
+        <f t="shared" si="23"/>
+        <v>5.2</v>
+      </c>
+      <c r="M54" s="10">
         <v>1</v>
       </c>
       <c r="N54">
@@ -6407,79 +7931,103 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <f>D54-SUM(N54:R54)</f>
+        <f t="shared" si="4"/>
         <v>8023</v>
       </c>
       <c r="T54">
-        <f>$L54*N54*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <f>$L54*O54*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f>$L54*P54*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W54">
-        <f>$L54*Q54*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X54">
-        <f>$L54*R54*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y54">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <f t="shared" si="9"/>
+        <v>5.2</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="11"/>
+        <v>7.8</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="12"/>
+        <v>10.4</v>
+      </c>
+      <c r="AD54">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="14"/>
+        <v>15.6</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:31">
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C55">
         <v>44</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8463</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="6"/>
-        <v>1.1754166666666668</v>
+        <f t="shared" si="17"/>
+        <v>1.17541666666667</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>127902</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="8"/>
-        <v>17.764166666666668</v>
+        <f t="shared" si="19"/>
+        <v>17.7641666666667</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="15"/>
-        <v>2131.6999999999998</v>
+        <f t="shared" si="27"/>
+        <v>2131.7</v>
       </c>
       <c r="I55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6395.1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>602.400691612424</v>
       </c>
       <c r="K55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3852410</v>
       </c>
-      <c r="L55" s="7">
-        <f t="shared" si="12"/>
-        <v>5.299999999999998</v>
-      </c>
-      <c r="M55" s="12">
+      <c r="L55" s="11">
+        <f t="shared" si="23"/>
+        <v>5.3</v>
+      </c>
+      <c r="M55" s="10">
         <v>1</v>
       </c>
       <c r="N55">
@@ -6503,79 +8051,103 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <f>D55-SUM(N55:R55)</f>
+        <f t="shared" si="4"/>
         <v>8463</v>
       </c>
       <c r="T55">
-        <f>$L55*N55*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U55">
-        <f>$L55*O55*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f>$L55*P55*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W55">
-        <f>$L55*Q55*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X55">
-        <f>$L55*R55*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y55">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" si="9"/>
+        <v>5.3</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="10"/>
+        <v>5.3</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="11"/>
+        <v>7.95</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="12"/>
+        <v>10.6</v>
+      </c>
+      <c r="AD55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13.25</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="14"/>
+        <v>15.9</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:31">
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C56">
         <v>45</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8983</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="6"/>
-        <v>1.247638888888889</v>
+        <f t="shared" si="17"/>
+        <v>1.24763888888889</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>136885</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="8"/>
-        <v>19.011805555555554</v>
+        <f t="shared" si="19"/>
+        <v>19.0118055555556</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="15"/>
-        <v>2281.4166666666665</v>
+        <f t="shared" si="27"/>
+        <v>2281.41666666667</v>
       </c>
       <c r="I56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6844.25</v>
       </c>
       <c r="J56">
-        <f t="shared" si="14"/>
-        <v>662.64076077366644</v>
+        <f t="shared" si="26"/>
+        <v>662.640760773666</v>
       </c>
       <c r="K56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4535275</v>
       </c>
-      <c r="L56" s="7">
-        <f t="shared" si="12"/>
-        <v>5.3999999999999977</v>
-      </c>
-      <c r="M56" s="12">
+      <c r="L56" s="11">
+        <f t="shared" si="23"/>
+        <v>5.4</v>
+      </c>
+      <c r="M56" s="10">
         <v>1</v>
       </c>
       <c r="N56">
@@ -6599,79 +8171,103 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <f>D56-SUM(N56:R56)</f>
+        <f t="shared" si="4"/>
         <v>8983</v>
       </c>
       <c r="T56">
-        <f>$L56*N56*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U56">
-        <f>$L56*O56*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f>$L56*P56*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W56">
-        <f>$L56*Q56*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X56">
-        <f>$L56*R56*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
+        <f t="shared" si="9"/>
+        <v>5.4</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="10"/>
+        <v>5.4</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="11"/>
+        <v>8.1</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="12"/>
+        <v>10.8</v>
+      </c>
+      <c r="AD56">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13.5</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="14"/>
+        <v>16.2</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:31">
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C57">
         <v>46</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9583</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3309722222222222</v>
+        <f t="shared" si="17"/>
+        <v>1.33097222222222</v>
       </c>
       <c r="F57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>146468</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="8"/>
-        <v>20.342777777777776</v>
+        <f t="shared" si="19"/>
+        <v>20.3427777777778</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="15"/>
-        <v>2441.1333333333332</v>
+        <f t="shared" si="27"/>
+        <v>2441.13333333333</v>
       </c>
       <c r="I57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>7323.4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
-        <v>728.90483685103311</v>
+        <f t="shared" si="26"/>
+        <v>728.904836851033</v>
       </c>
       <c r="K57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5338060</v>
       </c>
-      <c r="L57" s="7">
-        <f t="shared" si="12"/>
-        <v>5.4999999999999973</v>
-      </c>
-      <c r="M57" s="12">
+      <c r="L57" s="11">
+        <f t="shared" si="23"/>
+        <v>5.5</v>
+      </c>
+      <c r="M57" s="10">
         <v>1</v>
       </c>
       <c r="N57">
@@ -6695,79 +8291,103 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <f>D57-SUM(N57:R57)</f>
+        <f t="shared" si="4"/>
         <v>9583</v>
       </c>
       <c r="T57">
-        <f>$L57*N57*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f>$L57*O57*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f>$L57*P57*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W57">
-        <f>$L57*Q57*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X57">
-        <f>$L57*R57*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y57">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="11"/>
+        <v>8.25</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AD57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13.75</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="14"/>
+        <v>16.5</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:31">
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C58">
         <v>47</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>10263</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4254166666666668</v>
+        <f t="shared" si="17"/>
+        <v>1.42541666666667</v>
       </c>
       <c r="F58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>156731</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="8"/>
-        <v>21.768194444444443</v>
+        <f t="shared" si="19"/>
+        <v>21.7681944444444</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="15"/>
-        <v>2612.1833333333334</v>
+        <f t="shared" si="27"/>
+        <v>2612.18333333333</v>
       </c>
       <c r="I58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>7836.55</v>
       </c>
       <c r="J58">
-        <f t="shared" si="14"/>
-        <v>801.7953205361365</v>
+        <f t="shared" si="26"/>
+        <v>801.795320536137</v>
       </c>
       <c r="K58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6283305</v>
       </c>
-      <c r="L58" s="7">
-        <f t="shared" si="12"/>
-        <v>5.599999999999997</v>
-      </c>
-      <c r="M58" s="12">
+      <c r="L58" s="11">
+        <f t="shared" si="23"/>
+        <v>5.6</v>
+      </c>
+      <c r="M58" s="10">
         <v>1</v>
       </c>
       <c r="N58">
@@ -6791,79 +8411,103 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <f>D58-SUM(N58:R58)</f>
+        <f t="shared" si="4"/>
         <v>10263</v>
       </c>
       <c r="T58">
-        <f>$L58*N58*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U58">
-        <f>$L58*O58*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V58">
-        <f>$L58*P58*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W58">
-        <f>$L58*Q58*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X58">
-        <f>$L58*R58*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="10"/>
+        <v>5.6</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="11"/>
+        <v>8.4</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="12"/>
+        <v>11.2</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="14"/>
+        <v>16.8</v>
       </c>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:31">
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C59">
         <v>48</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>11023</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5309722222222222</v>
+        <f t="shared" si="17"/>
+        <v>1.53097222222222</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>167754</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="8"/>
-        <v>23.299166666666668</v>
+        <f t="shared" si="19"/>
+        <v>23.2991666666667</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2795.9</v>
       </c>
       <c r="I59">
-        <f t="shared" si="10"/>
-        <v>8387.7000000000007</v>
+        <f t="shared" si="21"/>
+        <v>8387.7</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
-        <v>881.97485258975018</v>
+        <f t="shared" si="26"/>
+        <v>881.97485258975</v>
       </c>
       <c r="K59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7397740</v>
       </c>
-      <c r="L59" s="7">
-        <f t="shared" si="12"/>
-        <v>5.6999999999999966</v>
-      </c>
-      <c r="M59" s="12">
+      <c r="L59" s="11">
+        <f t="shared" si="23"/>
+        <v>5.7</v>
+      </c>
+      <c r="M59" s="10">
         <v>1</v>
       </c>
       <c r="N59">
@@ -6887,79 +8531,103 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <f>D59-SUM(N59:R59)</f>
+        <f t="shared" si="4"/>
         <v>11023</v>
       </c>
       <c r="T59">
-        <f>$L59*N59*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U59">
-        <f>$L59*O59*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f>$L59*P59*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W59">
-        <f>$L59*Q59*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X59">
-        <f>$L59*R59*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="10"/>
+        <v>5.7</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="11"/>
+        <v>8.55</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="12"/>
+        <v>11.4</v>
+      </c>
+      <c r="AD59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14.25</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="14"/>
+        <v>17.1</v>
       </c>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:31">
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C60">
         <v>49</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>11863</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6476388888888889</v>
+        <f t="shared" si="17"/>
+        <v>1.64763888888889</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>179617</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="8"/>
-        <v>24.946805555555557</v>
+        <f t="shared" si="19"/>
+        <v>24.9468055555556</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="15"/>
-        <v>2993.6166666666668</v>
+        <f t="shared" si="27"/>
+        <v>2993.61666666667</v>
       </c>
       <c r="I60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8980.85</v>
       </c>
       <c r="J60">
-        <f t="shared" si="14"/>
-        <v>970.17233784872531</v>
+        <f t="shared" si="26"/>
+        <v>970.172337848725</v>
       </c>
       <c r="K60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8712970</v>
       </c>
-      <c r="L60" s="7">
-        <f t="shared" si="12"/>
-        <v>5.7999999999999963</v>
-      </c>
-      <c r="M60" s="12">
+      <c r="L60" s="11">
+        <f t="shared" si="23"/>
+        <v>5.8</v>
+      </c>
+      <c r="M60" s="10">
         <v>1</v>
       </c>
       <c r="N60">
@@ -6983,79 +8651,103 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <f>D60-SUM(N60:R60)</f>
+        <f t="shared" si="4"/>
         <v>11863</v>
       </c>
       <c r="T60">
-        <f>$L60*N60*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U60">
-        <f>$L60*O60*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V60">
-        <f>$L60*P60*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W60">
-        <f>$L60*Q60*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X60">
-        <f>$L60*R60*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y60">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="10"/>
+        <v>5.8</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="11"/>
+        <v>8.7</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="12"/>
+        <v>11.6</v>
+      </c>
+      <c r="AD60">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14.5</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="14"/>
+        <v>17.4</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:31">
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C61">
         <v>50</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>12043</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6726388888888888</v>
+        <f t="shared" si="17"/>
+        <v>1.67263888888889</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>191660</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="8"/>
-        <v>26.619444444444444</v>
+        <f t="shared" si="19"/>
+        <v>26.6194444444444</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="15"/>
-        <v>3194.3333333333335</v>
+        <f t="shared" si="27"/>
+        <v>3194.33333333333</v>
       </c>
       <c r="I61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>9583</v>
       </c>
       <c r="J61">
-        <f t="shared" si="14"/>
-        <v>1067.189571633598</v>
+        <f t="shared" si="26"/>
+        <v>1067.1895716336</v>
       </c>
       <c r="K61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>10226875</v>
       </c>
-      <c r="L61" s="7">
-        <f t="shared" si="12"/>
-        <v>5.8999999999999959</v>
-      </c>
-      <c r="M61" s="12">
+      <c r="L61" s="11">
+        <f t="shared" si="23"/>
+        <v>5.9</v>
+      </c>
+      <c r="M61" s="10">
         <v>1</v>
       </c>
       <c r="N61">
@@ -7079,79 +8771,103 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <f>D61-SUM(N61:R61)</f>
+        <f t="shared" si="4"/>
         <v>12043</v>
       </c>
       <c r="T61">
-        <f>$L61*N61*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U61">
-        <f>$L61*O61*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f>$L61*P61*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W61">
-        <f>$L61*Q61*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X61">
-        <f>$L61*R61*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y61">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="10"/>
+        <v>5.9</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="11"/>
+        <v>8.85</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="12"/>
+        <v>11.8</v>
+      </c>
+      <c r="AD61">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14.75</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="14"/>
+        <v>17.7</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:31">
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C62">
         <v>51</v>
       </c>
       <c r="D62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>12268</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="6"/>
-        <v>1.7038888888888888</v>
+        <f t="shared" si="17"/>
+        <v>1.70388888888889</v>
       </c>
       <c r="F62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>203928</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="8"/>
-        <v>28.323333333333334</v>
+        <f t="shared" si="19"/>
+        <v>28.3233333333333</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3398.8</v>
       </c>
       <c r="I62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>10196.4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="14"/>
-        <v>1173.9085287969579</v>
+        <f t="shared" si="26"/>
+        <v>1173.90852879696</v>
       </c>
       <c r="K62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>11969640</v>
       </c>
-      <c r="L62" s="7">
-        <f t="shared" si="12"/>
-        <v>5.9999999999999956</v>
-      </c>
-      <c r="M62" s="12">
+      <c r="L62" s="11">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="M62" s="10">
         <v>1</v>
       </c>
       <c r="N62">
@@ -7175,79 +8891,103 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <f>D62-SUM(N62:R62)</f>
+        <f t="shared" si="4"/>
         <v>12268</v>
       </c>
       <c r="T62">
-        <f>$L62*N62*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U62">
-        <f>$L62*O62*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V62">
-        <f>$L62*P62*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W62">
-        <f>$L62*Q62*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X62">
-        <f>$L62*R62*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AD62">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:31">
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C63">
         <v>52</v>
       </c>
       <c r="D63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>12583</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="6"/>
-        <v>1.747638888888889</v>
+        <f t="shared" si="17"/>
+        <v>1.74763888888889</v>
       </c>
       <c r="F63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>216511</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="8"/>
-        <v>30.070972222222224</v>
+        <f t="shared" si="19"/>
+        <v>30.0709722222222</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="15"/>
-        <v>3608.5166666666669</v>
+        <f t="shared" si="27"/>
+        <v>3608.51666666667</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>10825.55</v>
       </c>
       <c r="J63">
-        <f t="shared" si="14"/>
-        <v>1291.2993816766536</v>
+        <f t="shared" si="26"/>
+        <v>1291.29938167665</v>
       </c>
       <c r="K63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>13979025</v>
       </c>
-      <c r="L63" s="7">
-        <f t="shared" si="12"/>
-        <v>6.0999999999999952</v>
-      </c>
-      <c r="M63" s="12">
+      <c r="L63" s="11">
+        <f t="shared" si="23"/>
+        <v>6.1</v>
+      </c>
+      <c r="M63" s="10">
         <v>1</v>
       </c>
       <c r="N63">
@@ -7271,79 +9011,103 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <f>D63-SUM(N63:R63)</f>
+        <f t="shared" si="4"/>
         <v>12583</v>
       </c>
       <c r="T63">
-        <f>$L63*N63*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U63">
-        <f>$L63*O63*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V63">
-        <f>$L63*P63*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W63">
-        <f>$L63*Q63*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X63">
-        <f>$L63*R63*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <f t="shared" si="9"/>
+        <v>6.1</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="10"/>
+        <v>6.1</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="11"/>
+        <v>9.15</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="12"/>
+        <v>12.2</v>
+      </c>
+      <c r="AD63">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15.25</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="14"/>
+        <v>18.3</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:31">
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C64">
         <v>53</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>12988</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="6"/>
-        <v>1.8038888888888889</v>
+        <f t="shared" si="17"/>
+        <v>1.80388888888889</v>
       </c>
       <c r="F64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>229499</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="8"/>
-        <v>31.874861111111112</v>
+        <f t="shared" si="19"/>
+        <v>31.8748611111111</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="15"/>
-        <v>3824.9833333333331</v>
+        <f t="shared" si="27"/>
+        <v>3824.98333333333</v>
       </c>
       <c r="I64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>11474.95</v>
       </c>
       <c r="J64">
-        <f t="shared" si="14"/>
-        <v>1420.429319844319</v>
+        <f t="shared" si="26"/>
+        <v>1420.42931984432</v>
       </c>
       <c r="K64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>16299355</v>
       </c>
-      <c r="L64" s="7">
-        <f t="shared" si="12"/>
-        <v>6.1999999999999948</v>
-      </c>
-      <c r="M64" s="12">
+      <c r="L64" s="11">
+        <f t="shared" si="23"/>
+        <v>6.19999999999999</v>
+      </c>
+      <c r="M64" s="10">
         <v>1</v>
       </c>
       <c r="N64">
@@ -7367,79 +9131,103 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <f>D64-SUM(N64:R64)</f>
+        <f t="shared" si="4"/>
         <v>12988</v>
       </c>
       <c r="T64">
-        <f>$L64*N64*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U64">
-        <f>$L64*O64*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f>$L64*P64*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W64">
-        <f>$L64*Q64*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X64">
-        <f>$L64*R64*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <f t="shared" si="9"/>
+        <v>6.19999999999999</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="10"/>
+        <v>6.19999999999999</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="11"/>
+        <v>9.29999999999999</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="12"/>
+        <v>12.4</v>
+      </c>
+      <c r="AD64">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15.5</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="14"/>
+        <v>18.6</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:31">
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C65">
         <v>54</v>
       </c>
       <c r="D65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>13483</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="6"/>
-        <v>1.872638888888889</v>
+        <f t="shared" si="17"/>
+        <v>1.87263888888889</v>
       </c>
       <c r="F65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>242982</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="8"/>
-        <v>33.747500000000002</v>
+        <f t="shared" si="19"/>
+        <v>33.7475</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4049.7</v>
       </c>
       <c r="I65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>12149.1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
-        <v>1562.472251828751</v>
+        <f t="shared" si="26"/>
+        <v>1562.47225182875</v>
       </c>
       <c r="K65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>18982630</v>
       </c>
-      <c r="L65" s="7">
-        <f t="shared" si="12"/>
-        <v>6.2999999999999945</v>
-      </c>
-      <c r="M65" s="12">
+      <c r="L65" s="11">
+        <f t="shared" si="23"/>
+        <v>6.29999999999999</v>
+      </c>
+      <c r="M65" s="10">
         <v>1</v>
       </c>
       <c r="N65">
@@ -7463,79 +9251,103 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <f>D65-SUM(N65:R65)</f>
+        <f t="shared" si="4"/>
         <v>13483</v>
       </c>
       <c r="T65">
-        <f>$L65*N65*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U65">
-        <f>$L65*O65*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V65">
-        <f>$L65*P65*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W65">
-        <f>$L65*Q65*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X65">
-        <f>$L65*R65*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y65">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <f t="shared" si="9"/>
+        <v>6.29999999999999</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="10"/>
+        <v>6.29999999999999</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="11"/>
+        <v>9.44999999999999</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="12"/>
+        <v>12.6</v>
+      </c>
+      <c r="AD65">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15.75</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="14"/>
+        <v>18.9</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:31">
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C66">
         <v>55</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>14068</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="6"/>
-        <v>1.9538888888888888</v>
+        <f t="shared" si="17"/>
+        <v>1.95388888888889</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>257050</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="8"/>
-        <v>35.701388888888886</v>
+        <f t="shared" si="19"/>
+        <v>35.7013888888889</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="15"/>
-        <v>4284.166666666667</v>
+        <f t="shared" si="27"/>
+        <v>4284.16666666667</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>12852.5</v>
       </c>
       <c r="J66">
-        <f t="shared" si="14"/>
-        <v>1718.7194770116264</v>
+        <f t="shared" si="26"/>
+        <v>1718.71947701163</v>
       </c>
       <c r="K66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>22089840</v>
       </c>
-      <c r="L66" s="7">
-        <f t="shared" si="12"/>
-        <v>6.3999999999999941</v>
-      </c>
-      <c r="M66" s="12">
+      <c r="L66" s="11">
+        <f t="shared" si="23"/>
+        <v>6.39999999999999</v>
+      </c>
+      <c r="M66" s="10">
         <v>1</v>
       </c>
       <c r="N66">
@@ -7559,79 +9371,103 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <f>D66-SUM(N66:R66)</f>
+        <f t="shared" si="4"/>
         <v>14068</v>
       </c>
       <c r="T66">
-        <f>$L66*N66*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U66">
-        <f>$L66*O66*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V66">
-        <f>$L66*P66*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W66">
-        <f>$L66*Q66*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X66">
-        <f>$L66*R66*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
+        <f t="shared" si="9"/>
+        <v>6.39999999999999</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="10"/>
+        <v>6.39999999999999</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="11"/>
+        <v>9.59999999999998</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="12"/>
+        <v>12.8</v>
+      </c>
+      <c r="AD66">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:31">
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C67">
         <v>56</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>14743</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="6"/>
-        <v>2.0476388888888888</v>
+        <f t="shared" si="17"/>
+        <v>2.04763888888889</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>271793</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="8"/>
-        <v>37.749027777777776</v>
+        <f t="shared" si="19"/>
+        <v>37.7490277777778</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="15"/>
-        <v>4529.8833333333332</v>
+        <f t="shared" si="27"/>
+        <v>4529.88333333333</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>13589.65</v>
       </c>
       <c r="J67">
-        <f t="shared" si="14"/>
-        <v>1890.5914247127891</v>
+        <f t="shared" si="26"/>
+        <v>1890.59142471279</v>
       </c>
       <c r="K67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>25692475</v>
       </c>
-      <c r="L67" s="7">
-        <f t="shared" si="12"/>
-        <v>6.4999999999999938</v>
-      </c>
-      <c r="M67" s="12">
+      <c r="L67" s="11">
+        <f t="shared" si="23"/>
+        <v>6.49999999999999</v>
+      </c>
+      <c r="M67" s="10">
         <v>1</v>
       </c>
       <c r="N67">
@@ -7655,79 +9491,103 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <f>D67-SUM(N67:R67)</f>
+        <f t="shared" si="4"/>
         <v>14743</v>
       </c>
       <c r="T67">
-        <f>$L67*N67*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U67">
-        <f>$L67*O67*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V67">
-        <f>$L67*P67*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W67">
-        <f>$L67*Q67*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X67">
-        <f>$L67*R67*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y67">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="3">
+        <f t="shared" si="9"/>
+        <v>6.49999999999999</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="10"/>
+        <v>6.49999999999999</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="11"/>
+        <v>9.74999999999999</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AD67">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.25</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:31">
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C68">
         <v>57</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>15508</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="6"/>
-        <v>2.153888888888889</v>
+        <f t="shared" si="17"/>
+        <v>2.15388888888889</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>287301</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="8"/>
-        <v>39.90291666666667</v>
+        <f t="shared" si="19"/>
+        <v>39.9029166666667</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="15"/>
-        <v>4788.3500000000004</v>
+        <f t="shared" si="27"/>
+        <v>4788.35</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>14365.05</v>
       </c>
       <c r="J68">
-        <f t="shared" si="14"/>
-        <v>2079.6505671840682</v>
+        <f t="shared" si="26"/>
+        <v>2079.65056718407</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>29874280</v>
       </c>
-      <c r="L68" s="7">
-        <f t="shared" si="12"/>
-        <v>6.5999999999999934</v>
-      </c>
-      <c r="M68" s="12">
+      <c r="L68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.59999999999999</v>
+      </c>
+      <c r="M68" s="10">
         <v>1</v>
       </c>
       <c r="N68">
@@ -7751,79 +9611,103 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <f>D68-SUM(N68:R68)</f>
+        <f t="shared" si="4"/>
         <v>15508</v>
       </c>
       <c r="T68">
-        <f>$L68*N68*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U68">
-        <f>$L68*O68*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V68">
-        <f>$L68*P68*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W68">
-        <f>$L68*Q68*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X68">
-        <f>$L68*R68*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y68">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <f t="shared" si="9"/>
+        <v>6.59999999999999</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="10"/>
+        <v>6.59999999999999</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="11"/>
+        <v>9.89999999999998</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="12"/>
+        <v>13.2</v>
+      </c>
+      <c r="AD68">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="14"/>
+        <v>19.8</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:31">
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C69">
         <v>58</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>16363</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="6"/>
-        <v>2.2726388888888889</v>
+        <f t="shared" si="17"/>
+        <v>2.27263888888889</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>303664</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="8"/>
-        <v>42.175555555555555</v>
+        <f t="shared" si="19"/>
+        <v>42.1755555555556</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="15"/>
-        <v>5061.0666666666666</v>
+        <f t="shared" si="27"/>
+        <v>5061.06666666667</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>15183.2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="14"/>
-        <v>2287.6156239024754</v>
+        <f t="shared" si="26"/>
+        <v>2287.61562390248</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>34733325</v>
       </c>
-      <c r="L69" s="7">
-        <f t="shared" si="12"/>
-        <v>6.6999999999999931</v>
-      </c>
-      <c r="M69" s="12">
+      <c r="L69" s="11">
+        <f t="shared" si="23"/>
+        <v>6.69999999999999</v>
+      </c>
+      <c r="M69" s="10">
         <v>1</v>
       </c>
       <c r="N69">
@@ -7847,79 +9731,103 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <f>D69-SUM(N69:R69)</f>
+        <f t="shared" si="4"/>
         <v>16363</v>
       </c>
       <c r="T69">
-        <f>$L69*N69*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U69">
-        <f>$L69*O69*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V69">
-        <f>$L69*P69*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W69">
-        <f>$L69*Q69*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X69">
-        <f>$L69*R69*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y69">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <f t="shared" si="9"/>
+        <v>6.69999999999999</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="10"/>
+        <v>6.69999999999999</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="11"/>
+        <v>10.05</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="12"/>
+        <v>13.4</v>
+      </c>
+      <c r="AD69">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.75</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="14"/>
+        <v>20.1</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:31">
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C70">
         <v>59</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>17308</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="6"/>
-        <v>2.403888888888889</v>
+        <f t="shared" si="17"/>
+        <v>2.40388888888889</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>320972</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="8"/>
-        <v>44.579444444444448</v>
+        <f t="shared" si="19"/>
+        <v>44.5794444444444</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="15"/>
-        <v>5349.5333333333338</v>
+        <f t="shared" si="27"/>
+        <v>5349.53333333333</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>16048.6</v>
       </c>
       <c r="J70">
-        <f t="shared" si="14"/>
-        <v>2516.3771862927233</v>
+        <f t="shared" si="26"/>
+        <v>2516.37718629272</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>40384330</v>
       </c>
-      <c r="L70" s="7">
-        <f t="shared" si="12"/>
-        <v>6.7999999999999927</v>
-      </c>
-      <c r="M70" s="12">
+      <c r="L70" s="11">
+        <f t="shared" si="23"/>
+        <v>6.79999999999999</v>
+      </c>
+      <c r="M70" s="10">
         <v>1</v>
       </c>
       <c r="N70">
@@ -7943,38 +9851,62 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <f>D70-SUM(N70:R70)</f>
+        <f t="shared" si="4"/>
         <v>17308</v>
       </c>
       <c r="T70">
-        <f>$L70*N70*N$10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U70">
-        <f>$L70*O70*O$10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V70">
-        <f>$L70*P70*P$10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W70">
-        <f>$L70*Q70*Q$10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X70">
-        <f>$L70*R70*R$10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <f t="shared" si="9"/>
+        <v>6.79999999999999</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="10"/>
+        <v>6.79999999999999</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="11"/>
+        <v>10.2</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="12"/>
+        <v>13.6</v>
+      </c>
+      <c r="AD70">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="14"/>
+        <v>20.4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F12:F70" formula="1"/>
   </ignoredErrors>
@@ -7982,83 +9914,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <f>C5*3600*C4/2</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <f>C4*C7/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <f>C6/C8</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -8068,9 +10001,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -8080,9 +10013,9 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -8092,35 +10025,35 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C16" si="1">D10/$C$13</f>
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -8128,22 +10061,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821D4F3-CB14-4AF3-9604-241D7AECF6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6C3CA-D5F0-4203-817A-ADB25EC34CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20625" yWindow="5190" windowWidth="28800" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>等级下限</t>
   </si>
@@ -178,6 +178,10 @@
     <t>任务时间占比</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>实际效率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +320,9 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,19 +1958,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y70"/>
+  <dimension ref="B1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
+      <selection activeCell="AE1" sqref="C1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="18" width="9" customWidth="1"/>
+    <col min="25" max="25" width="9" style="3"/>
+    <col min="26" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>1</v>
       </c>
@@ -2021,7 +2032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>2</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>3</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C5">
         <v>4</v>
       </c>
@@ -2129,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C6">
         <v>5</v>
       </c>
@@ -2162,7 +2173,7 @@
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>6</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>7</v>
       </c>
@@ -2205,12 +2216,12 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
       <c r="L10" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:31" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2305,11 +2316,29 @@
       <c r="X11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -2375,64 +2404,88 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <f>D12-SUM(N12:R12)</f>
+        <f t="shared" ref="S12:S43" si="4">D12-SUM(N12:R12)</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>$L12*N12*N$10</f>
+        <f>$L12*N$10</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:X12" si="5">$L12*O$10</f>
+        <v>1.5</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>AE12/SUM(N12:S12)</f>
+        <v>1.2840236686390532</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:Z43" si="6">$L12*N12*N$10</f>
         <v>360</v>
       </c>
-      <c r="U12">
-        <f>$L12*O12*O$10</f>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AA43" si="7">$L12*O12*O$10</f>
         <v>727.5</v>
       </c>
-      <c r="V12">
-        <f>$L12*P12*P$10</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>$L12*Q12*Q$10</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>$L12*R12*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>SUM(T12:X12)</f>
-        <v>1087.5</v>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AB43" si="8">$L12*P12*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12:AC43" si="9">$L12*Q12*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12:AD43" si="10">$L12*R12*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>FLOOR(SUM(Z12:AD12),5)</f>
+        <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B13">
-        <f t="shared" ref="B13:B70" si="4">ROUNDUP(C13/9.9,)</f>
+        <f t="shared" ref="B13:B70" si="11">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D70" si="5">INT((MOD(C13,10)+2)^INDEX($F$2:$F$7,B13)*INDEX($G$2:$G$7,B13)+INDEX($H$2:$H$7,B13))</f>
+        <f t="shared" ref="D13:D70" si="12">INT((MOD(C13,10)+2)^INDEX($F$2:$F$7,B13)*INDEX($G$2:$G$7,B13)+INDEX($H$2:$H$7,B13))</f>
         <v>860</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E70" si="6">D13/(3600)/$E$9</f>
+        <f t="shared" ref="E13:E70" si="13">D13/(3600)/$E$9</f>
         <v>0.11944444444444445</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F70" si="7">IF(C13=1,D13,F12+D13)</f>
+        <f t="shared" ref="F13:F70" si="14">IF(C13=1,D13,F12+D13)</f>
         <v>1705</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G70" si="8">F13/(3600)/$E$9</f>
+        <f t="shared" ref="G13:G70" si="15">F13/(3600)/$E$9</f>
         <v>0.23680555555555555</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" ref="H13:H44" si="9">F13/60</f>
+        <f t="shared" ref="H13:H44" si="16">F13/60</f>
         <v>28.416666666666668</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I70" si="10">F13/$M$3</f>
+        <f t="shared" ref="I13:I70" si="17">F13/$M$3</f>
         <v>85.25</v>
       </c>
       <c r="J13">
@@ -2440,11 +2493,11 @@
         <v>11</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K70" si="11">FLOOR(I13*J13,5)</f>
+        <f t="shared" ref="K13:K70" si="18">FLOOR(I13*J13,5)</f>
         <v>935</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:L70" si="12">L12+0.1</f>
+        <f t="shared" ref="L13:L70" si="19">L12+0.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M13" s="12">
@@ -2471,76 +2524,100 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <f>D13-SUM(N13:R13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>$L13*N13*N$10</f>
-        <v>0</v>
+        <f t="shared" ref="T13:T70" si="20">$L13*N$10</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U13">
-        <f>$L13*O13*O$10</f>
+        <f t="shared" ref="U13:U70" si="21">$L13*O$10</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V70" si="22">$L13*P$10</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:W70" si="23">$L13*Q$10</f>
+        <v>2.75</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13:X70" si="24">$L13*R$10</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" ref="Y13:Y70" si="25">AE13/SUM(N13:S13)</f>
+        <v>2.3197674418604652</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
         <v>387.75</v>
       </c>
-      <c r="V13">
-        <f>$L13*P13*P$10</f>
+      <c r="AB13">
+        <f t="shared" si="8"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="W13">
-        <f>$L13*Q13*Q$10</f>
+      <c r="AC13">
+        <f t="shared" si="9"/>
         <v>1168.7500000000002</v>
       </c>
-      <c r="X13">
-        <f>$L13*R13*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ref="Y13:Y70" si="13">SUM(T13:X13)</f>
-        <v>1996.5000000000002</v>
+      <c r="AD13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ref="AE13:AE70" si="26">FLOOR(SUM(Z13:AD13),5)</f>
+        <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>875</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12152777777777778</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2580</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.35833333333333334</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J70" si="14">J13*1.1</f>
+        <f t="shared" ref="J14:J70" si="27">J13*1.1</f>
         <v>12.100000000000001</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1560</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="M14" s="12">
@@ -2567,76 +2644,100 @@
         <v>600</v>
       </c>
       <c r="S14">
-        <f>D14-SUM(N14:R14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>$L14*N14*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="U14">
-        <f>$L14*O14*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.8000000000000003</v>
       </c>
       <c r="V14">
-        <f>$L14*P14*P$10</f>
+        <f t="shared" si="22"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="23"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="24"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="25"/>
+        <v>3.2228571428571429</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
         <v>660.00000000000011</v>
       </c>
-      <c r="W14">
-        <f>$L14*Q14*Q$10</f>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f>$L14*R14*R$10</f>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="10"/>
         <v>2160.0000000000005</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="13"/>
-        <v>2820.0000000000005</v>
+      <c r="AE14">
+        <f t="shared" si="26"/>
+        <v>2820</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>890</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12361111111111112</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3470</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.48194444444444445</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>57.833333333333336</v>
       </c>
       <c r="I15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>173.5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>13.310000000000002</v>
       </c>
       <c r="K15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2305</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="M15" s="12">
@@ -2663,76 +2764,100 @@
         <v>530</v>
       </c>
       <c r="S15">
-        <f>D15-SUM(N15:R15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>$L15*N15*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.3000000000000003</v>
       </c>
       <c r="U15">
-        <f>$L15*O15*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.9500000000000004</v>
       </c>
       <c r="V15">
-        <f>$L15*P15*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2.6000000000000005</v>
       </c>
       <c r="W15">
-        <f>$L15*Q15*Q$10</f>
+        <f t="shared" si="23"/>
+        <v>3.2500000000000009</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="24"/>
+        <v>3.9000000000000008</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="25"/>
+        <v>3.6348314606741572</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
         <v>1170.0000000000002</v>
       </c>
-      <c r="X15">
-        <f>$L15*R15*R$10</f>
+      <c r="AD15">
+        <f t="shared" si="10"/>
         <v>2067.0000000000005</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="13"/>
-        <v>3237.0000000000009</v>
+      <c r="AE15">
+        <f t="shared" si="26"/>
+        <v>3235</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>905</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12569444444444444</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4375</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.60763888888888884</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>72.916666666666671</v>
       </c>
       <c r="I16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>218.75</v>
       </c>
       <c r="J16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>14.641000000000004</v>
       </c>
       <c r="K16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="M16" s="12">
@@ -2759,76 +2884,100 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <f>D16-SUM(N16:R16)</f>
+        <f t="shared" si="4"/>
         <v>905</v>
       </c>
       <c r="T16">
-        <f>$L16*N16*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="U16">
-        <f>$L16*O16*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.1000000000000005</v>
       </c>
       <c r="V16">
-        <f>$L16*P16*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2.8000000000000007</v>
       </c>
       <c r="W16">
-        <f>$L16*Q16*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3.5000000000000009</v>
       </c>
       <c r="X16">
-        <f>$L16*R16*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>920</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12777777777777777</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5295</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.73541666666666672</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>88.25</v>
       </c>
       <c r="I17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>264.75</v>
       </c>
       <c r="J17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>16.105100000000004</v>
       </c>
       <c r="K17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4260</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="M17" s="12">
@@ -2855,76 +3004,100 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <f>D17-SUM(N17:R17)</f>
+        <f t="shared" si="4"/>
         <v>920</v>
       </c>
       <c r="T17">
-        <f>$L17*N17*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="U17">
-        <f>$L17*O17*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.2500000000000009</v>
       </c>
       <c r="V17">
-        <f>$L17*P17*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.0000000000000009</v>
       </c>
       <c r="W17">
-        <f>$L17*Q17*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3.7500000000000009</v>
       </c>
       <c r="X17">
-        <f>$L17*R17*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>4.5000000000000018</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>935</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12986111111111112</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6230</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.86527777777777781</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>103.83333333333333</v>
       </c>
       <c r="I18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>311.5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>17.715610000000005</v>
       </c>
       <c r="K18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>5515</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="M18" s="12">
@@ -2951,76 +3124,100 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <f>D18-SUM(N18:R18)</f>
+        <f t="shared" si="4"/>
         <v>935</v>
       </c>
       <c r="T18">
-        <f>$L18*N18*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.6000000000000005</v>
       </c>
       <c r="U18">
-        <f>$L18*O18*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.4000000000000008</v>
       </c>
       <c r="V18">
-        <f>$L18*P18*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.2000000000000011</v>
       </c>
       <c r="W18">
-        <f>$L18*Q18*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4.0000000000000018</v>
       </c>
       <c r="X18">
-        <f>$L18*R18*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>950</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.13194444444444445</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7180</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.99722222222222223</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>119.66666666666667</v>
       </c>
       <c r="I19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>359</v>
       </c>
       <c r="J19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>19.487171000000007</v>
       </c>
       <c r="K19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6995</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000006</v>
       </c>
       <c r="M19" s="12">
@@ -3047,76 +3244,100 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <f>D19-SUM(N19:R19)</f>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
       <c r="T19">
-        <f>$L19*N19*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.7000000000000006</v>
       </c>
       <c r="U19">
-        <f>$L19*O19*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.5500000000000007</v>
       </c>
       <c r="V19">
-        <f>$L19*P19*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.4000000000000012</v>
       </c>
       <c r="W19">
-        <f>$L19*Q19*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4.2500000000000018</v>
       </c>
       <c r="X19">
-        <f>$L19*R19*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>965</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.13402777777777777</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8145</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.1312500000000001</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>135.75</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>407.25</v>
       </c>
       <c r="J20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>21.43588810000001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8725</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="M20" s="12">
@@ -3143,76 +3364,100 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <f>D20-SUM(N20:R20)</f>
+        <f t="shared" si="4"/>
         <v>965</v>
       </c>
       <c r="T20">
-        <f>$L20*N20*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="U20">
-        <f>$L20*O20*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.7000000000000011</v>
       </c>
       <c r="V20">
-        <f>$L20*P20*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.6000000000000014</v>
       </c>
       <c r="W20">
-        <f>$L20*Q20*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4.5000000000000018</v>
       </c>
       <c r="X20">
-        <f>$L20*R20*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1021</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.14180555555555555</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9166</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.2730555555555556</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>152.76666666666668</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>458.3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>23.579476910000015</v>
       </c>
       <c r="K21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>10805</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.9000000000000008</v>
       </c>
       <c r="M21" s="12">
@@ -3239,76 +3484,100 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <f>D21-SUM(N21:R21)</f>
+        <f t="shared" si="4"/>
         <v>1021</v>
       </c>
       <c r="T21">
-        <f>$L21*N21*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.9000000000000008</v>
       </c>
       <c r="U21">
-        <f>$L21*O21*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2.8500000000000014</v>
       </c>
       <c r="V21">
-        <f>$L21*P21*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.8000000000000016</v>
       </c>
       <c r="W21">
-        <f>$L21*Q21*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>4.7500000000000018</v>
       </c>
       <c r="X21">
-        <f>$L21*R21*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1068</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.14833333333333334</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10234</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.4213888888888888</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>170.56666666666666</v>
       </c>
       <c r="I22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>511.7</v>
       </c>
       <c r="J22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>25.937424601000018</v>
       </c>
       <c r="K22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>13270</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="M22" s="12">
@@ -3335,76 +3604,100 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <f>D22-SUM(N22:R22)</f>
+        <f t="shared" si="4"/>
         <v>1068</v>
       </c>
       <c r="T22">
-        <f>$L22*N22*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="U22">
-        <f>$L22*O22*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.0000000000000013</v>
       </c>
       <c r="V22">
-        <f>$L22*P22*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.0000000000000018</v>
       </c>
       <c r="W22">
-        <f>$L22*Q22*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5.0000000000000018</v>
       </c>
       <c r="X22">
-        <f>$L22*R22*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1125</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.15625</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11359</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.5776388888888888</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>189.31666666666666</v>
       </c>
       <c r="I23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>567.95000000000005</v>
       </c>
       <c r="J23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>28.531167061100021</v>
       </c>
       <c r="K23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>16200</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.100000000000001</v>
       </c>
       <c r="M23" s="12">
@@ -3431,76 +3724,100 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <f>D23-SUM(N23:R23)</f>
+        <f t="shared" si="4"/>
         <v>1125</v>
       </c>
       <c r="T23">
-        <f>$L23*N23*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.100000000000001</v>
       </c>
       <c r="U23">
-        <f>$L23*O23*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.1500000000000012</v>
       </c>
       <c r="V23">
-        <f>$L23*P23*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.200000000000002</v>
       </c>
       <c r="W23">
-        <f>$L23*Q23*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5.2500000000000027</v>
       </c>
       <c r="X23">
-        <f>$L23*R23*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>6.3000000000000025</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1188</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12547</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.7426388888888888</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>209.11666666666667</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>627.35</v>
       </c>
       <c r="J24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>31.384283767210025</v>
       </c>
       <c r="K24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>19685</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.2000000000000011</v>
       </c>
       <c r="M24" s="12">
@@ -3527,76 +3844,100 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f>D24-SUM(N24:R24)</f>
+        <f t="shared" si="4"/>
         <v>1188</v>
       </c>
       <c r="T24">
-        <f>$L24*N24*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.2000000000000011</v>
       </c>
       <c r="U24">
-        <f>$L24*O24*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.3000000000000016</v>
       </c>
       <c r="V24">
-        <f>$L24*P24*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.4000000000000021</v>
       </c>
       <c r="W24">
-        <f>$L24*Q24*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5.5000000000000027</v>
       </c>
       <c r="X24">
-        <f>$L24*R24*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>6.6000000000000032</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1258</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.17472222222222222</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13805</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.9173611111111111</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>230.08333333333334</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>690.25</v>
       </c>
       <c r="J25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>34.522712143931031</v>
       </c>
       <c r="K25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>23825</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.3000000000000012</v>
       </c>
       <c r="M25" s="12">
@@ -3623,76 +3964,100 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <f>D25-SUM(N25:R25)</f>
+        <f t="shared" si="4"/>
         <v>1258</v>
       </c>
       <c r="T25">
-        <f>$L25*N25*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.3000000000000012</v>
       </c>
       <c r="U25">
-        <f>$L25*O25*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.450000000000002</v>
       </c>
       <c r="V25">
-        <f>$L25*P25*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.6000000000000023</v>
       </c>
       <c r="W25">
-        <f>$L25*Q25*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5.7500000000000027</v>
       </c>
       <c r="X25">
-        <f>$L25*R25*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>6.9000000000000039</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C26">
         <v>15</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1335</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.18541666666666667</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15140</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.1027777777777779</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>252.33333333333334</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>757</v>
       </c>
       <c r="J26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>37.974983358324138</v>
       </c>
       <c r="K26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>28745</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.4000000000000012</v>
       </c>
       <c r="M26" s="12">
@@ -3719,76 +4084,100 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <f>D26-SUM(N26:R26)</f>
+        <f t="shared" si="4"/>
         <v>1335</v>
       </c>
       <c r="T26">
-        <f>$L26*N26*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.4000000000000012</v>
       </c>
       <c r="U26">
-        <f>$L26*O26*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.6000000000000019</v>
       </c>
       <c r="V26">
-        <f>$L26*P26*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.8000000000000025</v>
       </c>
       <c r="W26">
-        <f>$L26*Q26*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6.0000000000000036</v>
       </c>
       <c r="X26">
-        <f>$L26*R26*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>7.2000000000000037</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1417</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.19680555555555557</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>16557</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.2995833333333335</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>275.95</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>827.85</v>
       </c>
       <c r="J27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>41.772481694156554</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>34580</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.5000000000000013</v>
       </c>
       <c r="M27" s="12">
@@ -3815,76 +4204,100 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <f>D27-SUM(N27:R27)</f>
+        <f t="shared" si="4"/>
         <v>1417</v>
       </c>
       <c r="T27">
-        <f>$L27*N27*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.5000000000000013</v>
       </c>
       <c r="U27">
-        <f>$L27*O27*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.7500000000000018</v>
       </c>
       <c r="V27">
-        <f>$L27*P27*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>5.0000000000000027</v>
       </c>
       <c r="W27">
-        <f>$L27*Q27*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6.2500000000000036</v>
       </c>
       <c r="X27">
-        <f>$L27*R27*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>7.5000000000000036</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C28">
         <v>17</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1505</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.20902777777777778</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>18062</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.5086111111111111</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>301.03333333333336</v>
       </c>
       <c r="I28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>903.1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>45.949729863572216</v>
       </c>
       <c r="K28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>41495</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.6000000000000014</v>
       </c>
       <c r="M28" s="12">
@@ -3911,76 +4324,100 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f>D28-SUM(N28:R28)</f>
+        <f t="shared" si="4"/>
         <v>1505</v>
       </c>
       <c r="T28">
-        <f>$L28*N28*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.6000000000000014</v>
       </c>
       <c r="U28">
-        <f>$L28*O28*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3.9000000000000021</v>
       </c>
       <c r="V28">
-        <f>$L28*P28*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>5.2000000000000028</v>
       </c>
       <c r="W28">
-        <f>$L28*Q28*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6.5000000000000036</v>
       </c>
       <c r="X28">
-        <f>$L28*R28*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1597</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.22180555555555556</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>19659</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.7304166666666667</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>327.64999999999998</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>982.95</v>
       </c>
       <c r="J29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>50.544702849929443</v>
       </c>
       <c r="K29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>49680</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.7000000000000015</v>
       </c>
       <c r="M29" s="12">
@@ -4007,76 +4444,100 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f>D29-SUM(N29:R29)</f>
+        <f t="shared" si="4"/>
         <v>1597</v>
       </c>
       <c r="T29">
-        <f>$L29*N29*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.7000000000000015</v>
       </c>
       <c r="U29">
-        <f>$L29*O29*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.0500000000000025</v>
       </c>
       <c r="V29">
-        <f>$L29*P29*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>5.400000000000003</v>
       </c>
       <c r="W29">
-        <f>$L29*Q29*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>6.7500000000000036</v>
       </c>
       <c r="X29">
-        <f>$L29*R29*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>8.100000000000005</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C30">
         <v>19</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1694</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.23527777777777778</v>
       </c>
       <c r="F30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>21353</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.9656944444444444</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>355.88333333333333</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1067.6500000000001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>55.599173134922395</v>
       </c>
       <c r="K30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>59360</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.8000000000000016</v>
       </c>
       <c r="M30" s="12">
@@ -4103,76 +4564,100 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <f>D30-SUM(N30:R30)</f>
+        <f t="shared" si="4"/>
         <v>1694</v>
       </c>
       <c r="T30">
-        <f>$L30*N30*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.8000000000000016</v>
       </c>
       <c r="U30">
-        <f>$L30*O30*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.2000000000000028</v>
       </c>
       <c r="V30">
-        <f>$L30*P30*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>5.6000000000000032</v>
       </c>
       <c r="W30">
-        <f>$L30*Q30*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7.0000000000000036</v>
       </c>
       <c r="X30">
-        <f>$L30*R30*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1778</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.24694444444444444</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23131</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.2126388888888888</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>385.51666666666665</v>
       </c>
       <c r="I31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1156.55</v>
       </c>
       <c r="J31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>61.159090448414638</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>70730</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.9000000000000017</v>
       </c>
       <c r="M31" s="12">
@@ -4199,76 +4684,100 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <f>D31-SUM(N31:R31)</f>
+        <f t="shared" si="4"/>
         <v>1778</v>
       </c>
       <c r="T31">
-        <f>$L31*N31*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.9000000000000017</v>
       </c>
       <c r="U31">
-        <f>$L31*O31*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.3500000000000023</v>
       </c>
       <c r="V31">
-        <f>$L31*P31*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>5.8000000000000034</v>
       </c>
       <c r="W31">
-        <f>$L31*Q31*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7.2500000000000044</v>
       </c>
       <c r="X31">
-        <f>$L31*R31*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>8.7000000000000046</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1849</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.25680555555555556</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24980</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.4694444444444446</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>416.33333333333331</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1249</v>
       </c>
       <c r="J32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>67.274999493256104</v>
       </c>
       <c r="K32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>84025</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.0000000000000018</v>
       </c>
       <c r="M32" s="12">
@@ -4295,76 +4804,100 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <f>D32-SUM(N32:R32)</f>
+        <f t="shared" si="4"/>
         <v>1849</v>
       </c>
       <c r="T32">
-        <f>$L32*N32*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.0000000000000018</v>
       </c>
       <c r="U32">
-        <f>$L32*O32*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.5000000000000027</v>
       </c>
       <c r="V32">
-        <f>$L32*P32*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.0000000000000036</v>
       </c>
       <c r="W32">
-        <f>$L32*Q32*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7.5000000000000044</v>
       </c>
       <c r="X32">
-        <f>$L32*R32*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>9.0000000000000053</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C33">
         <v>22</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1934</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.26861111111111113</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>26914</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.7380555555555555</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>448.56666666666666</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1345.7</v>
       </c>
       <c r="J33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>74.002499442581723</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>99585</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.1000000000000019</v>
       </c>
       <c r="M33" s="12">
@@ -4391,76 +4924,100 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <f>D33-SUM(N33:R33)</f>
+        <f t="shared" si="4"/>
         <v>1934</v>
       </c>
       <c r="T33">
-        <f>$L33*N33*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.1000000000000019</v>
       </c>
       <c r="U33">
-        <f>$L33*O33*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.650000000000003</v>
       </c>
       <c r="V33">
-        <f>$L33*P33*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.2000000000000037</v>
       </c>
       <c r="W33">
-        <f>$L33*Q33*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>7.7500000000000044</v>
       </c>
       <c r="X33">
-        <f>$L33*R33*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>9.300000000000006</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C34">
         <v>23</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2029</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.28180555555555553</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>28943</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.0198611111111111</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>482.38333333333333</v>
       </c>
       <c r="I34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1447.15</v>
       </c>
       <c r="J34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>81.402749386839901</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>117800</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.200000000000002</v>
       </c>
       <c r="M34" s="12">
@@ -4487,76 +5044,100 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <f>D34-SUM(N34:R34)</f>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="T34">
-        <f>$L34*N34*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.200000000000002</v>
       </c>
       <c r="U34">
-        <f>$L34*O34*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.8000000000000025</v>
       </c>
       <c r="V34">
-        <f>$L34*P34*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.4000000000000039</v>
       </c>
       <c r="W34">
-        <f>$L34*Q34*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>8.0000000000000053</v>
       </c>
       <c r="X34">
-        <f>$L34*R34*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>9.600000000000005</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2134</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.29638888888888887</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>31077</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.3162500000000001</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>517.95000000000005</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1553.85</v>
       </c>
       <c r="J35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>89.543024325523902</v>
       </c>
       <c r="K35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>139135</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.300000000000002</v>
       </c>
       <c r="M35" s="12">
@@ -4583,76 +5164,100 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <f>D35-SUM(N35:R35)</f>
+        <f t="shared" si="4"/>
         <v>2134</v>
       </c>
       <c r="T35">
-        <f>$L35*N35*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.300000000000002</v>
       </c>
       <c r="U35">
-        <f>$L35*O35*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>4.9500000000000028</v>
       </c>
       <c r="V35">
-        <f>$L35*P35*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.6000000000000041</v>
       </c>
       <c r="W35">
-        <f>$L35*Q35*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>8.2500000000000053</v>
       </c>
       <c r="X35">
-        <f>$L35*R35*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C36">
         <v>25</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2249</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.31236111111111109</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>33326</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.6286111111111108</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>555.43333333333328</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1666.3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>98.497326758076298</v>
       </c>
       <c r="K36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>164125</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="M36" s="12">
@@ -4679,76 +5284,100 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <f>D36-SUM(N36:R36)</f>
+        <f t="shared" si="4"/>
         <v>2249</v>
       </c>
       <c r="T36">
-        <f>$L36*N36*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.4000000000000021</v>
       </c>
       <c r="U36">
-        <f>$L36*O36*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.1000000000000032</v>
       </c>
       <c r="V36">
-        <f>$L36*P36*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.8000000000000043</v>
       </c>
       <c r="W36">
-        <f>$L36*Q36*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>8.5000000000000053</v>
       </c>
       <c r="X36">
-        <f>$L36*R36*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>10.200000000000006</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C37">
         <v>26</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2372</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.32944444444444443</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>35698</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.9580555555555552</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>594.9666666666667</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1784.9</v>
       </c>
       <c r="J37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>108.34705943388394</v>
       </c>
       <c r="K37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>193385</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.5000000000000022</v>
       </c>
       <c r="M37" s="12">
@@ -4775,76 +5404,100 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f>D37-SUM(N37:R37)</f>
+        <f t="shared" si="4"/>
         <v>2372</v>
       </c>
       <c r="T37">
-        <f>$L37*N37*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.5000000000000022</v>
       </c>
       <c r="U37">
-        <f>$L37*O37*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.2500000000000036</v>
       </c>
       <c r="V37">
-        <f>$L37*P37*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>7.0000000000000044</v>
       </c>
       <c r="W37">
-        <f>$L37*Q37*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>8.7500000000000053</v>
       </c>
       <c r="X37">
-        <f>$L37*R37*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>10.500000000000007</v>
+      </c>
+      <c r="Y37" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2504</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.3477777777777778</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>38202</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.3058333333333332</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>636.70000000000005</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1910.1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>119.18176537727234</v>
       </c>
       <c r="K38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>227645</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.6000000000000023</v>
       </c>
       <c r="M38" s="12">
@@ -4871,76 +5524,100 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <f>D38-SUM(N38:R38)</f>
+        <f t="shared" si="4"/>
         <v>2504</v>
       </c>
       <c r="T38">
-        <f>$L38*N38*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.6000000000000023</v>
       </c>
       <c r="U38">
-        <f>$L38*O38*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.4000000000000039</v>
       </c>
       <c r="V38">
-        <f>$L38*P38*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>7.2000000000000046</v>
       </c>
       <c r="W38">
-        <f>$L38*Q38*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>9.0000000000000053</v>
       </c>
       <c r="X38">
-        <f>$L38*R38*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>10.800000000000008</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C39">
         <v>28</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2642</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.36694444444444446</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>40844</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.6727777777777781</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>680.73333333333335</v>
       </c>
       <c r="I39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2042.2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>131.09994191499959</v>
       </c>
       <c r="K39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>267730</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.7000000000000024</v>
       </c>
       <c r="M39" s="12">
@@ -4967,76 +5644,100 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <f>D39-SUM(N39:R39)</f>
+        <f t="shared" si="4"/>
         <v>2642</v>
       </c>
       <c r="T39">
-        <f>$L39*N39*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.7000000000000024</v>
       </c>
       <c r="U39">
-        <f>$L39*O39*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.5500000000000034</v>
       </c>
       <c r="V39">
-        <f>$L39*P39*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>7.4000000000000048</v>
       </c>
       <c r="W39">
-        <f>$L39*Q39*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>9.2500000000000053</v>
       </c>
       <c r="X39">
-        <f>$L39*R39*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>11.100000000000007</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C40">
         <v>29</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2788</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.38722222222222225</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>43632</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6.06</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>727.2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2181.6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>144.20993610649955</v>
       </c>
       <c r="K40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>314605</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.8000000000000025</v>
       </c>
       <c r="M40" s="12">
@@ -5063,76 +5764,100 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <f>D40-SUM(N40:R40)</f>
+        <f t="shared" si="4"/>
         <v>2788</v>
       </c>
       <c r="T40">
-        <f>$L40*N40*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.8000000000000025</v>
       </c>
       <c r="U40">
-        <f>$L40*O40*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.7000000000000037</v>
       </c>
       <c r="V40">
-        <f>$L40*P40*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>7.600000000000005</v>
       </c>
       <c r="W40">
-        <f>$L40*Q40*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>9.5000000000000071</v>
       </c>
       <c r="X40">
-        <f>$L40*R40*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>11.400000000000007</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C41">
         <v>30</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2928</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.40666666666666668</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>46560</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6.4666666666666668</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>776</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2328</v>
       </c>
       <c r="J41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>158.63092971714951</v>
       </c>
       <c r="K41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>369290</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.9000000000000026</v>
       </c>
       <c r="M41" s="12">
@@ -5159,76 +5884,100 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <f>D41-SUM(N41:R41)</f>
+        <f t="shared" si="4"/>
         <v>2928</v>
       </c>
       <c r="T41">
-        <f>$L41*N41*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3.9000000000000026</v>
       </c>
       <c r="U41">
-        <f>$L41*O41*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>5.8500000000000041</v>
       </c>
       <c r="V41">
-        <f>$L41*P41*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>7.8000000000000052</v>
       </c>
       <c r="W41">
-        <f>$L41*Q41*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>9.7500000000000071</v>
       </c>
       <c r="X41">
-        <f>$L41*R41*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>11.700000000000008</v>
+      </c>
+      <c r="Y41" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C42">
         <v>31</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3103</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.4309722222222222</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>49663</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6.8976388888888893</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>827.7166666666667</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2483.15</v>
       </c>
       <c r="J42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>174.49402268886448</v>
       </c>
       <c r="K42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>433290</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.0000000000000027</v>
       </c>
       <c r="M42" s="12">
@@ -5255,76 +6004,100 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <f>D42-SUM(N42:R42)</f>
+        <f t="shared" si="4"/>
         <v>3103</v>
       </c>
       <c r="T42">
-        <f>$L42*N42*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.0000000000000027</v>
       </c>
       <c r="U42">
-        <f>$L42*O42*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.0000000000000036</v>
       </c>
       <c r="V42">
-        <f>$L42*P42*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.0000000000000053</v>
       </c>
       <c r="W42">
-        <f>$L42*Q42*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>10.000000000000007</v>
       </c>
       <c r="X42">
-        <f>$L42*R42*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>12.000000000000007</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C43">
         <v>32</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3348</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>53011</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7.3626388888888892</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>883.51666666666665</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2650.55</v>
       </c>
       <c r="J43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>191.94342495775095</v>
       </c>
       <c r="K43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>508755</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.1000000000000023</v>
       </c>
       <c r="M43" s="12">
@@ -5351,76 +6124,100 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <f>D43-SUM(N43:R43)</f>
+        <f t="shared" si="4"/>
         <v>3348</v>
       </c>
       <c r="T43">
-        <f>$L43*N43*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.1000000000000023</v>
       </c>
       <c r="U43">
-        <f>$L43*O43*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.1500000000000039</v>
       </c>
       <c r="V43">
-        <f>$L43*P43*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.2000000000000046</v>
       </c>
       <c r="W43">
-        <f>$L43*Q43*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>10.250000000000005</v>
       </c>
       <c r="X43">
-        <f>$L43*R43*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>12.300000000000008</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C44">
         <v>33</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3663</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.50875000000000004</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>56674</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7.8713888888888892</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>944.56666666666672</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2833.7</v>
       </c>
       <c r="J44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>211.13776745352607</v>
       </c>
       <c r="K44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>598300</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.200000000000002</v>
       </c>
       <c r="M44" s="12">
@@ -5447,76 +6244,100 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <f>D44-SUM(N44:R44)</f>
+        <f t="shared" ref="S44:S75" si="28">D44-SUM(N44:R44)</f>
         <v>3663</v>
       </c>
       <c r="T44">
-        <f>$L44*N44*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.200000000000002</v>
       </c>
       <c r="U44">
-        <f>$L44*O44*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.3000000000000025</v>
       </c>
       <c r="V44">
-        <f>$L44*P44*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.4000000000000039</v>
       </c>
       <c r="W44">
-        <f>$L44*Q44*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>10.500000000000005</v>
       </c>
       <c r="X44">
-        <f>$L44*R44*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>12.600000000000005</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" ref="Z44:Z70" si="29">$L44*N44*N$10</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ref="AA44:AA70" si="30">$L44*O44*O$10</f>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" ref="AB44:AB70" si="31">$L44*P44*P$10</f>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" ref="AC44:AC70" si="32">$L44*Q44*Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" ref="AD44:AD70" si="33">$L44*R44*R$10</f>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C45">
         <v>34</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4048</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.56222222222222218</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>60722</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>8.4336111111111105</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H70" si="15">F45/60</f>
+        <f t="shared" ref="H45:H70" si="34">F45/60</f>
         <v>1012.0333333333333</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3036.1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>232.25154419887869</v>
       </c>
       <c r="K45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>705135</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.3000000000000016</v>
       </c>
       <c r="M45" s="12">
@@ -5543,76 +6364,100 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <f>D45-SUM(N45:R45)</f>
+        <f t="shared" si="28"/>
         <v>4048</v>
       </c>
       <c r="T45">
-        <f>$L45*N45*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.3000000000000016</v>
       </c>
       <c r="U45">
-        <f>$L45*O45*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.4500000000000028</v>
       </c>
       <c r="V45">
-        <f>$L45*P45*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.6000000000000032</v>
       </c>
       <c r="W45">
-        <f>$L45*Q45*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>10.750000000000004</v>
       </c>
       <c r="X45">
-        <f>$L45*R45*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C46">
         <v>35</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4503</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.62541666666666662</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>65225</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>9.0590277777777786</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1087.0833333333333</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3261.25</v>
       </c>
       <c r="J46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>255.47669861876659</v>
       </c>
       <c r="K46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>833170</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.4000000000000012</v>
       </c>
       <c r="M46" s="12">
@@ -5639,76 +6484,100 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <f>D46-SUM(N46:R46)</f>
+        <f t="shared" si="28"/>
         <v>4503</v>
       </c>
       <c r="T46">
-        <f>$L46*N46*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.4000000000000012</v>
       </c>
       <c r="U46">
-        <f>$L46*O46*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.6000000000000014</v>
       </c>
       <c r="V46">
-        <f>$L46*P46*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.8000000000000025</v>
       </c>
       <c r="W46">
-        <f>$L46*Q46*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>11.000000000000004</v>
       </c>
       <c r="X46">
-        <f>$L46*R46*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="Y46" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C47">
         <v>36</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5028</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.69833333333333336</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>70253</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>9.7573611111111109</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1170.8833333333334</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3512.65</v>
       </c>
       <c r="J47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>281.02436848064326</v>
       </c>
       <c r="K47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>987140</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.5000000000000009</v>
       </c>
       <c r="M47" s="12">
@@ -5735,76 +6604,100 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <f>D47-SUM(N47:R47)</f>
+        <f t="shared" si="28"/>
         <v>5028</v>
       </c>
       <c r="T47">
-        <f>$L47*N47*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.5000000000000009</v>
       </c>
       <c r="U47">
-        <f>$L47*O47*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.7500000000000018</v>
       </c>
       <c r="V47">
-        <f>$L47*P47*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.0000000000000018</v>
       </c>
       <c r="W47">
-        <f>$L47*Q47*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>11.250000000000002</v>
       </c>
       <c r="X47">
-        <f>$L47*R47*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>13.500000000000004</v>
+      </c>
+      <c r="Y47" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C48">
         <v>37</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5623</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.78097222222222218</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>75876</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>10.538333333333334</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1264.5999999999999</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3793.8</v>
       </c>
       <c r="J48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>309.12680532870763</v>
       </c>
       <c r="K48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1172765</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="M48" s="12">
@@ -5831,76 +6724,100 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <f>D48-SUM(N48:R48)</f>
+        <f t="shared" si="28"/>
         <v>5623</v>
       </c>
       <c r="T48">
-        <f>$L48*N48*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.6000000000000005</v>
       </c>
       <c r="U48">
-        <f>$L48*O48*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6.9</v>
       </c>
       <c r="V48">
-        <f>$L48*P48*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.2000000000000011</v>
       </c>
       <c r="W48">
-        <f>$L48*Q48*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>11.500000000000002</v>
       </c>
       <c r="X48">
-        <f>$L48*R48*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="Y48" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C49">
         <v>38</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6288</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.87333333333333329</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>82164</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>11.411666666666667</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1369.4</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4108.2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>340.03948586157844</v>
       </c>
       <c r="K49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1396950</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.7</v>
       </c>
       <c r="M49" s="12">
@@ -5927,76 +6844,100 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <f>D49-SUM(N49:R49)</f>
+        <f t="shared" si="28"/>
         <v>6288</v>
       </c>
       <c r="T49">
-        <f>$L49*N49*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.7</v>
       </c>
       <c r="U49">
-        <f>$L49*O49*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.0500000000000007</v>
       </c>
       <c r="V49">
-        <f>$L49*P49*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.4</v>
       </c>
       <c r="W49">
-        <f>$L49*Q49*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>11.75</v>
       </c>
       <c r="X49">
-        <f>$L49*R49*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="Y49" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C50">
         <v>39</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7023</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.97541666666666671</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>89187</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>12.387083333333333</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1486.45</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4459.3500000000004</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>374.04343444773633</v>
       </c>
       <c r="K50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1667990</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.8</v>
       </c>
       <c r="M50" s="12">
@@ -6023,76 +6964,100 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <f>D50-SUM(N50:R50)</f>
+        <f t="shared" si="28"/>
         <v>7023</v>
       </c>
       <c r="T50">
-        <f>$L50*N50*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.8</v>
       </c>
       <c r="U50">
-        <f>$L50*O50*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.1999999999999993</v>
       </c>
       <c r="V50">
-        <f>$L50*P50*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.6</v>
       </c>
       <c r="W50">
-        <f>$L50*Q50*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="X50">
-        <f>$L50*R50*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="Y50" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C51">
         <v>40</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7183</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.99763888888888885</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>96370</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>13.384722222222223</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1606.1666666666667</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4818.5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>411.44777789250998</v>
       </c>
       <c r="K51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1982560</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.8999999999999995</v>
       </c>
       <c r="M51" s="12">
@@ -6119,76 +7084,100 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <f>D51-SUM(N51:R51)</f>
+        <f t="shared" si="28"/>
         <v>7183</v>
       </c>
       <c r="T51">
-        <f>$L51*N51*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.8999999999999995</v>
       </c>
       <c r="U51">
-        <f>$L51*O51*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.35</v>
       </c>
       <c r="V51">
-        <f>$L51*P51*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.7999999999999989</v>
       </c>
       <c r="W51">
-        <f>$L51*Q51*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>12.249999999999998</v>
       </c>
       <c r="X51">
-        <f>$L51*R51*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>14.7</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C52">
         <v>41</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7383</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.0254166666666666</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>103753</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>14.410138888888889</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1729.2166666666667</v>
       </c>
       <c r="I52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5187.6499999999996</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>452.59255568176098</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2347890</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999991</v>
       </c>
       <c r="M52" s="12">
@@ -6215,76 +7204,100 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <f>D52-SUM(N52:R52)</f>
+        <f t="shared" si="28"/>
         <v>7383</v>
       </c>
       <c r="T52">
-        <f>$L52*N52*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="U52">
-        <f>$L52*O52*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.4999999999999982</v>
       </c>
       <c r="V52">
-        <f>$L52*P52*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9.9999999999999982</v>
       </c>
       <c r="W52">
-        <f>$L52*Q52*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>12.499999999999998</v>
       </c>
       <c r="X52">
-        <f>$L52*R52*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>14.999999999999996</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C53">
         <v>42</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7663</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.0643055555555556</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>111416</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>15.474444444444444</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1856.9333333333334</v>
       </c>
       <c r="I53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5570.8</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>497.8518112499371</v>
       </c>
       <c r="K53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2773430</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.0999999999999988</v>
       </c>
       <c r="M53" s="12">
@@ -6311,76 +7324,100 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <f>D53-SUM(N53:R53)</f>
+        <f t="shared" si="28"/>
         <v>7663</v>
       </c>
       <c r="T53">
-        <f>$L53*N53*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.0999999999999988</v>
       </c>
       <c r="U53">
-        <f>$L53*O53*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.6499999999999986</v>
       </c>
       <c r="V53">
-        <f>$L53*P53*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>10.199999999999998</v>
       </c>
       <c r="W53">
-        <f>$L53*Q53*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>12.749999999999996</v>
       </c>
       <c r="X53">
-        <f>$L53*R53*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="Y53" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C54">
         <v>43</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8023</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.1143055555555557</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>119439</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>16.588750000000001</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1990.65</v>
       </c>
       <c r="I54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5971.95</v>
       </c>
       <c r="J54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>547.63699237493086</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3270460</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.1999999999999984</v>
       </c>
       <c r="M54" s="12">
@@ -6407,76 +7444,100 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <f>D54-SUM(N54:R54)</f>
+        <f t="shared" si="28"/>
         <v>8023</v>
       </c>
       <c r="T54">
-        <f>$L54*N54*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.1999999999999984</v>
       </c>
       <c r="U54">
-        <f>$L54*O54*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.7999999999999972</v>
       </c>
       <c r="V54">
-        <f>$L54*P54*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>10.399999999999997</v>
       </c>
       <c r="W54">
-        <f>$L54*Q54*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>12.999999999999996</v>
       </c>
       <c r="X54">
-        <f>$L54*R54*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>15.599999999999994</v>
+      </c>
+      <c r="Y54" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C55">
         <v>44</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8463</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.1754166666666668</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>127902</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>17.764166666666668</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2131.6999999999998</v>
       </c>
       <c r="I55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6395.1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>602.400691612424</v>
       </c>
       <c r="K55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3852410</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.299999999999998</v>
       </c>
       <c r="M55" s="12">
@@ -6503,76 +7564,100 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <f>D55-SUM(N55:R55)</f>
+        <f t="shared" si="28"/>
         <v>8463</v>
       </c>
       <c r="T55">
-        <f>$L55*N55*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.299999999999998</v>
       </c>
       <c r="U55">
-        <f>$L55*O55*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7.9499999999999975</v>
       </c>
       <c r="V55">
-        <f>$L55*P55*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>10.599999999999996</v>
       </c>
       <c r="W55">
-        <f>$L55*Q55*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>13.249999999999995</v>
       </c>
       <c r="X55">
-        <f>$L55*R55*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>15.899999999999995</v>
+      </c>
+      <c r="Y55" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C56">
         <v>45</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8983</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.247638888888889</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>136885</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>19.011805555555554</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2281.4166666666665</v>
       </c>
       <c r="I56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6844.25</v>
       </c>
       <c r="J56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>662.64076077366644</v>
       </c>
       <c r="K56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4535275</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.3999999999999977</v>
       </c>
       <c r="M56" s="12">
@@ -6599,76 +7684,100 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <f>D56-SUM(N56:R56)</f>
+        <f t="shared" si="28"/>
         <v>8983</v>
       </c>
       <c r="T56">
-        <f>$L56*N56*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.3999999999999977</v>
       </c>
       <c r="U56">
-        <f>$L56*O56*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.0999999999999961</v>
       </c>
       <c r="V56">
-        <f>$L56*P56*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>10.799999999999995</v>
       </c>
       <c r="W56">
-        <f>$L56*Q56*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>13.499999999999995</v>
       </c>
       <c r="X56">
-        <f>$L56*R56*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>16.199999999999992</v>
+      </c>
+      <c r="Y56" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C57">
         <v>46</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9583</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3309722222222222</v>
       </c>
       <c r="F57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>146468</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>20.342777777777776</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2441.1333333333332</v>
       </c>
       <c r="I57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7323.4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>728.90483685103311</v>
       </c>
       <c r="K57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>5338060</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.4999999999999973</v>
       </c>
       <c r="M57" s="12">
@@ -6695,76 +7804,100 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <f>D57-SUM(N57:R57)</f>
+        <f t="shared" si="28"/>
         <v>9583</v>
       </c>
       <c r="T57">
-        <f>$L57*N57*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.4999999999999973</v>
       </c>
       <c r="U57">
-        <f>$L57*O57*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.2499999999999964</v>
       </c>
       <c r="V57">
-        <f>$L57*P57*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>10.999999999999995</v>
       </c>
       <c r="W57">
-        <f>$L57*Q57*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>13.749999999999993</v>
       </c>
       <c r="X57">
-        <f>$L57*R57*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>16.499999999999993</v>
+      </c>
+      <c r="Y57" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C58">
         <v>47</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>10263</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.4254166666666668</v>
       </c>
       <c r="F58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>156731</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>21.768194444444443</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2612.1833333333334</v>
       </c>
       <c r="I58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7836.55</v>
       </c>
       <c r="J58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>801.7953205361365</v>
       </c>
       <c r="K58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6283305</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.599999999999997</v>
       </c>
       <c r="M58" s="12">
@@ -6791,76 +7924,100 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <f>D58-SUM(N58:R58)</f>
+        <f t="shared" si="28"/>
         <v>10263</v>
       </c>
       <c r="T58">
-        <f>$L58*N58*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.599999999999997</v>
       </c>
       <c r="U58">
-        <f>$L58*O58*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.399999999999995</v>
       </c>
       <c r="V58">
-        <f>$L58*P58*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11.199999999999994</v>
       </c>
       <c r="W58">
-        <f>$L58*Q58*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>13.999999999999993</v>
       </c>
       <c r="X58">
-        <f>$L58*R58*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>16.79999999999999</v>
+      </c>
+      <c r="Y58" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C59">
         <v>48</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>11023</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5309722222222222</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>167754</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.299166666666668</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2795.9</v>
       </c>
       <c r="I59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8387.7000000000007</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>881.97485258975018</v>
       </c>
       <c r="K59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7397740</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.6999999999999966</v>
       </c>
       <c r="M59" s="12">
@@ -6887,76 +8044,100 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <f>D59-SUM(N59:R59)</f>
+        <f t="shared" si="28"/>
         <v>11023</v>
       </c>
       <c r="T59">
-        <f>$L59*N59*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.6999999999999966</v>
       </c>
       <c r="U59">
-        <f>$L59*O59*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.5499999999999954</v>
       </c>
       <c r="V59">
-        <f>$L59*P59*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11.399999999999993</v>
       </c>
       <c r="W59">
-        <f>$L59*Q59*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>14.249999999999991</v>
       </c>
       <c r="X59">
-        <f>$L59*R59*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>17.099999999999991</v>
+      </c>
+      <c r="Y59" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C60">
         <v>49</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>11863</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.6476388888888889</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>179617</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>24.946805555555557</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2993.6166666666668</v>
       </c>
       <c r="I60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8980.85</v>
       </c>
       <c r="J60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>970.17233784872531</v>
       </c>
       <c r="K60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8712970</v>
       </c>
       <c r="L60" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.7999999999999963</v>
       </c>
       <c r="M60" s="12">
@@ -6983,76 +8164,100 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <f>D60-SUM(N60:R60)</f>
+        <f t="shared" si="28"/>
         <v>11863</v>
       </c>
       <c r="T60">
-        <f>$L60*N60*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.7999999999999963</v>
       </c>
       <c r="U60">
-        <f>$L60*O60*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.699999999999994</v>
       </c>
       <c r="V60">
-        <f>$L60*P60*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11.599999999999993</v>
       </c>
       <c r="W60">
-        <f>$L60*Q60*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>14.499999999999991</v>
       </c>
       <c r="X60">
-        <f>$L60*R60*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>17.399999999999988</v>
+      </c>
+      <c r="Y60" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C61">
         <v>50</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12043</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.6726388888888888</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>191660</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.619444444444444</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>3194.3333333333335</v>
       </c>
       <c r="I61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9583</v>
       </c>
       <c r="J61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1067.189571633598</v>
       </c>
       <c r="K61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>10226875</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.8999999999999959</v>
       </c>
       <c r="M61" s="12">
@@ -7079,76 +8284,100 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <f>D61-SUM(N61:R61)</f>
+        <f t="shared" si="28"/>
         <v>12043</v>
       </c>
       <c r="T61">
-        <f>$L61*N61*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.8999999999999959</v>
       </c>
       <c r="U61">
-        <f>$L61*O61*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.8499999999999943</v>
       </c>
       <c r="V61">
-        <f>$L61*P61*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11.799999999999992</v>
       </c>
       <c r="W61">
-        <f>$L61*Q61*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>14.749999999999989</v>
       </c>
       <c r="X61">
-        <f>$L61*R61*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>17.699999999999989</v>
+      </c>
+      <c r="Y61" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C62">
         <v>51</v>
       </c>
       <c r="D62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12268</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.7038888888888888</v>
       </c>
       <c r="F62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>203928</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>28.323333333333334</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>3398.8</v>
       </c>
       <c r="I62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>10196.4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1173.9085287969579</v>
       </c>
       <c r="K62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>11969640</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.9999999999999956</v>
       </c>
       <c r="M62" s="12">
@@ -7175,76 +8404,100 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <f>D62-SUM(N62:R62)</f>
+        <f t="shared" si="28"/>
         <v>12268</v>
       </c>
       <c r="T62">
-        <f>$L62*N62*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5.9999999999999956</v>
       </c>
       <c r="U62">
-        <f>$L62*O62*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8.9999999999999929</v>
       </c>
       <c r="V62">
-        <f>$L62*P62*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>11.999999999999991</v>
       </c>
       <c r="W62">
-        <f>$L62*Q62*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>14.999999999999989</v>
       </c>
       <c r="X62">
-        <f>$L62*R62*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>17.999999999999986</v>
+      </c>
+      <c r="Y62" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C63">
         <v>52</v>
       </c>
       <c r="D63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12583</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.747638888888889</v>
       </c>
       <c r="F63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>216511</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>30.070972222222224</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>3608.5166666666669</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>10825.55</v>
       </c>
       <c r="J63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1291.2993816766536</v>
       </c>
       <c r="K63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>13979025</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.0999999999999952</v>
       </c>
       <c r="M63" s="12">
@@ -7271,76 +8524,100 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <f>D63-SUM(N63:R63)</f>
+        <f t="shared" si="28"/>
         <v>12583</v>
       </c>
       <c r="T63">
-        <f>$L63*N63*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.0999999999999952</v>
       </c>
       <c r="U63">
-        <f>$L63*O63*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.1499999999999932</v>
       </c>
       <c r="V63">
-        <f>$L63*P63*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>12.19999999999999</v>
       </c>
       <c r="W63">
-        <f>$L63*Q63*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>15.249999999999988</v>
       </c>
       <c r="X63">
-        <f>$L63*R63*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>18.299999999999986</v>
+      </c>
+      <c r="Y63" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C64">
         <v>53</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12988</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.8038888888888889</v>
       </c>
       <c r="F64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>229499</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>31.874861111111112</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>3824.9833333333331</v>
       </c>
       <c r="I64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>11474.95</v>
       </c>
       <c r="J64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1420.429319844319</v>
       </c>
       <c r="K64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>16299355</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.1999999999999948</v>
       </c>
       <c r="M64" s="12">
@@ -7367,76 +8644,100 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <f>D64-SUM(N64:R64)</f>
+        <f t="shared" si="28"/>
         <v>12988</v>
       </c>
       <c r="T64">
-        <f>$L64*N64*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.1999999999999948</v>
       </c>
       <c r="U64">
-        <f>$L64*O64*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.2999999999999918</v>
       </c>
       <c r="V64">
-        <f>$L64*P64*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>12.39999999999999</v>
       </c>
       <c r="W64">
-        <f>$L64*Q64*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>15.499999999999988</v>
       </c>
       <c r="X64">
-        <f>$L64*R64*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>18.599999999999984</v>
+      </c>
+      <c r="Y64" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C65">
         <v>54</v>
       </c>
       <c r="D65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>13483</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.872638888888889</v>
       </c>
       <c r="F65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>242982</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>33.747500000000002</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>4049.7</v>
       </c>
       <c r="I65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>12149.1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1562.472251828751</v>
       </c>
       <c r="K65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>18982630</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.2999999999999945</v>
       </c>
       <c r="M65" s="12">
@@ -7463,76 +8764,100 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <f>D65-SUM(N65:R65)</f>
+        <f t="shared" si="28"/>
         <v>13483</v>
       </c>
       <c r="T65">
-        <f>$L65*N65*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.2999999999999945</v>
       </c>
       <c r="U65">
-        <f>$L65*O65*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.4499999999999922</v>
       </c>
       <c r="V65">
-        <f>$L65*P65*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>12.599999999999989</v>
       </c>
       <c r="W65">
-        <f>$L65*Q65*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>15.749999999999986</v>
       </c>
       <c r="X65">
-        <f>$L65*R65*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>18.899999999999984</v>
+      </c>
+      <c r="Y65" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C66">
         <v>55</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14068</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.9538888888888888</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>257050</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>35.701388888888886</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>4284.166666666667</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>12852.5</v>
       </c>
       <c r="J66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1718.7194770116264</v>
       </c>
       <c r="K66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>22089840</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.3999999999999941</v>
       </c>
       <c r="M66" s="12">
@@ -7559,76 +8884,100 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <f>D66-SUM(N66:R66)</f>
+        <f t="shared" si="28"/>
         <v>14068</v>
       </c>
       <c r="T66">
-        <f>$L66*N66*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.3999999999999941</v>
       </c>
       <c r="U66">
-        <f>$L66*O66*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.5999999999999908</v>
       </c>
       <c r="V66">
-        <f>$L66*P66*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>12.799999999999988</v>
       </c>
       <c r="W66">
-        <f>$L66*Q66*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>15.999999999999986</v>
       </c>
       <c r="X66">
-        <f>$L66*R66*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>19.199999999999982</v>
+      </c>
+      <c r="Y66" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C67">
         <v>56</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14743</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.0476388888888888</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>271793</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>37.749027777777776</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>4529.8833333333332</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>13589.65</v>
       </c>
       <c r="J67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1890.5914247127891</v>
       </c>
       <c r="K67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>25692475</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.4999999999999938</v>
       </c>
       <c r="M67" s="12">
@@ -7655,76 +9004,100 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <f>D67-SUM(N67:R67)</f>
+        <f t="shared" si="28"/>
         <v>14743</v>
       </c>
       <c r="T67">
-        <f>$L67*N67*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.4999999999999938</v>
       </c>
       <c r="U67">
-        <f>$L67*O67*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.7499999999999911</v>
       </c>
       <c r="V67">
-        <f>$L67*P67*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>12.999999999999988</v>
       </c>
       <c r="W67">
-        <f>$L67*Q67*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>16.249999999999986</v>
       </c>
       <c r="X67">
-        <f>$L67*R67*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>19.499999999999982</v>
+      </c>
+      <c r="Y67" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C68">
         <v>57</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>15508</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.153888888888889</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>287301</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>39.90291666666667</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>4788.3500000000004</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>14365.05</v>
       </c>
       <c r="J68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2079.6505671840682</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>29874280</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.5999999999999934</v>
       </c>
       <c r="M68" s="12">
@@ -7751,76 +9124,100 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <f>D68-SUM(N68:R68)</f>
+        <f t="shared" si="28"/>
         <v>15508</v>
       </c>
       <c r="T68">
-        <f>$L68*N68*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.5999999999999934</v>
       </c>
       <c r="U68">
-        <f>$L68*O68*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>9.8999999999999897</v>
       </c>
       <c r="V68">
-        <f>$L68*P68*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>13.199999999999987</v>
       </c>
       <c r="W68">
-        <f>$L68*Q68*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>16.499999999999982</v>
       </c>
       <c r="X68">
-        <f>$L68*R68*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>19.799999999999979</v>
+      </c>
+      <c r="Y68" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C69">
         <v>58</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>16363</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.2726388888888889</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>303664</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>42.175555555555555</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>5061.0666666666666</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>15183.2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2287.6156239024754</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>34733325</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.6999999999999931</v>
       </c>
       <c r="M69" s="12">
@@ -7847,76 +9244,100 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <f>D69-SUM(N69:R69)</f>
+        <f t="shared" si="28"/>
         <v>16363</v>
       </c>
       <c r="T69">
-        <f>$L69*N69*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.6999999999999931</v>
       </c>
       <c r="U69">
-        <f>$L69*O69*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>10.04999999999999</v>
       </c>
       <c r="V69">
-        <f>$L69*P69*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>13.399999999999986</v>
       </c>
       <c r="W69">
-        <f>$L69*Q69*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>16.749999999999982</v>
       </c>
       <c r="X69">
-        <f>$L69*R69*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>20.09999999999998</v>
+      </c>
+      <c r="Y69" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C70">
         <v>59</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>17308</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.403888888888889</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>320972</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>44.579444444444448</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>5349.5333333333338</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>16048.6</v>
       </c>
       <c r="J70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2516.3771862927233</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>40384330</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.7999999999999927</v>
       </c>
       <c r="M70" s="12">
@@ -7943,31 +9364,55 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <f>D70-SUM(N70:R70)</f>
+        <f t="shared" si="28"/>
         <v>17308</v>
       </c>
       <c r="T70">
-        <f>$L70*N70*N$10</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.7999999999999927</v>
       </c>
       <c r="U70">
-        <f>$L70*O70*O$10</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>10.199999999999989</v>
       </c>
       <c r="V70">
-        <f>$L70*P70*P$10</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>13.599999999999985</v>
       </c>
       <c r="W70">
-        <f>$L70*Q70*Q$10</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>16.999999999999982</v>
       </c>
       <c r="X70">
-        <f>$L70*R70*R$10</f>
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
+        <v>20.399999999999977</v>
+      </c>
+      <c r="Y70" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>

--- a/Design/s_数值设定numerical/0_数值总表.xlsx
+++ b/Design/s_数值设定numerical/0_数值总表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6C3CA-D5F0-4203-817A-ADB25EC34CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20625" yWindow="5190" windowWidth="28800" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="等级经验" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>等级下限</t>
   </si>
@@ -54,6 +40,12 @@
   </si>
   <si>
     <t>平均每天</t>
+  </si>
+  <si>
+    <t>击杀怪物耗时s</t>
+  </si>
+  <si>
+    <t>击杀怪物经验值</t>
   </si>
   <si>
     <t>合计</t>
@@ -83,7 +75,40 @@
     <t>累积min</t>
   </si>
   <si>
+    <t>击杀怪物数量</t>
+  </si>
+  <si>
+    <t>所需经验</t>
+  </si>
+  <si>
     <t>基础经验效率</t>
+  </si>
+  <si>
+    <t>任务时间占比</t>
+  </si>
+  <si>
+    <t>对话&amp;送货</t>
+  </si>
+  <si>
+    <t>杀怪（或收集道具）</t>
+  </si>
+  <si>
+    <t>杀BOSS怪</t>
+  </si>
+  <si>
+    <t>副本杀怪</t>
+  </si>
+  <si>
+    <t>副本杀BOSS</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>实际效率</t>
+  </si>
+  <si>
+    <t>实际经验值</t>
   </si>
   <si>
     <t>移动速度min秒</t>
@@ -131,67 +156,85 @@
     <t>每族村镇</t>
   </si>
   <si>
-    <t>击杀怪物耗时s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>技能1</t>
   </si>
   <si>
-    <t>击杀怪物数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>技能2</t>
   </si>
   <si>
-    <t>击杀怪物经验值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>技能3
+（防御技能）</t>
   </si>
   <si>
-    <t>所需经验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>技能4</t>
   </si>
   <si>
-    <t>对话&amp;送货</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>剑盾</t>
   </si>
   <si>
-    <t>杀怪（或收集道具）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>盾反</t>
   </si>
   <si>
-    <t>杀BOSS怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>双手</t>
   </si>
   <si>
-    <t>副本杀怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>双持</t>
   </si>
   <si>
-    <t>副本杀BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>法杖</t>
   </si>
   <si>
-    <t>剩余时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际经验值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务时间占比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际效率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>弓箭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,23 +260,124 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,21 +385,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +416,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,13 +611,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,16 +872,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -314,106 +887,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="任务类型"/>
@@ -1679,7 +2236,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1952,19 +2509,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
-      <selection activeCell="AE1" sqref="C1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="7" width="7.5" customWidth="1"/>
@@ -1974,30 +2531,30 @@
     <col min="26" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:10">
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:13">
       <c r="C2">
         <v>1</v>
       </c>
@@ -2016,23 +2573,23 @@
       <c r="H2">
         <v>800</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <f>IF(C2=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C2)-I1)</f>
-        <v>1.1312500000000001</v>
+        <v>1.13125</v>
       </c>
       <c r="J2" s="3">
         <f>10/I2</f>
-        <v>8.8397790055248606</v>
+        <v>8.83977900552486</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C2)</f>
         <v>965</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>32</v>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:13">
       <c r="C3">
         <v>2</v>
       </c>
@@ -2052,23 +2609,23 @@
         <f>K2</f>
         <v>965</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I7" si="0">IF(C3=1,_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3),_xlfn.MAXIFS($G$12:$G$70,$B$12:$B$70,C3)-I2)</f>
-        <v>1.8344444444444443</v>
+        <v>1.83444444444444</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J7" si="1">10/I3</f>
-        <v>5.4512416717141132</v>
+        <v>5.45124167171411</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="2">_xlfn.MAXIFS($D$12:$D$70,$B$12:$B$70,C3)</f>
         <v>1694</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13">
       <c r="C4">
         <v>3</v>
       </c>
@@ -2088,23 +2645,23 @@
         <f t="shared" ref="H4:H7" si="3">K3</f>
         <v>1694</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>4.2255555555555553</v>
+        <v>4.22555555555556</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>2.3665527215356299</v>
+        <v>2.36655272153563</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>34</v>
+      <c r="M4" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13">
       <c r="C5">
         <v>4</v>
       </c>
@@ -2124,13 +2681,13 @@
         <f t="shared" si="3"/>
         <v>2788</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>8.1615277777777777</v>
+        <v>8.16152777777778</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>1.2252607933563637</v>
+        <v>1.22526079335636</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
@@ -2140,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11">
       <c r="C6">
         <v>5</v>
       </c>
@@ -2160,20 +2717,20 @@
         <f t="shared" si="3"/>
         <v>7023</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>16.785277777777779</v>
+        <v>16.7852777777778</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>0.59576017343240606</v>
+        <v>0.595760173432406</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
         <v>11863</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:11">
       <c r="C7">
         <v>6</v>
       </c>
@@ -2193,37 +2750,37 @@
         <f t="shared" si="3"/>
         <v>11863</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>27.794166666666669</v>
+        <v>27.7941666666667</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>0.35978772524210711</v>
+        <v>0.359787725242107</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
         <v>17308</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="8:10">
       <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5">
         <f>SUM(I2:I7)</f>
-        <v>59.932222222222222</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>59.9322222222222</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="5:5">
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="12:18">
       <c r="L10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <f>INDEX([1]任务类型!$C$2:$C$6,MATCH(N11,[1]任务类型!$B$2:$B$6,))</f>
@@ -2246,99 +2803,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:31" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="27" spans="2:31">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31">
       <c r="B12">
         <f>ROUNDUP(C12/9.9,)</f>
         <v>1</v>
@@ -2352,7 +2909,7 @@
       </c>
       <c r="E12" s="3">
         <f>D12/(3600)/$E$9</f>
-        <v>0.11736111111111111</v>
+        <v>0.117361111111111</v>
       </c>
       <c r="F12">
         <f>IF(C12=1,D12,F11+D12)</f>
@@ -2360,11 +2917,11 @@
       </c>
       <c r="G12" s="3">
         <f>F12/(3600)/$E$9</f>
-        <v>0.11736111111111111</v>
-      </c>
-      <c r="H12" s="4">
+        <v>0.117361111111111</v>
+      </c>
+      <c r="H12" s="5">
         <f>F12/60</f>
-        <v>14.083333333333334</v>
+        <v>14.0833333333333</v>
       </c>
       <c r="I12">
         <f>F12/$M$3</f>
@@ -2429,7 +2986,7 @@
       </c>
       <c r="Y12" s="3">
         <f>AE12/SUM(N12:S12)</f>
-        <v>1.2840236686390532</v>
+        <v>1.28402366863905</v>
       </c>
       <c r="Z12">
         <f t="shared" ref="Z12:Z43" si="6">$L12*N12*N$10</f>
@@ -2456,7 +3013,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31">
       <c r="B13">
         <f t="shared" ref="B13:B70" si="11">ROUNDUP(C13/9.9,)</f>
         <v>1</v>
@@ -2470,7 +3027,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13:E70" si="13">D13/(3600)/$E$9</f>
-        <v>0.11944444444444445</v>
+        <v>0.119444444444444</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F70" si="14">IF(C13=1,D13,F12+D13)</f>
@@ -2478,11 +3035,11 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ref="G13:G70" si="15">F13/(3600)/$E$9</f>
-        <v>0.23680555555555555</v>
-      </c>
-      <c r="H13" s="4">
+        <v>0.236805555555556</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" ref="H13:H44" si="16">F13/60</f>
-        <v>28.416666666666668</v>
+        <v>28.4166666666667</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13:I70" si="17">F13/$M$3</f>
@@ -2496,9 +3053,9 @@
         <f t="shared" ref="K13:K70" si="18">FLOOR(I13*J13,5)</f>
         <v>935</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="13">
         <f t="shared" ref="L13:L70" si="19">L12+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M13" s="12">
         <v>1</v>
@@ -2529,15 +3086,15 @@
       </c>
       <c r="T13">
         <f t="shared" ref="T13:T70" si="20">$L13*N$10</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U70" si="21">$L13*O$10</f>
-        <v>1.6500000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13:V70" si="22">$L13*P$10</f>
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
         <f t="shared" ref="W13:W70" si="23">$L13*Q$10</f>
@@ -2545,11 +3102,11 @@
       </c>
       <c r="X13">
         <f t="shared" ref="X13:X70" si="24">$L13*R$10</f>
-        <v>3.3000000000000003</v>
+        <v>3.3</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ref="Y13:Y70" si="25">AE13/SUM(N13:S13)</f>
-        <v>2.3197674418604652</v>
+        <v>2.31976744186047</v>
       </c>
       <c r="Z13">
         <f t="shared" si="6"/>
@@ -2561,11 +3118,11 @@
       </c>
       <c r="AB13">
         <f t="shared" si="8"/>
-        <v>440.00000000000006</v>
+        <v>440</v>
       </c>
       <c r="AC13">
         <f t="shared" si="9"/>
-        <v>1168.7500000000002</v>
+        <v>1168.75</v>
       </c>
       <c r="AD13">
         <f t="shared" si="10"/>
@@ -2576,7 +3133,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31">
       <c r="B14">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -2590,7 +3147,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="13"/>
-        <v>0.12152777777777778</v>
+        <v>0.121527777777778</v>
       </c>
       <c r="F14">
         <f t="shared" si="14"/>
@@ -2598,9 +3155,9 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="15"/>
-        <v>0.35833333333333334</v>
-      </c>
-      <c r="H14" s="4">
+        <v>0.358333333333333</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
@@ -2610,15 +3167,15 @@
       </c>
       <c r="J14">
         <f t="shared" ref="J14:J70" si="27">J13*1.1</f>
-        <v>12.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="K14">
         <f t="shared" si="18"/>
         <v>1560</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="13">
         <f t="shared" si="19"/>
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="M14" s="12">
         <v>1</v>
@@ -2649,27 +3206,27 @@
       </c>
       <c r="T14">
         <f t="shared" si="20"/>
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="U14">
         <f t="shared" si="21"/>
-        <v>1.8000000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
         <f t="shared" si="22"/>
-        <v>2.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="W14">
         <f t="shared" si="23"/>
-        <v>3.0000000000000004</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <f t="shared" si="24"/>
-        <v>3.6000000000000005</v>
+        <v>3.6</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="25"/>
-        <v>3.2228571428571429</v>
+        <v>3.22285714285714</v>
       </c>
       <c r="Z14">
         <f t="shared" si="6"/>
@@ -2681,7 +3238,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="8"/>
-        <v>660.00000000000011</v>
+        <v>660</v>
       </c>
       <c r="AC14">
         <f t="shared" si="9"/>
@@ -2689,14 +3246,14 @@
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>2160.0000000000005</v>
+        <v>2160</v>
       </c>
       <c r="AE14">
         <f t="shared" si="26"/>
         <v>2820</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31">
       <c r="B15">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -2710,7 +3267,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="13"/>
-        <v>0.12361111111111112</v>
+        <v>0.123611111111111</v>
       </c>
       <c r="F15">
         <f t="shared" si="14"/>
@@ -2718,11 +3275,11 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="15"/>
-        <v>0.48194444444444445</v>
-      </c>
-      <c r="H15" s="4">
+        <v>0.481944444444444</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="16"/>
-        <v>57.833333333333336</v>
+        <v>57.8333333333333</v>
       </c>
       <c r="I15">
         <f t="shared" si="17"/>
@@ -2730,15 +3287,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="27"/>
-        <v>13.310000000000002</v>
+        <v>13.31</v>
       </c>
       <c r="K15">
         <f t="shared" si="18"/>
         <v>2305</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="13">
         <f t="shared" si="19"/>
-        <v>1.3000000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="M15" s="12">
         <v>1</v>
@@ -2769,27 +3326,27 @@
       </c>
       <c r="T15">
         <f t="shared" si="20"/>
-        <v>1.3000000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="U15">
         <f t="shared" si="21"/>
-        <v>1.9500000000000004</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
         <f t="shared" si="22"/>
-        <v>2.6000000000000005</v>
+        <v>2.6</v>
       </c>
       <c r="W15">
         <f t="shared" si="23"/>
-        <v>3.2500000000000009</v>
+        <v>3.25</v>
       </c>
       <c r="X15">
         <f t="shared" si="24"/>
-        <v>3.9000000000000008</v>
+        <v>3.9</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" si="25"/>
-        <v>3.6348314606741572</v>
+        <v>3.63483146067416</v>
       </c>
       <c r="Z15">
         <f t="shared" si="6"/>
@@ -2805,18 +3362,18 @@
       </c>
       <c r="AC15">
         <f t="shared" si="9"/>
-        <v>1170.0000000000002</v>
+        <v>1170</v>
       </c>
       <c r="AD15">
         <f t="shared" si="10"/>
-        <v>2067.0000000000005</v>
+        <v>2067</v>
       </c>
       <c r="AE15">
         <f t="shared" si="26"/>
         <v>3235</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:31">
       <c r="B16">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -2830,7 +3387,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="13"/>
-        <v>0.12569444444444444</v>
+        <v>0.125694444444444</v>
       </c>
       <c r="F16">
         <f t="shared" si="14"/>
@@ -2838,11 +3395,11 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="15"/>
-        <v>0.60763888888888884</v>
-      </c>
-      <c r="H16" s="4">
+        <v>0.607638888888889</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="16"/>
-        <v>72.916666666666671</v>
+        <v>72.9166666666667</v>
       </c>
       <c r="I16">
         <f t="shared" si="17"/>
@@ -2850,15 +3407,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="27"/>
-        <v>14.641000000000004</v>
+        <v>14.641</v>
       </c>
       <c r="K16">
         <f t="shared" si="18"/>
         <v>3200</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="13">
         <f t="shared" si="19"/>
-        <v>1.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="M16" s="12">
         <v>1</v>
@@ -2889,23 +3446,23 @@
       </c>
       <c r="T16">
         <f t="shared" si="20"/>
-        <v>1.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="U16">
         <f t="shared" si="21"/>
-        <v>2.1000000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="V16">
         <f t="shared" si="22"/>
-        <v>2.8000000000000007</v>
+        <v>2.8</v>
       </c>
       <c r="W16">
         <f t="shared" si="23"/>
-        <v>3.5000000000000009</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
         <f t="shared" si="24"/>
-        <v>4.2000000000000011</v>
+        <v>4.2</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="25"/>
@@ -2936,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:31">
       <c r="B17">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -2950,7 +3507,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="13"/>
-        <v>0.12777777777777777</v>
+        <v>0.127777777777778</v>
       </c>
       <c r="F17">
         <f t="shared" si="14"/>
@@ -2958,9 +3515,9 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="15"/>
-        <v>0.73541666666666672</v>
-      </c>
-      <c r="H17" s="4">
+        <v>0.735416666666667</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="16"/>
         <v>88.25</v>
       </c>
@@ -2970,15 +3527,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="27"/>
-        <v>16.105100000000004</v>
+        <v>16.1051</v>
       </c>
       <c r="K17">
         <f t="shared" si="18"/>
         <v>4260</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="13">
         <f t="shared" si="19"/>
-        <v>1.5000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="M17" s="12">
         <v>1</v>
@@ -3009,23 +3566,23 @@
       </c>
       <c r="T17">
         <f t="shared" si="20"/>
-        <v>1.5000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="U17">
         <f t="shared" si="21"/>
-        <v>2.2500000000000009</v>
+        <v>2.25</v>
       </c>
       <c r="V17">
         <f t="shared" si="22"/>
-        <v>3.0000000000000009</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <f t="shared" si="23"/>
-        <v>3.7500000000000009</v>
+        <v>3.75</v>
       </c>
       <c r="X17">
         <f t="shared" si="24"/>
-        <v>4.5000000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="25"/>
@@ -3056,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:31">
       <c r="B18">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -3070,7 +3627,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="13"/>
-        <v>0.12986111111111112</v>
+        <v>0.129861111111111</v>
       </c>
       <c r="F18">
         <f t="shared" si="14"/>
@@ -3078,11 +3635,11 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="15"/>
-        <v>0.86527777777777781</v>
-      </c>
-      <c r="H18" s="4">
+        <v>0.865277777777778</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="16"/>
-        <v>103.83333333333333</v>
+        <v>103.833333333333</v>
       </c>
       <c r="I18">
         <f t="shared" si="17"/>
@@ -3090,15 +3647,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="27"/>
-        <v>17.715610000000005</v>
+        <v>17.71561</v>
       </c>
       <c r="K18">
         <f t="shared" si="18"/>
         <v>5515</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="13">
         <f t="shared" si="19"/>
-        <v>1.6000000000000005</v>
+        <v>1.6</v>
       </c>
       <c r="M18" s="12">
         <v>1</v>
@@ -3129,23 +3686,23 @@
       </c>
       <c r="T18">
         <f t="shared" si="20"/>
-        <v>1.6000000000000005</v>
+        <v>1.6</v>
       </c>
       <c r="U18">
         <f t="shared" si="21"/>
-        <v>2.4000000000000008</v>
+        <v>2.4</v>
       </c>
       <c r="V18">
         <f t="shared" si="22"/>
-        <v>3.2000000000000011</v>
+        <v>3.2</v>
       </c>
       <c r="W18">
         <f t="shared" si="23"/>
-        <v>4.0000000000000018</v>
+        <v>4</v>
       </c>
       <c r="X18">
         <f t="shared" si="24"/>
-        <v>4.8000000000000016</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="25"/>
@@ -3176,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:31">
       <c r="B19">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -3190,7 +3747,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="13"/>
-        <v>0.13194444444444445</v>
+        <v>0.131944444444444</v>
       </c>
       <c r="F19">
         <f t="shared" si="14"/>
@@ -3198,11 +3755,11 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="15"/>
-        <v>0.99722222222222223</v>
-      </c>
-      <c r="H19" s="4">
+        <v>0.997222222222222</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="16"/>
-        <v>119.66666666666667</v>
+        <v>119.666666666667</v>
       </c>
       <c r="I19">
         <f t="shared" si="17"/>
@@ -3210,15 +3767,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="27"/>
-        <v>19.487171000000007</v>
+        <v>19.487171</v>
       </c>
       <c r="K19">
         <f t="shared" si="18"/>
         <v>6995</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="13">
         <f t="shared" si="19"/>
-        <v>1.7000000000000006</v>
+        <v>1.7</v>
       </c>
       <c r="M19" s="12">
         <v>1</v>
@@ -3249,23 +3806,23 @@
       </c>
       <c r="T19">
         <f t="shared" si="20"/>
-        <v>1.7000000000000006</v>
+        <v>1.7</v>
       </c>
       <c r="U19">
         <f t="shared" si="21"/>
-        <v>2.5500000000000007</v>
+        <v>2.55</v>
       </c>
       <c r="V19">
         <f t="shared" si="22"/>
-        <v>3.4000000000000012</v>
+        <v>3.4</v>
       </c>
       <c r="W19">
         <f t="shared" si="23"/>
-        <v>4.2500000000000018</v>
+        <v>4.25</v>
       </c>
       <c r="X19">
         <f t="shared" si="24"/>
-        <v>5.1000000000000014</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="25"/>
@@ -3296,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:31">
       <c r="B20">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -3310,7 +3867,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="13"/>
-        <v>0.13402777777777777</v>
+        <v>0.134027777777778</v>
       </c>
       <c r="F20">
         <f t="shared" si="14"/>
@@ -3318,9 +3875,9 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="15"/>
-        <v>1.1312500000000001</v>
-      </c>
-      <c r="H20" s="4">
+        <v>1.13125</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="16"/>
         <v>135.75</v>
       </c>
@@ -3330,15 +3887,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="27"/>
-        <v>21.43588810000001</v>
+        <v>21.4358881</v>
       </c>
       <c r="K20">
         <f t="shared" si="18"/>
         <v>8725</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="13">
         <f t="shared" si="19"/>
-        <v>1.8000000000000007</v>
+        <v>1.8</v>
       </c>
       <c r="M20" s="12">
         <v>1</v>
@@ -3369,23 +3926,23 @@
       </c>
       <c r="T20">
         <f t="shared" si="20"/>
-        <v>1.8000000000000007</v>
+        <v>1.8</v>
       </c>
       <c r="U20">
         <f t="shared" si="21"/>
-        <v>2.7000000000000011</v>
+        <v>2.7</v>
       </c>
       <c r="V20">
         <f t="shared" si="22"/>
-        <v>3.6000000000000014</v>
+        <v>3.6</v>
       </c>
       <c r="W20">
         <f t="shared" si="23"/>
-        <v>4.5000000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="X20">
         <f t="shared" si="24"/>
-        <v>5.4000000000000021</v>
+        <v>5.4</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" si="25"/>
@@ -3416,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:31">
       <c r="B21">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3430,7 +3987,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="13"/>
-        <v>0.14180555555555555</v>
+        <v>0.141805555555556</v>
       </c>
       <c r="F21">
         <f t="shared" si="14"/>
@@ -3438,11 +3995,11 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="15"/>
-        <v>1.2730555555555556</v>
-      </c>
-      <c r="H21" s="4">
+        <v>1.27305555555556</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="16"/>
-        <v>152.76666666666668</v>
+        <v>152.766666666667</v>
       </c>
       <c r="I21">
         <f t="shared" si="17"/>
@@ -3450,15 +4007,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="27"/>
-        <v>23.579476910000015</v>
+        <v>23.57947691</v>
       </c>
       <c r="K21">
         <f t="shared" si="18"/>
         <v>10805</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="13">
         <f t="shared" si="19"/>
-        <v>1.9000000000000008</v>
+        <v>1.9</v>
       </c>
       <c r="M21" s="12">
         <v>1</v>
@@ -3489,23 +4046,23 @@
       </c>
       <c r="T21">
         <f t="shared" si="20"/>
-        <v>1.9000000000000008</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
         <f t="shared" si="21"/>
-        <v>2.8500000000000014</v>
+        <v>2.85</v>
       </c>
       <c r="V21">
         <f t="shared" si="22"/>
-        <v>3.8000000000000016</v>
+        <v>3.8</v>
       </c>
       <c r="W21">
         <f t="shared" si="23"/>
-        <v>4.7500000000000018</v>
+        <v>4.75</v>
       </c>
       <c r="X21">
         <f t="shared" si="24"/>
-        <v>5.7000000000000028</v>
+        <v>5.7</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" si="25"/>
@@ -3536,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:31">
       <c r="B22">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3550,7 +4107,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="13"/>
-        <v>0.14833333333333334</v>
+        <v>0.148333333333333</v>
       </c>
       <c r="F22">
         <f t="shared" si="14"/>
@@ -3558,11 +4115,11 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="15"/>
-        <v>1.4213888888888888</v>
-      </c>
-      <c r="H22" s="4">
+        <v>1.42138888888889</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="16"/>
-        <v>170.56666666666666</v>
+        <v>170.566666666667</v>
       </c>
       <c r="I22">
         <f t="shared" si="17"/>
@@ -3570,15 +4127,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="27"/>
-        <v>25.937424601000018</v>
+        <v>25.937424601</v>
       </c>
       <c r="K22">
         <f t="shared" si="18"/>
         <v>13270</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="13">
         <f t="shared" si="19"/>
-        <v>2.0000000000000009</v>
+        <v>2</v>
       </c>
       <c r="M22" s="12">
         <v>1</v>
@@ -3609,23 +4166,23 @@
       </c>
       <c r="T22">
         <f t="shared" si="20"/>
-        <v>2.0000000000000009</v>
+        <v>2</v>
       </c>
       <c r="U22">
         <f t="shared" si="21"/>
-        <v>3.0000000000000013</v>
+        <v>3</v>
       </c>
       <c r="V22">
         <f t="shared" si="22"/>
-        <v>4.0000000000000018</v>
+        <v>4</v>
       </c>
       <c r="W22">
         <f t="shared" si="23"/>
-        <v>5.0000000000000018</v>
+        <v>5</v>
       </c>
       <c r="X22">
         <f t="shared" si="24"/>
-        <v>6.0000000000000027</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" si="25"/>
@@ -3656,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31">
       <c r="B23">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3678,27 +4235,27 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="15"/>
-        <v>1.5776388888888888</v>
-      </c>
-      <c r="H23" s="4">
+        <v>1.57763888888889</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="16"/>
-        <v>189.31666666666666</v>
+        <v>189.316666666667</v>
       </c>
       <c r="I23">
         <f t="shared" si="17"/>
-        <v>567.95000000000005</v>
+        <v>567.95</v>
       </c>
       <c r="J23">
         <f t="shared" si="27"/>
-        <v>28.531167061100021</v>
+        <v>28.5311670611</v>
       </c>
       <c r="K23">
         <f t="shared" si="18"/>
         <v>16200</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="13">
         <f t="shared" si="19"/>
-        <v>2.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="M23" s="12">
         <v>1</v>
@@ -3729,23 +4286,23 @@
       </c>
       <c r="T23">
         <f t="shared" si="20"/>
-        <v>2.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="U23">
         <f t="shared" si="21"/>
-        <v>3.1500000000000012</v>
+        <v>3.15</v>
       </c>
       <c r="V23">
         <f t="shared" si="22"/>
-        <v>4.200000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="W23">
         <f t="shared" si="23"/>
-        <v>5.2500000000000027</v>
+        <v>5.25</v>
       </c>
       <c r="X23">
         <f t="shared" si="24"/>
-        <v>6.3000000000000025</v>
+        <v>6.3</v>
       </c>
       <c r="Y23" s="3">
         <f t="shared" si="25"/>
@@ -3776,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:31">
       <c r="B24">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3790,7 +4347,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="13"/>
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="F24">
         <f t="shared" si="14"/>
@@ -3798,11 +4355,11 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="15"/>
-        <v>1.7426388888888888</v>
-      </c>
-      <c r="H24" s="4">
+        <v>1.74263888888889</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="16"/>
-        <v>209.11666666666667</v>
+        <v>209.116666666667</v>
       </c>
       <c r="I24">
         <f t="shared" si="17"/>
@@ -3810,15 +4367,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="27"/>
-        <v>31.384283767210025</v>
+        <v>31.38428376721</v>
       </c>
       <c r="K24">
         <f t="shared" si="18"/>
         <v>19685</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="13">
         <f t="shared" si="19"/>
-        <v>2.2000000000000011</v>
+        <v>2.2</v>
       </c>
       <c r="M24" s="12">
         <v>1</v>
@@ -3849,23 +4406,23 @@
       </c>
       <c r="T24">
         <f t="shared" si="20"/>
-        <v>2.2000000000000011</v>
+        <v>2.2</v>
       </c>
       <c r="U24">
         <f t="shared" si="21"/>
-        <v>3.3000000000000016</v>
+        <v>3.3</v>
       </c>
       <c r="V24">
         <f t="shared" si="22"/>
-        <v>4.4000000000000021</v>
+        <v>4.4</v>
       </c>
       <c r="W24">
         <f t="shared" si="23"/>
-        <v>5.5000000000000027</v>
+        <v>5.5</v>
       </c>
       <c r="X24">
         <f t="shared" si="24"/>
-        <v>6.6000000000000032</v>
+        <v>6.6</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" si="25"/>
@@ -3896,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:31">
       <c r="B25">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3910,7 +4467,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="13"/>
-        <v>0.17472222222222222</v>
+        <v>0.174722222222222</v>
       </c>
       <c r="F25">
         <f t="shared" si="14"/>
@@ -3918,11 +4475,11 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="15"/>
-        <v>1.9173611111111111</v>
-      </c>
-      <c r="H25" s="4">
+        <v>1.91736111111111</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="16"/>
-        <v>230.08333333333334</v>
+        <v>230.083333333333</v>
       </c>
       <c r="I25">
         <f t="shared" si="17"/>
@@ -3930,15 +4487,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="27"/>
-        <v>34.522712143931031</v>
+        <v>34.522712143931</v>
       </c>
       <c r="K25">
         <f t="shared" si="18"/>
         <v>23825</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="13">
         <f t="shared" si="19"/>
-        <v>2.3000000000000012</v>
+        <v>2.3</v>
       </c>
       <c r="M25" s="12">
         <v>1</v>
@@ -3969,23 +4526,23 @@
       </c>
       <c r="T25">
         <f t="shared" si="20"/>
-        <v>2.3000000000000012</v>
+        <v>2.3</v>
       </c>
       <c r="U25">
         <f t="shared" si="21"/>
-        <v>3.450000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="V25">
         <f t="shared" si="22"/>
-        <v>4.6000000000000023</v>
+        <v>4.6</v>
       </c>
       <c r="W25">
         <f t="shared" si="23"/>
-        <v>5.7500000000000027</v>
+        <v>5.75</v>
       </c>
       <c r="X25">
         <f t="shared" si="24"/>
-        <v>6.9000000000000039</v>
+        <v>6.9</v>
       </c>
       <c r="Y25" s="3">
         <f t="shared" si="25"/>
@@ -4016,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:31">
       <c r="B26">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -4030,7 +4587,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="13"/>
-        <v>0.18541666666666667</v>
+        <v>0.185416666666667</v>
       </c>
       <c r="F26">
         <f t="shared" si="14"/>
@@ -4038,11 +4595,11 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="15"/>
-        <v>2.1027777777777779</v>
-      </c>
-      <c r="H26" s="4">
+        <v>2.10277777777778</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="16"/>
-        <v>252.33333333333334</v>
+        <v>252.333333333333</v>
       </c>
       <c r="I26">
         <f t="shared" si="17"/>
@@ -4050,15 +4607,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="27"/>
-        <v>37.974983358324138</v>
+        <v>37.9749833583241</v>
       </c>
       <c r="K26">
         <f t="shared" si="18"/>
         <v>28745</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="13">
         <f t="shared" si="19"/>
-        <v>2.4000000000000012</v>
+        <v>2.4</v>
       </c>
       <c r="M26" s="12">
         <v>1</v>
@@ -4089,23 +4646,23 @@
       </c>
       <c r="T26">
         <f t="shared" si="20"/>
-        <v>2.4000000000000012</v>
+        <v>2.4</v>
       </c>
       <c r="U26">
         <f t="shared" si="21"/>
-        <v>3.6000000000000019</v>
+        <v>3.6</v>
       </c>
       <c r="V26">
         <f t="shared" si="22"/>
-        <v>4.8000000000000025</v>
+        <v>4.8</v>
       </c>
       <c r="W26">
         <f t="shared" si="23"/>
-        <v>6.0000000000000036</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <f t="shared" si="24"/>
-        <v>7.2000000000000037</v>
+        <v>7.2</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" si="25"/>
@@ -4136,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:31">
       <c r="B27">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -4150,7 +4707,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="13"/>
-        <v>0.19680555555555557</v>
+        <v>0.196805555555556</v>
       </c>
       <c r="F27">
         <f t="shared" si="14"/>
@@ -4158,9 +4715,9 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="15"/>
-        <v>2.2995833333333335</v>
-      </c>
-      <c r="H27" s="4">
+        <v>2.29958333333333</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="16"/>
         <v>275.95</v>
       </c>
@@ -4170,15 +4727,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="27"/>
-        <v>41.772481694156554</v>
+        <v>41.7724816941566</v>
       </c>
       <c r="K27">
         <f t="shared" si="18"/>
         <v>34580</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="13">
         <f t="shared" si="19"/>
-        <v>2.5000000000000013</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="12">
         <v>1</v>
@@ -4209,23 +4766,23 @@
       </c>
       <c r="T27">
         <f t="shared" si="20"/>
-        <v>2.5000000000000013</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
         <f t="shared" si="21"/>
-        <v>3.7500000000000018</v>
+        <v>3.75</v>
       </c>
       <c r="V27">
         <f t="shared" si="22"/>
-        <v>5.0000000000000027</v>
+        <v>5</v>
       </c>
       <c r="W27">
         <f t="shared" si="23"/>
-        <v>6.2500000000000036</v>
+        <v>6.25</v>
       </c>
       <c r="X27">
         <f t="shared" si="24"/>
-        <v>7.5000000000000036</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" si="25"/>
@@ -4256,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:31">
       <c r="B28">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -4270,7 +4827,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="13"/>
-        <v>0.20902777777777778</v>
+        <v>0.209027777777778</v>
       </c>
       <c r="F28">
         <f t="shared" si="14"/>
@@ -4278,11 +4835,11 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="15"/>
-        <v>2.5086111111111111</v>
-      </c>
-      <c r="H28" s="4">
+        <v>2.50861111111111</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="16"/>
-        <v>301.03333333333336</v>
+        <v>301.033333333333</v>
       </c>
       <c r="I28">
         <f t="shared" si="17"/>
@@ -4290,15 +4847,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="27"/>
-        <v>45.949729863572216</v>
+        <v>45.9497298635722</v>
       </c>
       <c r="K28">
         <f t="shared" si="18"/>
         <v>41495</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="13">
         <f t="shared" si="19"/>
-        <v>2.6000000000000014</v>
+        <v>2.6</v>
       </c>
       <c r="M28" s="12">
         <v>1</v>
@@ -4329,23 +4886,23 @@
       </c>
       <c r="T28">
         <f t="shared" si="20"/>
-        <v>2.6000000000000014</v>
+        <v>2.6</v>
       </c>
       <c r="U28">
         <f t="shared" si="21"/>
-        <v>3.9000000000000021</v>
+        <v>3.9</v>
       </c>
       <c r="V28">
         <f t="shared" si="22"/>
-        <v>5.2000000000000028</v>
+        <v>5.2</v>
       </c>
       <c r="W28">
         <f t="shared" si="23"/>
-        <v>6.5000000000000036</v>
+        <v>6.5</v>
       </c>
       <c r="X28">
         <f t="shared" si="24"/>
-        <v>7.8000000000000043</v>
+        <v>7.8</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" si="25"/>
@@ -4376,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:31">
       <c r="B29">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -4390,7 +4947,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="13"/>
-        <v>0.22180555555555556</v>
+        <v>0.221805555555556</v>
       </c>
       <c r="F29">
         <f t="shared" si="14"/>
@@ -4398,11 +4955,11 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="15"/>
-        <v>2.7304166666666667</v>
-      </c>
-      <c r="H29" s="4">
+        <v>2.73041666666667</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="16"/>
-        <v>327.64999999999998</v>
+        <v>327.65</v>
       </c>
       <c r="I29">
         <f t="shared" si="17"/>
@@ -4410,15 +4967,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="27"/>
-        <v>50.544702849929443</v>
+        <v>50.5447028499294</v>
       </c>
       <c r="K29">
         <f t="shared" si="18"/>
         <v>49680</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="13">
         <f t="shared" si="19"/>
-        <v>2.7000000000000015</v>
+        <v>2.7</v>
       </c>
       <c r="M29" s="12">
         <v>1</v>
@@ -4449,23 +5006,23 @@
       </c>
       <c r="T29">
         <f t="shared" si="20"/>
-        <v>2.7000000000000015</v>
+        <v>2.7</v>
       </c>
       <c r="U29">
         <f t="shared" si="21"/>
-        <v>4.0500000000000025</v>
+        <v>4.05</v>
       </c>
       <c r="V29">
         <f t="shared" si="22"/>
-        <v>5.400000000000003</v>
+        <v>5.4</v>
       </c>
       <c r="W29">
         <f t="shared" si="23"/>
-        <v>6.7500000000000036</v>
+        <v>6.75</v>
       </c>
       <c r="X29">
         <f t="shared" si="24"/>
-        <v>8.100000000000005</v>
+        <v>8.1</v>
       </c>
       <c r="Y29" s="3">
         <f t="shared" si="25"/>
@@ -4496,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:31">
       <c r="B30">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -4510,7 +5067,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="13"/>
-        <v>0.23527777777777778</v>
+        <v>0.235277777777778</v>
       </c>
       <c r="F30">
         <f t="shared" si="14"/>
@@ -4518,27 +5075,27 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="15"/>
-        <v>2.9656944444444444</v>
-      </c>
-      <c r="H30" s="4">
+        <v>2.96569444444444</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="16"/>
-        <v>355.88333333333333</v>
+        <v>355.883333333333</v>
       </c>
       <c r="I30">
         <f t="shared" si="17"/>
-        <v>1067.6500000000001</v>
+        <v>1067.65</v>
       </c>
       <c r="J30">
         <f t="shared" si="27"/>
-        <v>55.599173134922395</v>
+        <v>55.5991731349224</v>
       </c>
       <c r="K30">
         <f t="shared" si="18"/>
         <v>59360</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="13">
         <f t="shared" si="19"/>
-        <v>2.8000000000000016</v>
+        <v>2.8</v>
       </c>
       <c r="M30" s="12">
         <v>1</v>
@@ -4569,23 +5126,23 @@
       </c>
       <c r="T30">
         <f t="shared" si="20"/>
-        <v>2.8000000000000016</v>
+        <v>2.8</v>
       </c>
       <c r="U30">
         <f t="shared" si="21"/>
-        <v>4.2000000000000028</v>
+        <v>4.2</v>
       </c>
       <c r="V30">
         <f t="shared" si="22"/>
-        <v>5.6000000000000032</v>
+        <v>5.6</v>
       </c>
       <c r="W30">
         <f t="shared" si="23"/>
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="X30">
         <f t="shared" si="24"/>
-        <v>8.4000000000000057</v>
+        <v>8.40000000000001</v>
       </c>
       <c r="Y30" s="3">
         <f t="shared" si="25"/>
@@ -4616,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:31">
       <c r="B31">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4630,7 +5187,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="13"/>
-        <v>0.24694444444444444</v>
+        <v>0.246944444444444</v>
       </c>
       <c r="F31">
         <f t="shared" si="14"/>
@@ -4638,11 +5195,11 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="15"/>
-        <v>3.2126388888888888</v>
-      </c>
-      <c r="H31" s="4">
+        <v>3.21263888888889</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="16"/>
-        <v>385.51666666666665</v>
+        <v>385.516666666667</v>
       </c>
       <c r="I31">
         <f t="shared" si="17"/>
@@ -4650,15 +5207,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="27"/>
-        <v>61.159090448414638</v>
+        <v>61.1590904484146</v>
       </c>
       <c r="K31">
         <f t="shared" si="18"/>
         <v>70730</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="13">
         <f t="shared" si="19"/>
-        <v>2.9000000000000017</v>
+        <v>2.9</v>
       </c>
       <c r="M31" s="12">
         <v>1</v>
@@ -4689,23 +5246,23 @@
       </c>
       <c r="T31">
         <f t="shared" si="20"/>
-        <v>2.9000000000000017</v>
+        <v>2.9</v>
       </c>
       <c r="U31">
         <f t="shared" si="21"/>
-        <v>4.3500000000000023</v>
+        <v>4.35</v>
       </c>
       <c r="V31">
         <f t="shared" si="22"/>
-        <v>5.8000000000000034</v>
+        <v>5.8</v>
       </c>
       <c r="W31">
         <f t="shared" si="23"/>
-        <v>7.2500000000000044</v>
+        <v>7.25</v>
       </c>
       <c r="X31">
         <f t="shared" si="24"/>
-        <v>8.7000000000000046</v>
+        <v>8.7</v>
       </c>
       <c r="Y31" s="3">
         <f t="shared" si="25"/>
@@ -4736,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:31">
       <c r="B32">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4750,7 +5307,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="13"/>
-        <v>0.25680555555555556</v>
+        <v>0.256805555555556</v>
       </c>
       <c r="F32">
         <f t="shared" si="14"/>
@@ -4758,11 +5315,11 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="15"/>
-        <v>3.4694444444444446</v>
-      </c>
-      <c r="H32" s="4">
+        <v>3.46944444444444</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="16"/>
-        <v>416.33333333333331</v>
+        <v>416.333333333333</v>
       </c>
       <c r="I32">
         <f t="shared" si="17"/>
@@ -4770,15 +5327,15 @@
       </c>
       <c r="J32">
         <f t="shared" si="27"/>
-        <v>67.274999493256104</v>
+        <v>67.2749994932561</v>
       </c>
       <c r="K32">
         <f t="shared" si="18"/>
         <v>84025</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="13">
         <f t="shared" si="19"/>
-        <v>3.0000000000000018</v>
+        <v>3</v>
       </c>
       <c r="M32" s="12">
         <v>1</v>
@@ -4809,23 +5366,23 @@
       </c>
       <c r="T32">
         <f t="shared" si="20"/>
-        <v>3.0000000000000018</v>
+        <v>3</v>
       </c>
       <c r="U32">
         <f t="shared" si="21"/>
-        <v>4.5000000000000027</v>
+        <v>4.5</v>
       </c>
       <c r="V32">
         <f t="shared" si="22"/>
-        <v>6.0000000000000036</v>
+        <v>6</v>
       </c>
       <c r="W32">
         <f t="shared" si="23"/>
-        <v>7.5000000000000044</v>
+        <v>7.5</v>
       </c>
       <c r="X32">
         <f t="shared" si="24"/>
-        <v>9.0000000000000053</v>
+        <v>9.00000000000001</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" si="25"/>
@@ -4856,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:31">
       <c r="B33">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4870,7 +5427,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="13"/>
-        <v>0.26861111111111113</v>
+        <v>0.268611111111111</v>
       </c>
       <c r="F33">
         <f t="shared" si="14"/>
@@ -4878,11 +5435,11 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="15"/>
-        <v>3.7380555555555555</v>
-      </c>
-      <c r="H33" s="4">
+        <v>3.73805555555556</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="16"/>
-        <v>448.56666666666666</v>
+        <v>448.566666666667</v>
       </c>
       <c r="I33">
         <f t="shared" si="17"/>
@@ -4890,15 +5447,15 @@
       </c>
       <c r="J33">
         <f t="shared" si="27"/>
-        <v>74.002499442581723</v>
+        <v>74.0024994425817</v>
       </c>
       <c r="K33">
         <f t="shared" si="18"/>
         <v>99585</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="13">
         <f t="shared" si="19"/>
-        <v>3.1000000000000019</v>
+        <v>3.1</v>
       </c>
       <c r="M33" s="12">
         <v>1</v>
@@ -4929,23 +5486,23 @@
       </c>
       <c r="T33">
         <f t="shared" si="20"/>
-        <v>3.1000000000000019</v>
+        <v>3.1</v>
       </c>
       <c r="U33">
         <f t="shared" si="21"/>
-        <v>4.650000000000003</v>
+        <v>4.65</v>
       </c>
       <c r="V33">
         <f t="shared" si="22"/>
-        <v>6.2000000000000037</v>
+        <v>6.2</v>
       </c>
       <c r="W33">
         <f t="shared" si="23"/>
-        <v>7.7500000000000044</v>
+        <v>7.75</v>
       </c>
       <c r="X33">
         <f t="shared" si="24"/>
-        <v>9.300000000000006</v>
+        <v>9.30000000000001</v>
       </c>
       <c r="Y33" s="3">
         <f t="shared" si="25"/>
@@ -4976,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:31">
       <c r="B34">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4990,7 +5547,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="13"/>
-        <v>0.28180555555555553</v>
+        <v>0.281805555555556</v>
       </c>
       <c r="F34">
         <f t="shared" si="14"/>
@@ -4998,11 +5555,11 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" si="15"/>
-        <v>4.0198611111111111</v>
-      </c>
-      <c r="H34" s="4">
+        <v>4.01986111111111</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="16"/>
-        <v>482.38333333333333</v>
+        <v>482.383333333333</v>
       </c>
       <c r="I34">
         <f t="shared" si="17"/>
@@ -5010,15 +5567,15 @@
       </c>
       <c r="J34">
         <f t="shared" si="27"/>
-        <v>81.402749386839901</v>
+        <v>81.4027493868399</v>
       </c>
       <c r="K34">
         <f t="shared" si="18"/>
         <v>117800</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="13">
         <f t="shared" si="19"/>
-        <v>3.200000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="M34" s="12">
         <v>1</v>
@@ -5049,23 +5606,23 @@
       </c>
       <c r="T34">
         <f t="shared" si="20"/>
-        <v>3.200000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="U34">
         <f t="shared" si="21"/>
-        <v>4.8000000000000025</v>
+        <v>4.8</v>
       </c>
       <c r="V34">
         <f t="shared" si="22"/>
-        <v>6.4000000000000039</v>
+        <v>6.4</v>
       </c>
       <c r="W34">
         <f t="shared" si="23"/>
-        <v>8.0000000000000053</v>
+        <v>8.00000000000001</v>
       </c>
       <c r="X34">
         <f t="shared" si="24"/>
-        <v>9.600000000000005</v>
+        <v>9.6</v>
       </c>
       <c r="Y34" s="3">
         <f t="shared" si="25"/>
@@ -5096,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:31">
       <c r="B35">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5110,7 +5667,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="13"/>
-        <v>0.29638888888888887</v>
+        <v>0.296388888888889</v>
       </c>
       <c r="F35">
         <f t="shared" si="14"/>
@@ -5118,11 +5675,11 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" si="15"/>
-        <v>4.3162500000000001</v>
-      </c>
-      <c r="H35" s="4">
+        <v>4.31625</v>
+      </c>
+      <c r="H35" s="5">
         <f t="shared" si="16"/>
-        <v>517.95000000000005</v>
+        <v>517.95</v>
       </c>
       <c r="I35">
         <f t="shared" si="17"/>
@@ -5130,15 +5687,15 @@
       </c>
       <c r="J35">
         <f t="shared" si="27"/>
-        <v>89.543024325523902</v>
+        <v>89.5430243255239</v>
       </c>
       <c r="K35">
         <f t="shared" si="18"/>
         <v>139135</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="13">
         <f t="shared" si="19"/>
-        <v>3.300000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="M35" s="12">
         <v>1</v>
@@ -5169,23 +5726,23 @@
       </c>
       <c r="T35">
         <f t="shared" si="20"/>
-        <v>3.300000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="U35">
         <f t="shared" si="21"/>
-        <v>4.9500000000000028</v>
+        <v>4.95</v>
       </c>
       <c r="V35">
         <f t="shared" si="22"/>
-        <v>6.6000000000000041</v>
+        <v>6.6</v>
       </c>
       <c r="W35">
         <f t="shared" si="23"/>
-        <v>8.2500000000000053</v>
+        <v>8.25000000000001</v>
       </c>
       <c r="X35">
         <f t="shared" si="24"/>
-        <v>9.9000000000000057</v>
+        <v>9.90000000000001</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="25"/>
@@ -5216,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:31">
       <c r="B36">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5230,7 +5787,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="13"/>
-        <v>0.31236111111111109</v>
+        <v>0.312361111111111</v>
       </c>
       <c r="F36">
         <f t="shared" si="14"/>
@@ -5238,11 +5795,11 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" si="15"/>
-        <v>4.6286111111111108</v>
-      </c>
-      <c r="H36" s="4">
+        <v>4.62861111111111</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="16"/>
-        <v>555.43333333333328</v>
+        <v>555.433333333333</v>
       </c>
       <c r="I36">
         <f t="shared" si="17"/>
@@ -5250,15 +5807,15 @@
       </c>
       <c r="J36">
         <f t="shared" si="27"/>
-        <v>98.497326758076298</v>
+        <v>98.4973267580763</v>
       </c>
       <c r="K36">
         <f t="shared" si="18"/>
         <v>164125</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="13">
         <f t="shared" si="19"/>
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="M36" s="12">
         <v>1</v>
@@ -5289,23 +5846,23 @@
       </c>
       <c r="T36">
         <f t="shared" si="20"/>
-        <v>3.4000000000000021</v>
+        <v>3.4</v>
       </c>
       <c r="U36">
         <f t="shared" si="21"/>
-        <v>5.1000000000000032</v>
+        <v>5.1</v>
       </c>
       <c r="V36">
         <f t="shared" si="22"/>
-        <v>6.8000000000000043</v>
+        <v>6.8</v>
       </c>
       <c r="W36">
         <f t="shared" si="23"/>
-        <v>8.5000000000000053</v>
+        <v>8.50000000000001</v>
       </c>
       <c r="X36">
         <f t="shared" si="24"/>
-        <v>10.200000000000006</v>
+        <v>10.2</v>
       </c>
       <c r="Y36" s="3">
         <f t="shared" si="25"/>
@@ -5336,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:31">
       <c r="B37">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5350,7 +5907,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="13"/>
-        <v>0.32944444444444443</v>
+        <v>0.329444444444444</v>
       </c>
       <c r="F37">
         <f t="shared" si="14"/>
@@ -5358,11 +5915,11 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" si="15"/>
-        <v>4.9580555555555552</v>
-      </c>
-      <c r="H37" s="4">
+        <v>4.95805555555556</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="16"/>
-        <v>594.9666666666667</v>
+        <v>594.966666666667</v>
       </c>
       <c r="I37">
         <f t="shared" si="17"/>
@@ -5370,15 +5927,15 @@
       </c>
       <c r="J37">
         <f t="shared" si="27"/>
-        <v>108.34705943388394</v>
+        <v>108.347059433884</v>
       </c>
       <c r="K37">
         <f t="shared" si="18"/>
         <v>193385</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="13">
         <f t="shared" si="19"/>
-        <v>3.5000000000000022</v>
+        <v>3.5</v>
       </c>
       <c r="M37" s="12">
         <v>1</v>
@@ -5409,23 +5966,23 @@
       </c>
       <c r="T37">
         <f t="shared" si="20"/>
-        <v>3.5000000000000022</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
         <f t="shared" si="21"/>
-        <v>5.2500000000000036</v>
+        <v>5.25</v>
       </c>
       <c r="V37">
         <f t="shared" si="22"/>
-        <v>7.0000000000000044</v>
+        <v>7</v>
       </c>
       <c r="W37">
         <f t="shared" si="23"/>
-        <v>8.7500000000000053</v>
+        <v>8.75000000000001</v>
       </c>
       <c r="X37">
         <f t="shared" si="24"/>
-        <v>10.500000000000007</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" s="3">
         <f t="shared" si="25"/>
@@ -5456,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:31">
       <c r="B38">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5470,7 +6027,7 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="13"/>
-        <v>0.3477777777777778</v>
+        <v>0.347777777777778</v>
       </c>
       <c r="F38">
         <f t="shared" si="14"/>
@@ -5478,11 +6035,11 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" si="15"/>
-        <v>5.3058333333333332</v>
-      </c>
-      <c r="H38" s="4">
+        <v>5.30583333333333</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="16"/>
-        <v>636.70000000000005</v>
+        <v>636.7</v>
       </c>
       <c r="I38">
         <f t="shared" si="17"/>
@@ -5490,15 +6047,15 @@
       </c>
       <c r="J38">
         <f t="shared" si="27"/>
-        <v>119.18176537727234</v>
+        <v>119.181765377272</v>
       </c>
       <c r="K38">
         <f t="shared" si="18"/>
         <v>227645</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="13">
         <f t="shared" si="19"/>
-        <v>3.6000000000000023</v>
+        <v>3.6</v>
       </c>
       <c r="M38" s="12">
         <v>1</v>
@@ -5529,23 +6086,23 @@
       </c>
       <c r="T38">
         <f t="shared" si="20"/>
-        <v>3.6000000000000023</v>
+        <v>3.6</v>
       </c>
       <c r="U38">
         <f t="shared" si="21"/>
-        <v>5.4000000000000039</v>
+        <v>5.4</v>
       </c>
       <c r="V38">
         <f t="shared" si="22"/>
-        <v>7.2000000000000046</v>
+        <v>7.2</v>
       </c>
       <c r="W38">
         <f t="shared" si="23"/>
-        <v>9.0000000000000053</v>
+        <v>9.00000000000001</v>
       </c>
       <c r="X38">
         <f t="shared" si="24"/>
-        <v>10.800000000000008</v>
+        <v>10.8</v>
       </c>
       <c r="Y38" s="3">
         <f t="shared" si="25"/>
@@ -5576,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:31">
       <c r="B39">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5590,7 +6147,7 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" si="13"/>
-        <v>0.36694444444444446</v>
+        <v>0.366944444444444</v>
       </c>
       <c r="F39">
         <f t="shared" si="14"/>
@@ -5598,11 +6155,11 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" si="15"/>
-        <v>5.6727777777777781</v>
-      </c>
-      <c r="H39" s="4">
+        <v>5.67277777777778</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="16"/>
-        <v>680.73333333333335</v>
+        <v>680.733333333333</v>
       </c>
       <c r="I39">
         <f t="shared" si="17"/>
@@ -5610,15 +6167,15 @@
       </c>
       <c r="J39">
         <f t="shared" si="27"/>
-        <v>131.09994191499959</v>
+        <v>131.099941915</v>
       </c>
       <c r="K39">
         <f t="shared" si="18"/>
         <v>267730</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="13">
         <f t="shared" si="19"/>
-        <v>3.7000000000000024</v>
+        <v>3.7</v>
       </c>
       <c r="M39" s="12">
         <v>1</v>
@@ -5649,23 +6206,23 @@
       </c>
       <c r="T39">
         <f t="shared" si="20"/>
-        <v>3.7000000000000024</v>
+        <v>3.7</v>
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
-        <v>5.5500000000000034</v>
+        <v>5.55</v>
       </c>
       <c r="V39">
         <f t="shared" si="22"/>
-        <v>7.4000000000000048</v>
+        <v>7.4</v>
       </c>
       <c r="W39">
         <f t="shared" si="23"/>
-        <v>9.2500000000000053</v>
+        <v>9.25000000000001</v>
       </c>
       <c r="X39">
         <f t="shared" si="24"/>
-        <v>11.100000000000007</v>
+        <v>11.1</v>
       </c>
       <c r="Y39" s="3">
         <f t="shared" si="25"/>
@@ -5696,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:31">
       <c r="B40">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -5710,7 +6267,7 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" si="13"/>
-        <v>0.38722222222222225</v>
+        <v>0.387222222222222</v>
       </c>
       <c r="F40">
         <f t="shared" si="14"/>
@@ -5720,7 +6277,7 @@
         <f t="shared" si="15"/>
         <v>6.06</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <f t="shared" si="16"/>
         <v>727.2</v>
       </c>
@@ -5730,15 +6287,15 @@
       </c>
       <c r="J40">
         <f t="shared" si="27"/>
-        <v>144.20993610649955</v>
+        <v>144.2099361065</v>
       </c>
       <c r="K40">
         <f t="shared" si="18"/>
         <v>314605</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="13">
         <f t="shared" si="19"/>
-        <v>3.8000000000000025</v>
+        <v>3.8</v>
       </c>
       <c r="M40" s="12">
         <v>1</v>
@@ -5769,23 +6326,23 @@
       </c>
       <c r="T40">
         <f t="shared" si="20"/>
-        <v>3.8000000000000025</v>
+        <v>3.8</v>
       </c>
       <c r="U40">
         <f t="shared" si="21"/>
-        <v>5.7000000000000037</v>
+        <v>5.7</v>
       </c>
       <c r="V40">
         <f t="shared" si="22"/>
-        <v>7.600000000000005</v>
+        <v>7.6</v>
       </c>
       <c r="W40">
         <f t="shared" si="23"/>
-        <v>9.5000000000000071</v>
+        <v>9.50000000000001</v>
       </c>
       <c r="X40">
         <f t="shared" si="24"/>
-        <v>11.400000000000007</v>
+        <v>11.4</v>
       </c>
       <c r="Y40" s="3">
         <f t="shared" si="25"/>
@@ -5816,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:31">
       <c r="B41">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5830,7 +6387,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="13"/>
-        <v>0.40666666666666668</v>
+        <v>0.406666666666667</v>
       </c>
       <c r="F41">
         <f t="shared" si="14"/>
@@ -5838,9 +6395,9 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="15"/>
-        <v>6.4666666666666668</v>
-      </c>
-      <c r="H41" s="4">
+        <v>6.46666666666667</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="16"/>
         <v>776</v>
       </c>
@@ -5850,15 +6407,15 @@
       </c>
       <c r="J41">
         <f t="shared" si="27"/>
-        <v>158.63092971714951</v>
+        <v>158.63092971715</v>
       </c>
       <c r="K41">
         <f t="shared" si="18"/>
         <v>369290</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="13">
         <f t="shared" si="19"/>
-        <v>3.9000000000000026</v>
+        <v>3.9</v>
       </c>
       <c r="M41" s="12">
         <v>1</v>
@@ -5889,23 +6446,23 @@
       </c>
       <c r="T41">
         <f t="shared" si="20"/>
-        <v>3.9000000000000026</v>
+        <v>3.9</v>
       </c>
       <c r="U41">
         <f t="shared" si="21"/>
-        <v>5.8500000000000041</v>
+        <v>5.85</v>
       </c>
       <c r="V41">
         <f t="shared" si="22"/>
-        <v>7.8000000000000052</v>
+        <v>7.80000000000001</v>
       </c>
       <c r="W41">
         <f t="shared" si="23"/>
-        <v>9.7500000000000071</v>
+        <v>9.75000000000001</v>
       </c>
       <c r="X41">
         <f t="shared" si="24"/>
-        <v>11.700000000000008</v>
+        <v>11.7</v>
       </c>
       <c r="Y41" s="3">
         <f t="shared" si="25"/>
@@ -5936,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:31">
       <c r="B42">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5950,7 +6507,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="13"/>
-        <v>0.4309722222222222</v>
+        <v>0.430972222222222</v>
       </c>
       <c r="F42">
         <f t="shared" si="14"/>
@@ -5958,11 +6515,11 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="15"/>
-        <v>6.8976388888888893</v>
-      </c>
-      <c r="H42" s="4">
+        <v>6.89763888888889</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="16"/>
-        <v>827.7166666666667</v>
+        <v>827.716666666667</v>
       </c>
       <c r="I42">
         <f t="shared" si="17"/>
@@ -5970,15 +6527,15 @@
       </c>
       <c r="J42">
         <f t="shared" si="27"/>
-        <v>174.49402268886448</v>
+        <v>174.494022688864</v>
       </c>
       <c r="K42">
         <f t="shared" si="18"/>
         <v>433290</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="13">
         <f t="shared" si="19"/>
-        <v>4.0000000000000027</v>
+        <v>4</v>
       </c>
       <c r="M42" s="12">
         <v>1</v>
@@ -6009,23 +6566,23 @@
       </c>
       <c r="T42">
         <f t="shared" si="20"/>
-        <v>4.0000000000000027</v>
+        <v>4</v>
       </c>
       <c r="U42">
         <f t="shared" si="21"/>
-        <v>6.0000000000000036</v>
+        <v>6</v>
       </c>
       <c r="V42">
         <f t="shared" si="22"/>
-        <v>8.0000000000000053</v>
+        <v>8.00000000000001</v>
       </c>
       <c r="W42">
         <f t="shared" si="23"/>
-        <v>10.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="X42">
         <f t="shared" si="24"/>
-        <v>12.000000000000007</v>
+        <v>12</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="25"/>
@@ -6056,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:31">
       <c r="B43">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6070,7 +6627,7 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="13"/>
-        <v>0.46500000000000002</v>
+        <v>0.465</v>
       </c>
       <c r="F43">
         <f t="shared" si="14"/>
@@ -6078,11 +6635,11 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="15"/>
-        <v>7.3626388888888892</v>
-      </c>
-      <c r="H43" s="4">
+        <v>7.36263888888889</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="16"/>
-        <v>883.51666666666665</v>
+        <v>883.516666666667</v>
       </c>
       <c r="I43">
         <f t="shared" si="17"/>
@@ -6090,15 +6647,15 @@
       </c>
       <c r="J43">
         <f t="shared" si="27"/>
-        <v>191.94342495775095</v>
+        <v>191.943424957751</v>
       </c>
       <c r="K43">
         <f t="shared" si="18"/>
         <v>508755</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="13">
         <f t="shared" si="19"/>
-        <v>4.1000000000000023</v>
+        <v>4.1</v>
       </c>
       <c r="M43" s="12">
         <v>1</v>
@@ -6129,23 +6686,23 @@
       </c>
       <c r="T43">
         <f t="shared" si="20"/>
-        <v>4.1000000000000023</v>
+        <v>4.1</v>
       </c>
       <c r="U43">
         <f t="shared" si="21"/>
-        <v>6.1500000000000039</v>
+        <v>6.15</v>
       </c>
       <c r="V43">
         <f t="shared" si="22"/>
-        <v>8.2000000000000046</v>
+        <v>8.2</v>
       </c>
       <c r="W43">
         <f t="shared" si="23"/>
-        <v>10.250000000000005</v>
+        <v>10.25</v>
       </c>
       <c r="X43">
         <f t="shared" si="24"/>
-        <v>12.300000000000008</v>
+        <v>12.3</v>
       </c>
       <c r="Y43" s="3">
         <f t="shared" si="25"/>
@@ -6176,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:31">
       <c r="B44">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6190,7 +6747,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="13"/>
-        <v>0.50875000000000004</v>
+        <v>0.50875</v>
       </c>
       <c r="F44">
         <f t="shared" si="14"/>
@@ -6198,11 +6755,11 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="15"/>
-        <v>7.8713888888888892</v>
-      </c>
-      <c r="H44" s="4">
+        <v>7.87138888888889</v>
+      </c>
+      <c r="H44" s="5">
         <f t="shared" si="16"/>
-        <v>944.56666666666672</v>
+        <v>944.566666666667</v>
       </c>
       <c r="I44">
         <f t="shared" si="17"/>
@@ -6210,15 +6767,15 @@
       </c>
       <c r="J44">
         <f t="shared" si="27"/>
-        <v>211.13776745352607</v>
+        <v>211.137767453526</v>
       </c>
       <c r="K44">
         <f t="shared" si="18"/>
         <v>598300</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="13">
         <f t="shared" si="19"/>
-        <v>4.200000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="M44" s="12">
         <v>1</v>
@@ -6249,23 +6806,23 @@
       </c>
       <c r="T44">
         <f t="shared" si="20"/>
-        <v>4.200000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="U44">
         <f t="shared" si="21"/>
-        <v>6.3000000000000025</v>
+        <v>6.3</v>
       </c>
       <c r="V44">
         <f t="shared" si="22"/>
-        <v>8.4000000000000039</v>
+        <v>8.4</v>
       </c>
       <c r="W44">
         <f t="shared" si="23"/>
-        <v>10.500000000000005</v>
+        <v>10.5</v>
       </c>
       <c r="X44">
         <f t="shared" si="24"/>
-        <v>12.600000000000005</v>
+        <v>12.6</v>
       </c>
       <c r="Y44" s="3">
         <f t="shared" si="25"/>
@@ -6296,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:31">
       <c r="B45">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6310,7 +6867,7 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="13"/>
-        <v>0.56222222222222218</v>
+        <v>0.562222222222222</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
@@ -6318,11 +6875,11 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="15"/>
-        <v>8.4336111111111105</v>
-      </c>
-      <c r="H45" s="4">
+        <v>8.43361111111111</v>
+      </c>
+      <c r="H45" s="5">
         <f t="shared" ref="H45:H70" si="34">F45/60</f>
-        <v>1012.0333333333333</v>
+        <v>1012.03333333333</v>
       </c>
       <c r="I45">
         <f t="shared" si="17"/>
@@ -6330,15 +6887,15 @@
       </c>
       <c r="J45">
         <f t="shared" si="27"/>
-        <v>232.25154419887869</v>
+        <v>232.251544198879</v>
       </c>
       <c r="K45">
         <f t="shared" si="18"/>
         <v>705135</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="13">
         <f t="shared" si="19"/>
-        <v>4.3000000000000016</v>
+        <v>4.3</v>
       </c>
       <c r="M45" s="12">
         <v>1</v>
@@ -6369,23 +6926,23 @@
       </c>
       <c r="T45">
         <f t="shared" si="20"/>
-        <v>4.3000000000000016</v>
+        <v>4.3</v>
       </c>
       <c r="U45">
         <f t="shared" si="21"/>
-        <v>6.4500000000000028</v>
+        <v>6.45</v>
       </c>
       <c r="V45">
         <f t="shared" si="22"/>
-        <v>8.6000000000000032</v>
+        <v>8.6</v>
       </c>
       <c r="W45">
         <f t="shared" si="23"/>
-        <v>10.750000000000004</v>
+        <v>10.75</v>
       </c>
       <c r="X45">
         <f t="shared" si="24"/>
-        <v>12.900000000000006</v>
+        <v>12.9</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" si="25"/>
@@ -6416,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:31">
       <c r="B46">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6430,7 +6987,7 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="13"/>
-        <v>0.62541666666666662</v>
+        <v>0.625416666666667</v>
       </c>
       <c r="F46">
         <f t="shared" si="14"/>
@@ -6438,11 +6995,11 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="15"/>
-        <v>9.0590277777777786</v>
-      </c>
-      <c r="H46" s="4">
+        <v>9.05902777777778</v>
+      </c>
+      <c r="H46" s="5">
         <f t="shared" si="34"/>
-        <v>1087.0833333333333</v>
+        <v>1087.08333333333</v>
       </c>
       <c r="I46">
         <f t="shared" si="17"/>
@@ -6450,15 +7007,15 @@
       </c>
       <c r="J46">
         <f t="shared" si="27"/>
-        <v>255.47669861876659</v>
+        <v>255.476698618767</v>
       </c>
       <c r="K46">
         <f t="shared" si="18"/>
         <v>833170</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="13">
         <f t="shared" si="19"/>
-        <v>4.4000000000000012</v>
+        <v>4.4</v>
       </c>
       <c r="M46" s="12">
         <v>1</v>
@@ -6489,23 +7046,23 @@
       </c>
       <c r="T46">
         <f t="shared" si="20"/>
-        <v>4.4000000000000012</v>
+        <v>4.4</v>
       </c>
       <c r="U46">
         <f t="shared" si="21"/>
-        <v>6.6000000000000014</v>
+        <v>6.6</v>
       </c>
       <c r="V46">
         <f t="shared" si="22"/>
-        <v>8.8000000000000025</v>
+        <v>8.8</v>
       </c>
       <c r="W46">
         <f t="shared" si="23"/>
-        <v>11.000000000000004</v>
+        <v>11</v>
       </c>
       <c r="X46">
         <f t="shared" si="24"/>
-        <v>13.200000000000003</v>
+        <v>13.2</v>
       </c>
       <c r="Y46" s="3">
         <f t="shared" si="25"/>
@@ -6536,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:31">
       <c r="B47">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6550,7 +7107,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="13"/>
-        <v>0.69833333333333336</v>
+        <v>0.698333333333333</v>
       </c>
       <c r="F47">
         <f t="shared" si="14"/>
@@ -6558,11 +7115,11 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="15"/>
-        <v>9.7573611111111109</v>
-      </c>
-      <c r="H47" s="4">
+        <v>9.75736111111111</v>
+      </c>
+      <c r="H47" s="5">
         <f t="shared" si="34"/>
-        <v>1170.8833333333334</v>
+        <v>1170.88333333333</v>
       </c>
       <c r="I47">
         <f t="shared" si="17"/>
@@ -6570,15 +7127,15 @@
       </c>
       <c r="J47">
         <f t="shared" si="27"/>
-        <v>281.02436848064326</v>
+        <v>281.024368480643</v>
       </c>
       <c r="K47">
         <f t="shared" si="18"/>
         <v>987140</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="13">
         <f t="shared" si="19"/>
-        <v>4.5000000000000009</v>
+        <v>4.5</v>
       </c>
       <c r="M47" s="12">
         <v>1</v>
@@ -6609,23 +7166,23 @@
       </c>
       <c r="T47">
         <f t="shared" si="20"/>
-        <v>4.5000000000000009</v>
+        <v>4.5</v>
       </c>
       <c r="U47">
         <f t="shared" si="21"/>
-        <v>6.7500000000000018</v>
+        <v>6.75</v>
       </c>
       <c r="V47">
         <f t="shared" si="22"/>
-        <v>9.0000000000000018</v>
+        <v>9</v>
       </c>
       <c r="W47">
         <f t="shared" si="23"/>
-        <v>11.250000000000002</v>
+        <v>11.25</v>
       </c>
       <c r="X47">
         <f t="shared" si="24"/>
-        <v>13.500000000000004</v>
+        <v>13.5</v>
       </c>
       <c r="Y47" s="3">
         <f t="shared" si="25"/>
@@ -6656,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:31">
       <c r="B48">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6670,7 +7227,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" si="13"/>
-        <v>0.78097222222222218</v>
+        <v>0.780972222222222</v>
       </c>
       <c r="F48">
         <f t="shared" si="14"/>
@@ -6678,11 +7235,11 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="15"/>
-        <v>10.538333333333334</v>
-      </c>
-      <c r="H48" s="4">
+        <v>10.5383333333333</v>
+      </c>
+      <c r="H48" s="5">
         <f t="shared" si="34"/>
-        <v>1264.5999999999999</v>
+        <v>1264.6</v>
       </c>
       <c r="I48">
         <f t="shared" si="17"/>
@@ -6690,15 +7247,15 @@
       </c>
       <c r="J48">
         <f t="shared" si="27"/>
-        <v>309.12680532870763</v>
+        <v>309.126805328708</v>
       </c>
       <c r="K48">
         <f t="shared" si="18"/>
         <v>1172765</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="13">
         <f t="shared" si="19"/>
-        <v>4.6000000000000005</v>
+        <v>4.6</v>
       </c>
       <c r="M48" s="12">
         <v>1</v>
@@ -6729,7 +7286,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="20"/>
-        <v>4.6000000000000005</v>
+        <v>4.6</v>
       </c>
       <c r="U48">
         <f t="shared" si="21"/>
@@ -6737,11 +7294,11 @@
       </c>
       <c r="V48">
         <f t="shared" si="22"/>
-        <v>9.2000000000000011</v>
+        <v>9.2</v>
       </c>
       <c r="W48">
         <f t="shared" si="23"/>
-        <v>11.500000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="X48">
         <f t="shared" si="24"/>
@@ -6776,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:31">
       <c r="B49">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6790,7 +7347,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="13"/>
-        <v>0.87333333333333329</v>
+        <v>0.873333333333333</v>
       </c>
       <c r="F49">
         <f t="shared" si="14"/>
@@ -6798,9 +7355,9 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="15"/>
-        <v>11.411666666666667</v>
-      </c>
-      <c r="H49" s="4">
+        <v>11.4116666666667</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="34"/>
         <v>1369.4</v>
       </c>
@@ -6810,13 +7367,13 @@
       </c>
       <c r="J49">
         <f t="shared" si="27"/>
-        <v>340.03948586157844</v>
+        <v>340.039485861578</v>
       </c>
       <c r="K49">
         <f t="shared" si="18"/>
         <v>1396950</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="13">
         <f t="shared" si="19"/>
         <v>4.7</v>
       </c>
@@ -6853,7 +7410,7 @@
       </c>
       <c r="U49">
         <f t="shared" si="21"/>
-        <v>7.0500000000000007</v>
+        <v>7.05</v>
       </c>
       <c r="V49">
         <f t="shared" si="22"/>
@@ -6865,7 +7422,7 @@
       </c>
       <c r="X49">
         <f t="shared" si="24"/>
-        <v>14.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="Y49" s="3">
         <f t="shared" si="25"/>
@@ -6896,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:31">
       <c r="B50">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -6910,7 +7467,7 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" si="13"/>
-        <v>0.97541666666666671</v>
+        <v>0.975416666666667</v>
       </c>
       <c r="F50">
         <f t="shared" si="14"/>
@@ -6918,25 +7475,25 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="15"/>
-        <v>12.387083333333333</v>
-      </c>
-      <c r="H50" s="4">
+        <v>12.3870833333333</v>
+      </c>
+      <c r="H50" s="5">
         <f t="shared" si="34"/>
         <v>1486.45</v>
       </c>
       <c r="I50">
         <f t="shared" si="17"/>
-        <v>4459.3500000000004</v>
+        <v>4459.35</v>
       </c>
       <c r="J50">
         <f t="shared" si="27"/>
-        <v>374.04343444773633</v>
+        <v>374.043434447736</v>
       </c>
       <c r="K50">
         <f t="shared" si="18"/>
         <v>1667990</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="13">
         <f t="shared" si="19"/>
         <v>4.8</v>
       </c>
@@ -6973,7 +7530,7 @@
       </c>
       <c r="U50">
         <f t="shared" si="21"/>
-        <v>7.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="V50">
         <f t="shared" si="22"/>
@@ -6985,7 +7542,7 @@
       </c>
       <c r="X50">
         <f t="shared" si="24"/>
-        <v>14.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="Y50" s="3">
         <f t="shared" si="25"/>
@@ -7016,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:31">
       <c r="B51">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7030,7 +7587,7 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" si="13"/>
-        <v>0.99763888888888885</v>
+        <v>0.997638888888889</v>
       </c>
       <c r="F51">
         <f t="shared" si="14"/>
@@ -7038,11 +7595,11 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="15"/>
-        <v>13.384722222222223</v>
-      </c>
-      <c r="H51" s="4">
+        <v>13.3847222222222</v>
+      </c>
+      <c r="H51" s="5">
         <f t="shared" si="34"/>
-        <v>1606.1666666666667</v>
+        <v>1606.16666666667</v>
       </c>
       <c r="I51">
         <f t="shared" si="17"/>
@@ -7050,15 +7607,15 @@
       </c>
       <c r="J51">
         <f t="shared" si="27"/>
-        <v>411.44777789250998</v>
+        <v>411.44777789251</v>
       </c>
       <c r="K51">
         <f t="shared" si="18"/>
         <v>1982560</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="13">
         <f t="shared" si="19"/>
-        <v>4.8999999999999995</v>
+        <v>4.9</v>
       </c>
       <c r="M51" s="12">
         <v>1</v>
@@ -7089,7 +7646,7 @@
       </c>
       <c r="T51">
         <f t="shared" si="20"/>
-        <v>4.8999999999999995</v>
+        <v>4.9</v>
       </c>
       <c r="U51">
         <f t="shared" si="21"/>
@@ -7097,11 +7654,11 @@
       </c>
       <c r="V51">
         <f t="shared" si="22"/>
-        <v>9.7999999999999989</v>
+        <v>9.8</v>
       </c>
       <c r="W51">
         <f t="shared" si="23"/>
-        <v>12.249999999999998</v>
+        <v>12.25</v>
       </c>
       <c r="X51">
         <f t="shared" si="24"/>
@@ -7136,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:31">
       <c r="B52">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7150,7 +7707,7 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" si="13"/>
-        <v>1.0254166666666666</v>
+        <v>1.02541666666667</v>
       </c>
       <c r="F52">
         <f t="shared" si="14"/>
@@ -7158,27 +7715,27 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="15"/>
-        <v>14.410138888888889</v>
-      </c>
-      <c r="H52" s="4">
+        <v>14.4101388888889</v>
+      </c>
+      <c r="H52" s="5">
         <f t="shared" si="34"/>
-        <v>1729.2166666666667</v>
+        <v>1729.21666666667</v>
       </c>
       <c r="I52">
         <f t="shared" si="17"/>
-        <v>5187.6499999999996</v>
+        <v>5187.65</v>
       </c>
       <c r="J52">
         <f t="shared" si="27"/>
-        <v>452.59255568176098</v>
+        <v>452.592555681761</v>
       </c>
       <c r="K52">
         <f t="shared" si="18"/>
         <v>2347890</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="13">
         <f t="shared" si="19"/>
-        <v>4.9999999999999991</v>
+        <v>5</v>
       </c>
       <c r="M52" s="12">
         <v>1</v>
@@ -7209,23 +7766,23 @@
       </c>
       <c r="T52">
         <f t="shared" si="20"/>
-        <v>4.9999999999999991</v>
+        <v>5</v>
       </c>
       <c r="U52">
         <f t="shared" si="21"/>
-        <v>7.4999999999999982</v>
+        <v>7.5</v>
       </c>
       <c r="V52">
         <f t="shared" si="22"/>
-        <v>9.9999999999999982</v>
+        <v>10</v>
       </c>
       <c r="W52">
         <f t="shared" si="23"/>
-        <v>12.499999999999998</v>
+        <v>12.5</v>
       </c>
       <c r="X52">
         <f t="shared" si="24"/>
-        <v>14.999999999999996</v>
+        <v>15</v>
       </c>
       <c r="Y52" s="3">
         <f t="shared" si="25"/>
@@ -7256,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:31">
       <c r="B53">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7270,7 +7827,7 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" si="13"/>
-        <v>1.0643055555555556</v>
+        <v>1.06430555555556</v>
       </c>
       <c r="F53">
         <f t="shared" si="14"/>
@@ -7278,11 +7835,11 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="15"/>
-        <v>15.474444444444444</v>
-      </c>
-      <c r="H53" s="4">
+        <v>15.4744444444444</v>
+      </c>
+      <c r="H53" s="5">
         <f t="shared" si="34"/>
-        <v>1856.9333333333334</v>
+        <v>1856.93333333333</v>
       </c>
       <c r="I53">
         <f t="shared" si="17"/>
@@ -7290,15 +7847,15 @@
       </c>
       <c r="J53">
         <f t="shared" si="27"/>
-        <v>497.8518112499371</v>
+        <v>497.851811249937</v>
       </c>
       <c r="K53">
         <f t="shared" si="18"/>
         <v>2773430</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="13">
         <f t="shared" si="19"/>
-        <v>5.0999999999999988</v>
+        <v>5.1</v>
       </c>
       <c r="M53" s="12">
         <v>1</v>
@@ -7329,23 +7886,23 @@
       </c>
       <c r="T53">
         <f t="shared" si="20"/>
-        <v>5.0999999999999988</v>
+        <v>5.1</v>
       </c>
       <c r="U53">
         <f t="shared" si="21"/>
-        <v>7.6499999999999986</v>
+        <v>7.65</v>
       </c>
       <c r="V53">
         <f t="shared" si="22"/>
-        <v>10.199999999999998</v>
+        <v>10.2</v>
       </c>
       <c r="W53">
         <f t="shared" si="23"/>
-        <v>12.749999999999996</v>
+        <v>12.75</v>
       </c>
       <c r="X53">
         <f t="shared" si="24"/>
-        <v>15.299999999999997</v>
+        <v>15.3</v>
       </c>
       <c r="Y53" s="3">
         <f t="shared" si="25"/>
@@ -7376,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:31">
       <c r="B54">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7390,7 +7947,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="13"/>
-        <v>1.1143055555555557</v>
+        <v>1.11430555555556</v>
       </c>
       <c r="F54">
         <f t="shared" si="14"/>
@@ -7398,9 +7955,9 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="15"/>
-        <v>16.588750000000001</v>
-      </c>
-      <c r="H54" s="4">
+        <v>16.58875</v>
+      </c>
+      <c r="H54" s="5">
         <f t="shared" si="34"/>
         <v>1990.65</v>
       </c>
@@ -7410,15 +7967,15 @@
       </c>
       <c r="J54">
         <f t="shared" si="27"/>
-        <v>547.63699237493086</v>
+        <v>547.636992374931</v>
       </c>
       <c r="K54">
         <f t="shared" si="18"/>
         <v>3270460</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="13">
         <f t="shared" si="19"/>
-        <v>5.1999999999999984</v>
+        <v>5.2</v>
       </c>
       <c r="M54" s="12">
         <v>1</v>
@@ -7449,23 +8006,23 @@
       </c>
       <c r="T54">
         <f t="shared" si="20"/>
-        <v>5.1999999999999984</v>
+        <v>5.2</v>
       </c>
       <c r="U54">
         <f t="shared" si="21"/>
-        <v>7.7999999999999972</v>
+        <v>7.8</v>
       </c>
       <c r="V54">
         <f t="shared" si="22"/>
-        <v>10.399999999999997</v>
+        <v>10.4</v>
       </c>
       <c r="W54">
         <f t="shared" si="23"/>
-        <v>12.999999999999996</v>
+        <v>13</v>
       </c>
       <c r="X54">
         <f t="shared" si="24"/>
-        <v>15.599999999999994</v>
+        <v>15.6</v>
       </c>
       <c r="Y54" s="3">
         <f t="shared" si="25"/>
@@ -7496,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:31">
       <c r="B55">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7510,7 +8067,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="13"/>
-        <v>1.1754166666666668</v>
+        <v>1.17541666666667</v>
       </c>
       <c r="F55">
         <f t="shared" si="14"/>
@@ -7518,11 +8075,11 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="15"/>
-        <v>17.764166666666668</v>
-      </c>
-      <c r="H55" s="4">
+        <v>17.7641666666667</v>
+      </c>
+      <c r="H55" s="5">
         <f t="shared" si="34"/>
-        <v>2131.6999999999998</v>
+        <v>2131.7</v>
       </c>
       <c r="I55">
         <f t="shared" si="17"/>
@@ -7536,9 +8093,9 @@
         <f t="shared" si="18"/>
         <v>3852410</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="13">
         <f t="shared" si="19"/>
-        <v>5.299999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="M55" s="12">
         <v>1</v>
@@ -7569,23 +8126,23 @@
       </c>
       <c r="T55">
         <f t="shared" si="20"/>
-        <v>5.299999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="U55">
         <f t="shared" si="21"/>
-        <v>7.9499999999999975</v>
+        <v>7.95</v>
       </c>
       <c r="V55">
         <f t="shared" si="22"/>
-        <v>10.599999999999996</v>
+        <v>10.6</v>
       </c>
       <c r="W55">
         <f t="shared" si="23"/>
-        <v>13.249999999999995</v>
+        <v>13.25</v>
       </c>
       <c r="X55">
         <f t="shared" si="24"/>
-        <v>15.899999999999995</v>
+        <v>15.9</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" si="25"/>
@@ -7616,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:31">
       <c r="B56">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7630,7 +8187,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" si="13"/>
-        <v>1.247638888888889</v>
+        <v>1.24763888888889</v>
       </c>
       <c r="F56">
         <f t="shared" si="14"/>
@@ -7638,11 +8195,11 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="15"/>
-        <v>19.011805555555554</v>
-      </c>
-      <c r="H56" s="4">
+        <v>19.0118055555556</v>
+      </c>
+      <c r="H56" s="5">
         <f t="shared" si="34"/>
-        <v>2281.4166666666665</v>
+        <v>2281.41666666667</v>
       </c>
       <c r="I56">
         <f t="shared" si="17"/>
@@ -7650,15 +8207,15 @@
       </c>
       <c r="J56">
         <f t="shared" si="27"/>
-        <v>662.64076077366644</v>
+        <v>662.640760773666</v>
       </c>
       <c r="K56">
         <f t="shared" si="18"/>
         <v>4535275</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="13">
         <f t="shared" si="19"/>
-        <v>5.3999999999999977</v>
+        <v>5.4</v>
       </c>
       <c r="M56" s="12">
         <v>1</v>
@@ -7689,23 +8246,23 @@
       </c>
       <c r="T56">
         <f t="shared" si="20"/>
-        <v>5.3999999999999977</v>
+        <v>5.4</v>
       </c>
       <c r="U56">
         <f t="shared" si="21"/>
-        <v>8.0999999999999961</v>
+        <v>8.1</v>
       </c>
       <c r="V56">
         <f t="shared" si="22"/>
-        <v>10.799999999999995</v>
+        <v>10.8</v>
       </c>
       <c r="W56">
         <f t="shared" si="23"/>
-        <v>13.499999999999995</v>
+        <v>13.5</v>
       </c>
       <c r="X56">
         <f t="shared" si="24"/>
-        <v>16.199999999999992</v>
+        <v>16.2</v>
       </c>
       <c r="Y56" s="3">
         <f t="shared" si="25"/>
@@ -7736,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:31">
       <c r="B57">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7750,7 +8307,7 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" si="13"/>
-        <v>1.3309722222222222</v>
+        <v>1.33097222222222</v>
       </c>
       <c r="F57">
         <f t="shared" si="14"/>
@@ -7758,11 +8315,11 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="15"/>
-        <v>20.342777777777776</v>
-      </c>
-      <c r="H57" s="4">
+        <v>20.3427777777778</v>
+      </c>
+      <c r="H57" s="5">
         <f t="shared" si="34"/>
-        <v>2441.1333333333332</v>
+        <v>2441.13333333333</v>
       </c>
       <c r="I57">
         <f t="shared" si="17"/>
@@ -7770,15 +8327,15 @@
       </c>
       <c r="J57">
         <f t="shared" si="27"/>
-        <v>728.90483685103311</v>
+        <v>728.904836851033</v>
       </c>
       <c r="K57">
         <f t="shared" si="18"/>
         <v>5338060</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="13">
         <f t="shared" si="19"/>
-        <v>5.4999999999999973</v>
+        <v>5.5</v>
       </c>
       <c r="M57" s="12">
         <v>1</v>
@@ -7809,23 +8366,23 @@
       </c>
       <c r="T57">
         <f t="shared" si="20"/>
-        <v>5.4999999999999973</v>
+        <v>5.5</v>
       </c>
       <c r="U57">
         <f t="shared" si="21"/>
-        <v>8.2499999999999964</v>
+        <v>8.25</v>
       </c>
       <c r="V57">
         <f t="shared" si="22"/>
-        <v>10.999999999999995</v>
+        <v>11</v>
       </c>
       <c r="W57">
         <f t="shared" si="23"/>
-        <v>13.749999999999993</v>
+        <v>13.75</v>
       </c>
       <c r="X57">
         <f t="shared" si="24"/>
-        <v>16.499999999999993</v>
+        <v>16.5</v>
       </c>
       <c r="Y57" s="3">
         <f t="shared" si="25"/>
@@ -7856,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:31">
       <c r="B58">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7870,7 +8427,7 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" si="13"/>
-        <v>1.4254166666666668</v>
+        <v>1.42541666666667</v>
       </c>
       <c r="F58">
         <f t="shared" si="14"/>
@@ -7878,11 +8435,11 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" si="15"/>
-        <v>21.768194444444443</v>
-      </c>
-      <c r="H58" s="4">
+        <v>21.7681944444444</v>
+      </c>
+      <c r="H58" s="5">
         <f t="shared" si="34"/>
-        <v>2612.1833333333334</v>
+        <v>2612.18333333333</v>
       </c>
       <c r="I58">
         <f t="shared" si="17"/>
@@ -7890,15 +8447,15 @@
       </c>
       <c r="J58">
         <f t="shared" si="27"/>
-        <v>801.7953205361365</v>
+        <v>801.795320536137</v>
       </c>
       <c r="K58">
         <f t="shared" si="18"/>
         <v>6283305</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="13">
         <f t="shared" si="19"/>
-        <v>5.599999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="M58" s="12">
         <v>1</v>
@@ -7929,23 +8486,23 @@
       </c>
       <c r="T58">
         <f t="shared" si="20"/>
-        <v>5.599999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="U58">
         <f t="shared" si="21"/>
-        <v>8.399999999999995</v>
+        <v>8.4</v>
       </c>
       <c r="V58">
         <f t="shared" si="22"/>
-        <v>11.199999999999994</v>
+        <v>11.2</v>
       </c>
       <c r="W58">
         <f t="shared" si="23"/>
-        <v>13.999999999999993</v>
+        <v>14</v>
       </c>
       <c r="X58">
         <f t="shared" si="24"/>
-        <v>16.79999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="Y58" s="3">
         <f t="shared" si="25"/>
@@ -7976,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:31">
       <c r="B59">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -7990,7 +8547,7 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" si="13"/>
-        <v>1.5309722222222222</v>
+        <v>1.53097222222222</v>
       </c>
       <c r="F59">
         <f t="shared" si="14"/>
@@ -7998,27 +8555,27 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" si="15"/>
-        <v>23.299166666666668</v>
-      </c>
-      <c r="H59" s="4">
+        <v>23.2991666666667</v>
+      </c>
+      <c r="H59" s="5">
         <f t="shared" si="34"/>
         <v>2795.9</v>
       </c>
       <c r="I59">
         <f t="shared" si="17"/>
-        <v>8387.7000000000007</v>
+        <v>8387.7</v>
       </c>
       <c r="J59">
         <f t="shared" si="27"/>
-        <v>881.97485258975018</v>
+        <v>881.97485258975</v>
       </c>
       <c r="K59">
         <f t="shared" si="18"/>
         <v>7397740</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="13">
         <f t="shared" si="19"/>
-        <v>5.6999999999999966</v>
+        <v>5.7</v>
       </c>
       <c r="M59" s="12">
         <v>1</v>
@@ -8049,23 +8606,23 @@
       </c>
       <c r="T59">
         <f t="shared" si="20"/>
-        <v>5.6999999999999966</v>
+        <v>5.7</v>
       </c>
       <c r="U59">
         <f t="shared" si="21"/>
-        <v>8.5499999999999954</v>
+        <v>8.55</v>
       </c>
       <c r="V59">
         <f t="shared" si="22"/>
-        <v>11.399999999999993</v>
+        <v>11.4</v>
       </c>
       <c r="W59">
         <f t="shared" si="23"/>
-        <v>14.249999999999991</v>
+        <v>14.25</v>
       </c>
       <c r="X59">
         <f t="shared" si="24"/>
-        <v>17.099999999999991</v>
+        <v>17.1</v>
       </c>
       <c r="Y59" s="3">
         <f t="shared" si="25"/>
@@ -8096,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:31">
       <c r="B60">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -8110,7 +8667,7 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" si="13"/>
-        <v>1.6476388888888889</v>
+        <v>1.64763888888889</v>
       </c>
       <c r="F60">
         <f t="shared" si="14"/>
@@ -8118,11 +8675,11 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" si="15"/>
-        <v>24.946805555555557</v>
-      </c>
-      <c r="H60" s="4">
+        <v>24.9468055555556</v>
+      </c>
+      <c r="H60" s="5">
         <f t="shared" si="34"/>
-        <v>2993.6166666666668</v>
+        <v>2993.61666666667</v>
       </c>
       <c r="I60">
         <f t="shared" si="17"/>
@@ -8130,15 +8687,15 @@
       </c>
       <c r="J60">
         <f t="shared" si="27"/>
-        <v>970.17233784872531</v>
+        <v>970.172337848725</v>
       </c>
       <c r="K60">
         <f t="shared" si="18"/>
         <v>8712970</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="13">
         <f t="shared" si="19"/>
-        <v>5.7999999999999963</v>
+        <v>5.8</v>
       </c>
       <c r="M60" s="12">
         <v>1</v>
@@ -8169,23 +8726,23 @@
       </c>
       <c r="T60">
         <f t="shared" si="20"/>
-        <v>5.7999999999999963</v>
+        <v>5.8</v>
       </c>
       <c r="U60">
         <f t="shared" si="21"/>
-        <v>8.699999999999994</v>
+        <v>8.69999999999999</v>
       </c>
       <c r="V60">
         <f t="shared" si="22"/>
-        <v>11.599999999999993</v>
+        <v>11.6</v>
       </c>
       <c r="W60">
         <f t="shared" si="23"/>
-        <v>14.499999999999991</v>
+        <v>14.5</v>
       </c>
       <c r="X60">
         <f t="shared" si="24"/>
-        <v>17.399999999999988</v>
+        <v>17.4</v>
       </c>
       <c r="Y60" s="3">
         <f t="shared" si="25"/>
@@ -8216,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:31">
       <c r="B61">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8230,7 +8787,7 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" si="13"/>
-        <v>1.6726388888888888</v>
+        <v>1.67263888888889</v>
       </c>
       <c r="F61">
         <f t="shared" si="14"/>
@@ -8238,11 +8795,11 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="15"/>
-        <v>26.619444444444444</v>
-      </c>
-      <c r="H61" s="4">
+        <v>26.6194444444444</v>
+      </c>
+      <c r="H61" s="5">
         <f t="shared" si="34"/>
-        <v>3194.3333333333335</v>
+        <v>3194.33333333333</v>
       </c>
       <c r="I61">
         <f t="shared" si="17"/>
@@ -8250,15 +8807,15 @@
       </c>
       <c r="J61">
         <f t="shared" si="27"/>
-        <v>1067.189571633598</v>
+        <v>1067.1895716336</v>
       </c>
       <c r="K61">
         <f t="shared" si="18"/>
         <v>10226875</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="13">
         <f t="shared" si="19"/>
-        <v>5.8999999999999959</v>
+        <v>5.9</v>
       </c>
       <c r="M61" s="12">
         <v>1</v>
@@ -8289,23 +8846,23 @@
       </c>
       <c r="T61">
         <f t="shared" si="20"/>
-        <v>5.8999999999999959</v>
+        <v>5.9</v>
       </c>
       <c r="U61">
         <f t="shared" si="21"/>
-        <v>8.8499999999999943</v>
+        <v>8.84999999999999</v>
       </c>
       <c r="V61">
         <f t="shared" si="22"/>
-        <v>11.799999999999992</v>
+        <v>11.8</v>
       </c>
       <c r="W61">
         <f t="shared" si="23"/>
-        <v>14.749999999999989</v>
+        <v>14.75</v>
       </c>
       <c r="X61">
         <f t="shared" si="24"/>
-        <v>17.699999999999989</v>
+        <v>17.7</v>
       </c>
       <c r="Y61" s="3">
         <f t="shared" si="25"/>
@@ -8336,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:31">
       <c r="B62">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8350,7 +8907,7 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" si="13"/>
-        <v>1.7038888888888888</v>
+        <v>1.70388888888889</v>
       </c>
       <c r="F62">
         <f t="shared" si="14"/>
@@ -8358,9 +8915,9 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" si="15"/>
-        <v>28.323333333333334</v>
-      </c>
-      <c r="H62" s="4">
+        <v>28.3233333333333</v>
+      </c>
+      <c r="H62" s="5">
         <f t="shared" si="34"/>
         <v>3398.8</v>
       </c>
@@ -8370,15 +8927,15 @@
       </c>
       <c r="J62">
         <f t="shared" si="27"/>
-        <v>1173.9085287969579</v>
+        <v>1173.90852879696</v>
       </c>
       <c r="K62">
         <f t="shared" si="18"/>
         <v>11969640</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="13">
         <f t="shared" si="19"/>
-        <v>5.9999999999999956</v>
+        <v>6</v>
       </c>
       <c r="M62" s="12">
         <v>1</v>
@@ -8409,23 +8966,23 @@
       </c>
       <c r="T62">
         <f t="shared" si="20"/>
-        <v>5.9999999999999956</v>
+        <v>6</v>
       </c>
       <c r="U62">
         <f t="shared" si="21"/>
-        <v>8.9999999999999929</v>
+        <v>8.99999999999999</v>
       </c>
       <c r="V62">
         <f t="shared" si="22"/>
-        <v>11.999999999999991</v>
+        <v>12</v>
       </c>
       <c r="W62">
         <f t="shared" si="23"/>
-        <v>14.999999999999989</v>
+        <v>15</v>
       </c>
       <c r="X62">
         <f t="shared" si="24"/>
-        <v>17.999999999999986</v>
+        <v>18</v>
       </c>
       <c r="Y62" s="3">
         <f t="shared" si="25"/>
@@ -8456,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:31">
       <c r="B63">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8470,7 +9027,7 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" si="13"/>
-        <v>1.747638888888889</v>
+        <v>1.74763888888889</v>
       </c>
       <c r="F63">
         <f t="shared" si="14"/>
@@ -8478,11 +9035,11 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" si="15"/>
-        <v>30.070972222222224</v>
-      </c>
-      <c r="H63" s="4">
+        <v>30.0709722222222</v>
+      </c>
+      <c r="H63" s="5">
         <f t="shared" si="34"/>
-        <v>3608.5166666666669</v>
+        <v>3608.51666666667</v>
       </c>
       <c r="I63">
         <f t="shared" si="17"/>
@@ -8490,15 +9047,15 @@
       </c>
       <c r="J63">
         <f t="shared" si="27"/>
-        <v>1291.2993816766536</v>
+        <v>1291.29938167665</v>
       </c>
       <c r="K63">
         <f t="shared" si="18"/>
         <v>13979025</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="13">
         <f t="shared" si="19"/>
-        <v>6.0999999999999952</v>
+        <v>6.1</v>
       </c>
       <c r="M63" s="12">
         <v>1</v>
@@ -8529,23 +9086,23 @@
       </c>
       <c r="T63">
         <f t="shared" si="20"/>
-        <v>6.0999999999999952</v>
+        <v>6.1</v>
       </c>
       <c r="U63">
         <f t="shared" si="21"/>
-        <v>9.1499999999999932</v>
+        <v>9.14999999999999</v>
       </c>
       <c r="V63">
         <f t="shared" si="22"/>
-        <v>12.19999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="W63">
         <f t="shared" si="23"/>
-        <v>15.249999999999988</v>
+        <v>15.25</v>
       </c>
       <c r="X63">
         <f t="shared" si="24"/>
-        <v>18.299999999999986</v>
+        <v>18.3</v>
       </c>
       <c r="Y63" s="3">
         <f t="shared" si="25"/>
@@ -8576,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:31">
       <c r="B64">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8590,7 +9147,7 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" si="13"/>
-        <v>1.8038888888888889</v>
+        <v>1.80388888888889</v>
       </c>
       <c r="F64">
         <f t="shared" si="14"/>
@@ -8598,11 +9155,11 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" si="15"/>
-        <v>31.874861111111112</v>
-      </c>
-      <c r="H64" s="4">
+        <v>31.8748611111111</v>
+      </c>
+      <c r="H64" s="5">
         <f t="shared" si="34"/>
-        <v>3824.9833333333331</v>
+        <v>3824.98333333333</v>
       </c>
       <c r="I64">
         <f t="shared" si="17"/>
@@ -8610,15 +9167,15 @@
       </c>
       <c r="J64">
         <f t="shared" si="27"/>
-        <v>1420.429319844319</v>
+        <v>1420.42931984432</v>
       </c>
       <c r="K64">
         <f t="shared" si="18"/>
         <v>16299355</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="13">
         <f t="shared" si="19"/>
-        <v>6.1999999999999948</v>
+        <v>6.19999999999999</v>
       </c>
       <c r="M64" s="12">
         <v>1</v>
@@ -8649,23 +9206,23 @@
       </c>
       <c r="T64">
         <f t="shared" si="20"/>
-        <v>6.1999999999999948</v>
+        <v>6.19999999999999</v>
       </c>
       <c r="U64">
         <f t="shared" si="21"/>
-        <v>9.2999999999999918</v>
+        <v>9.29999999999999</v>
       </c>
       <c r="V64">
         <f t="shared" si="22"/>
-        <v>12.39999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="W64">
         <f t="shared" si="23"/>
-        <v>15.499999999999988</v>
+        <v>15.5</v>
       </c>
       <c r="X64">
         <f t="shared" si="24"/>
-        <v>18.599999999999984</v>
+        <v>18.6</v>
       </c>
       <c r="Y64" s="3">
         <f t="shared" si="25"/>
@@ -8696,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:31">
       <c r="B65">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8710,7 +9267,7 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" si="13"/>
-        <v>1.872638888888889</v>
+        <v>1.87263888888889</v>
       </c>
       <c r="F65">
         <f t="shared" si="14"/>
@@ -8718,9 +9275,9 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" si="15"/>
-        <v>33.747500000000002</v>
-      </c>
-      <c r="H65" s="4">
+        <v>33.7475</v>
+      </c>
+      <c r="H65" s="5">
         <f t="shared" si="34"/>
         <v>4049.7</v>
       </c>
@@ -8730,15 +9287,15 @@
       </c>
       <c r="J65">
         <f t="shared" si="27"/>
-        <v>1562.472251828751</v>
+        <v>1562.47225182875</v>
       </c>
       <c r="K65">
         <f t="shared" si="18"/>
         <v>18982630</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="13">
         <f t="shared" si="19"/>
-        <v>6.2999999999999945</v>
+        <v>6.29999999999999</v>
       </c>
       <c r="M65" s="12">
         <v>1</v>
@@ -8769,23 +9326,23 @@
       </c>
       <c r="T65">
         <f t="shared" si="20"/>
-        <v>6.2999999999999945</v>
+        <v>6.29999999999999</v>
       </c>
       <c r="U65">
         <f t="shared" si="21"/>
-        <v>9.4499999999999922</v>
+        <v>9.44999999999999</v>
       </c>
       <c r="V65">
         <f t="shared" si="22"/>
-        <v>12.599999999999989</v>
+        <v>12.6</v>
       </c>
       <c r="W65">
         <f t="shared" si="23"/>
-        <v>15.749999999999986</v>
+        <v>15.75</v>
       </c>
       <c r="X65">
         <f t="shared" si="24"/>
-        <v>18.899999999999984</v>
+        <v>18.9</v>
       </c>
       <c r="Y65" s="3">
         <f t="shared" si="25"/>
@@ -8816,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:31">
       <c r="B66">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8830,7 +9387,7 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="13"/>
-        <v>1.9538888888888888</v>
+        <v>1.95388888888889</v>
       </c>
       <c r="F66">
         <f t="shared" si="14"/>
@@ -8838,11 +9395,11 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" si="15"/>
-        <v>35.701388888888886</v>
-      </c>
-      <c r="H66" s="4">
+        <v>35.7013888888889</v>
+      </c>
+      <c r="H66" s="5">
         <f t="shared" si="34"/>
-        <v>4284.166666666667</v>
+        <v>4284.16666666667</v>
       </c>
       <c r="I66">
         <f t="shared" si="17"/>
@@ -8850,15 +9407,15 @@
       </c>
       <c r="J66">
         <f t="shared" si="27"/>
-        <v>1718.7194770116264</v>
+        <v>1718.71947701163</v>
       </c>
       <c r="K66">
         <f t="shared" si="18"/>
         <v>22089840</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="13">
         <f t="shared" si="19"/>
-        <v>6.3999999999999941</v>
+        <v>6.39999999999999</v>
       </c>
       <c r="M66" s="12">
         <v>1</v>
@@ -8889,23 +9446,23 @@
       </c>
       <c r="T66">
         <f t="shared" si="20"/>
-        <v>6.3999999999999941</v>
+        <v>6.39999999999999</v>
       </c>
       <c r="U66">
         <f t="shared" si="21"/>
-        <v>9.5999999999999908</v>
+        <v>9.59999999999999</v>
       </c>
       <c r="V66">
         <f t="shared" si="22"/>
-        <v>12.799999999999988</v>
+        <v>12.8</v>
       </c>
       <c r="W66">
         <f t="shared" si="23"/>
-        <v>15.999999999999986</v>
+        <v>16</v>
       </c>
       <c r="X66">
         <f t="shared" si="24"/>
-        <v>19.199999999999982</v>
+        <v>19.2</v>
       </c>
       <c r="Y66" s="3">
         <f t="shared" si="25"/>
@@ -8936,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:31">
       <c r="B67">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -8950,7 +9507,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="13"/>
-        <v>2.0476388888888888</v>
+        <v>2.04763888888889</v>
       </c>
       <c r="F67">
         <f t="shared" si="14"/>
@@ -8958,11 +9515,11 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" si="15"/>
-        <v>37.749027777777776</v>
-      </c>
-      <c r="H67" s="4">
+        <v>37.7490277777778</v>
+      </c>
+      <c r="H67" s="5">
         <f t="shared" si="34"/>
-        <v>4529.8833333333332</v>
+        <v>4529.88333333333</v>
       </c>
       <c r="I67">
         <f t="shared" si="17"/>
@@ -8970,15 +9527,15 @@
       </c>
       <c r="J67">
         <f t="shared" si="27"/>
-        <v>1890.5914247127891</v>
+        <v>1890.59142471279</v>
       </c>
       <c r="K67">
         <f t="shared" si="18"/>
         <v>25692475</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="13">
         <f t="shared" si="19"/>
-        <v>6.4999999999999938</v>
+        <v>6.49999999999999</v>
       </c>
       <c r="M67" s="12">
         <v>1</v>
@@ -9009,23 +9566,23 @@
       </c>
       <c r="T67">
         <f t="shared" si="20"/>
-        <v>6.4999999999999938</v>
+        <v>6.49999999999999</v>
       </c>
       <c r="U67">
         <f t="shared" si="21"/>
-        <v>9.7499999999999911</v>
+        <v>9.74999999999999</v>
       </c>
       <c r="V67">
         <f t="shared" si="22"/>
-        <v>12.999999999999988</v>
+        <v>13</v>
       </c>
       <c r="W67">
         <f t="shared" si="23"/>
-        <v>16.249999999999986</v>
+        <v>16.25</v>
       </c>
       <c r="X67">
         <f t="shared" si="24"/>
-        <v>19.499999999999982</v>
+        <v>19.5</v>
       </c>
       <c r="Y67" s="3">
         <f t="shared" si="25"/>
@@ -9056,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:31">
       <c r="B68">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -9070,7 +9627,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" si="13"/>
-        <v>2.153888888888889</v>
+        <v>2.15388888888889</v>
       </c>
       <c r="F68">
         <f t="shared" si="14"/>
@@ -9078,11 +9635,11 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" si="15"/>
-        <v>39.90291666666667</v>
-      </c>
-      <c r="H68" s="4">
+        <v>39.9029166666667</v>
+      </c>
+      <c r="H68" s="5">
         <f t="shared" si="34"/>
-        <v>4788.3500000000004</v>
+        <v>4788.35</v>
       </c>
       <c r="I68">
         <f t="shared" si="17"/>
@@ -9090,15 +9647,15 @@
       </c>
       <c r="J68">
         <f t="shared" si="27"/>
-        <v>2079.6505671840682</v>
+        <v>2079.65056718407</v>
       </c>
       <c r="K68">
         <f t="shared" si="18"/>
         <v>29874280</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="13">
         <f t="shared" si="19"/>
-        <v>6.5999999999999934</v>
+        <v>6.59999999999999</v>
       </c>
       <c r="M68" s="12">
         <v>1</v>
@@ -9129,23 +9686,23 @@
       </c>
       <c r="T68">
         <f t="shared" si="20"/>
-        <v>6.5999999999999934</v>
+        <v>6.59999999999999</v>
       </c>
       <c r="U68">
         <f t="shared" si="21"/>
-        <v>9.8999999999999897</v>
+        <v>9.89999999999999</v>
       </c>
       <c r="V68">
         <f t="shared" si="22"/>
-        <v>13.199999999999987</v>
+        <v>13.2</v>
       </c>
       <c r="W68">
         <f t="shared" si="23"/>
-        <v>16.499999999999982</v>
+        <v>16.5</v>
       </c>
       <c r="X68">
         <f t="shared" si="24"/>
-        <v>19.799999999999979</v>
+        <v>19.8</v>
       </c>
       <c r="Y68" s="3">
         <f t="shared" si="25"/>
@@ -9176,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:31">
       <c r="B69">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -9190,7 +9747,7 @@
       </c>
       <c r="E69" s="3">
         <f t="shared" si="13"/>
-        <v>2.2726388888888889</v>
+        <v>2.27263888888889</v>
       </c>
       <c r="F69">
         <f t="shared" si="14"/>
@@ -9198,11 +9755,11 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" si="15"/>
-        <v>42.175555555555555</v>
-      </c>
-      <c r="H69" s="4">
+        <v>42.1755555555556</v>
+      </c>
+      <c r="H69" s="5">
         <f t="shared" si="34"/>
-        <v>5061.0666666666666</v>
+        <v>5061.06666666667</v>
       </c>
       <c r="I69">
         <f t="shared" si="17"/>
@@ -9210,15 +9767,15 @@
       </c>
       <c r="J69">
         <f t="shared" si="27"/>
-        <v>2287.6156239024754</v>
+        <v>2287.61562390248</v>
       </c>
       <c r="K69">
         <f t="shared" si="18"/>
         <v>34733325</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="13">
         <f t="shared" si="19"/>
-        <v>6.6999999999999931</v>
+        <v>6.69999999999999</v>
       </c>
       <c r="M69" s="12">
         <v>1</v>
@@ -9249,23 +9806,23 @@
       </c>
       <c r="T69">
         <f t="shared" si="20"/>
-        <v>6.6999999999999931</v>
+        <v>6.69999999999999</v>
       </c>
       <c r="U69">
         <f t="shared" si="21"/>
-        <v>10.04999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="V69">
         <f t="shared" si="22"/>
-        <v>13.399999999999986</v>
+        <v>13.4</v>
       </c>
       <c r="W69">
         <f t="shared" si="23"/>
-        <v>16.749999999999982</v>
+        <v>16.75</v>
       </c>
       <c r="X69">
         <f t="shared" si="24"/>
-        <v>20.09999999999998</v>
+        <v>20.1</v>
       </c>
       <c r="Y69" s="3">
         <f t="shared" si="25"/>
@@ -9296,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:31">
       <c r="B70">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -9310,7 +9867,7 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" si="13"/>
-        <v>2.403888888888889</v>
+        <v>2.40388888888889</v>
       </c>
       <c r="F70">
         <f t="shared" si="14"/>
@@ -9318,11 +9875,11 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" si="15"/>
-        <v>44.579444444444448</v>
-      </c>
-      <c r="H70" s="4">
+        <v>44.5794444444444</v>
+      </c>
+      <c r="H70" s="5">
         <f t="shared" si="34"/>
-        <v>5349.5333333333338</v>
+        <v>5349.53333333333</v>
       </c>
       <c r="I70">
         <f t="shared" si="17"/>
@@ -9330,15 +9887,15 @@
       </c>
       <c r="J70">
         <f t="shared" si="27"/>
-        <v>2516.3771862927233</v>
+        <v>2516.37718629272</v>
       </c>
       <c r="K70">
         <f t="shared" si="18"/>
         <v>40384330</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="13">
         <f t="shared" si="19"/>
-        <v>6.7999999999999927</v>
+        <v>6.79999999999999</v>
       </c>
       <c r="M70" s="12">
         <v>1</v>
@@ -9369,23 +9926,23 @@
       </c>
       <c r="T70">
         <f t="shared" si="20"/>
-        <v>6.7999999999999927</v>
+        <v>6.79999999999999</v>
       </c>
       <c r="U70">
         <f t="shared" si="21"/>
-        <v>10.199999999999989</v>
+        <v>10.2</v>
       </c>
       <c r="V70">
         <f t="shared" si="22"/>
-        <v>13.599999999999985</v>
+        <v>13.6</v>
       </c>
       <c r="W70">
         <f t="shared" si="23"/>
-        <v>16.999999999999982</v>
+        <v>17</v>
       </c>
       <c r="X70">
         <f t="shared" si="24"/>
-        <v>20.399999999999977</v>
+        <v>20.4</v>
       </c>
       <c r="Y70" s="3">
         <f t="shared" si="25"/>
@@ -9417,9 +9974,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F12:F70" formula="1"/>
   </ignoredErrors>
@@ -9427,83 +9984,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <f>C5*3600*C4/2</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <f>C4*C7/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <f>C6/C8</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -9513,9 +10071,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -9525,9 +10083,9 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -9537,35 +10095,35 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C16" si="1">D10/$C$13</f>
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -9573,22 +10131,71 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B6:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="6" ht="40.5" spans="2:6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>